--- a/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9915189289154205</v>
+        <v>0.9915189289154208</v>
       </c>
       <c r="D2">
-        <v>1.011094083671827</v>
+        <v>1.011094083671828</v>
       </c>
       <c r="E2">
-        <v>0.9985247935388787</v>
+        <v>0.9985247935388789</v>
       </c>
       <c r="F2">
-        <v>0.9645957043838774</v>
+        <v>0.9645957043838778</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>1.010004718662141</v>
       </c>
       <c r="M2">
-        <v>0.9765713521332128</v>
+        <v>0.976571352133213</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9983830133576859</v>
+        <v>0.9983830133576855</v>
       </c>
       <c r="D3">
         <v>1.016522721157471</v>
@@ -468,7 +468,7 @@
         <v>1.004225023194732</v>
       </c>
       <c r="F3">
-        <v>0.9778182675937053</v>
+        <v>0.9778182675937064</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>1.014804127997035</v>
       </c>
       <c r="M3">
-        <v>0.9887430621900123</v>
+        <v>0.9887430621900132</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -506,7 +506,7 @@
         <v>1.007800292141857</v>
       </c>
       <c r="F4">
-        <v>0.9859618300473666</v>
+        <v>0.9859618300473674</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>1.017805477360276</v>
       </c>
       <c r="M4">
-        <v>0.9962326892091369</v>
+        <v>0.9962326892091377</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004457697634899</v>
+        <v>1.004457697634898</v>
       </c>
       <c r="D5">
-        <v>1.021324002010165</v>
+        <v>1.021324002010164</v>
       </c>
       <c r="E5">
-        <v>1.009277914594387</v>
+        <v>1.009277914594386</v>
       </c>
       <c r="F5">
-        <v>0.9892958342277209</v>
+        <v>0.9892958342277199</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.044614044856722</v>
       </c>
       <c r="J5">
-        <v>1.023295810207907</v>
+        <v>1.023295810207906</v>
       </c>
       <c r="K5">
-        <v>1.030953377029844</v>
+        <v>1.030953377029843</v>
       </c>
       <c r="L5">
-        <v>1.019043813744789</v>
+        <v>1.019043813744788</v>
       </c>
       <c r="M5">
-        <v>0.999297297193449</v>
+        <v>0.9992972971934481</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,13 +576,13 @@
         <v>1.004753991124895</v>
       </c>
       <c r="D6">
-        <v>1.021558108520833</v>
+        <v>1.021558108520834</v>
       </c>
       <c r="E6">
         <v>1.009524568418858</v>
       </c>
       <c r="F6">
-        <v>0.9898506177727565</v>
+        <v>0.9898506177727561</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.044739548592463</v>
       </c>
       <c r="J6">
-        <v>1.023509015505377</v>
+        <v>1.023509015505378</v>
       </c>
       <c r="K6">
         <v>1.031148225801267</v>
@@ -600,7 +600,7 @@
         <v>1.019250402725249</v>
       </c>
       <c r="M6">
-        <v>0.999807152822291</v>
+        <v>0.9998071528222906</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -620,7 +620,7 @@
         <v>1.00782013401764</v>
       </c>
       <c r="F7">
-        <v>0.9860067199635711</v>
+        <v>0.9860067199635706</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1.043870146321559</v>
       </c>
       <c r="J7">
-        <v>1.022034752320196</v>
+        <v>1.022034752320197</v>
       </c>
       <c r="K7">
         <v>1.029800529616629</v>
@@ -638,7 +638,7 @@
         <v>1.017822114264343</v>
       </c>
       <c r="M7">
-        <v>0.9962739586180489</v>
+        <v>0.9962739586180483</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9938695067106382</v>
+        <v>0.9938695067106366</v>
       </c>
       <c r="D8">
-        <v>1.012953497979558</v>
+        <v>1.012953497979556</v>
       </c>
       <c r="E8">
-        <v>1.000475710249783</v>
+        <v>1.000475710249781</v>
       </c>
       <c r="F8">
-        <v>0.9691556907079077</v>
+        <v>0.969155690707907</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040067780313398</v>
+        <v>1.040067780313396</v>
       </c>
       <c r="J8">
-        <v>1.015657048546706</v>
+        <v>1.015657048546704</v>
       </c>
       <c r="K8">
-        <v>1.023960818746323</v>
+        <v>1.023960818746321</v>
       </c>
       <c r="L8">
-        <v>1.011649241591302</v>
+        <v>1.011649241591301</v>
       </c>
       <c r="M8">
-        <v>0.9807703376355773</v>
+        <v>0.9807703376355764</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9770975749420618</v>
+        <v>0.9770975749420613</v>
       </c>
       <c r="D9">
-        <v>0.9996768907777117</v>
+        <v>0.9996768907777109</v>
       </c>
       <c r="E9">
-        <v>0.9865803995309506</v>
+        <v>0.9865803995309501</v>
       </c>
       <c r="F9">
-        <v>0.9357974855091977</v>
+        <v>0.9357974855091983</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.032633419546568</v>
       </c>
       <c r="J9">
-        <v>1.003485831615303</v>
+        <v>1.003485831615302</v>
       </c>
       <c r="K9">
-        <v>1.012775212379682</v>
+        <v>1.012775212379681</v>
       </c>
       <c r="L9">
-        <v>0.9998950185135935</v>
+        <v>0.9998950185135931</v>
       </c>
       <c r="M9">
-        <v>0.9500258170062543</v>
+        <v>0.9500258170062548</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9649230682891881</v>
+        <v>0.9649230682891884</v>
       </c>
       <c r="D10">
-        <v>0.9900243128732513</v>
+        <v>0.9900243128732515</v>
       </c>
       <c r="E10">
-        <v>0.9765298627208258</v>
+        <v>0.9765298627208261</v>
       </c>
       <c r="F10">
-        <v>0.9101725843975541</v>
+        <v>0.9101725843975538</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.027061139583652</v>
       </c>
       <c r="J10">
-        <v>0.9946009801588296</v>
+        <v>0.99460098015883</v>
       </c>
       <c r="K10">
-        <v>1.00457604802882</v>
+        <v>1.004576048028821</v>
       </c>
       <c r="L10">
-        <v>0.9913362144584458</v>
+        <v>0.991336214458446</v>
       </c>
       <c r="M10">
-        <v>0.9263780714999026</v>
+        <v>0.9263780714999023</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9593617373677031</v>
+        <v>0.9593617373677018</v>
       </c>
       <c r="D11">
-        <v>0.9856094165740726</v>
+        <v>0.9856094165740714</v>
       </c>
       <c r="E11">
-        <v>0.9719485723258</v>
+        <v>0.9719485723257986</v>
       </c>
       <c r="F11">
-        <v>0.8979735383059612</v>
+        <v>0.8979735383059602</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.024464543889058</v>
       </c>
       <c r="J11">
-        <v>0.9905285959815487</v>
+        <v>0.9905285959815474</v>
       </c>
       <c r="K11">
-        <v>1.000807918457285</v>
+        <v>1.000807918457284</v>
       </c>
       <c r="L11">
-        <v>0.9874196219855119</v>
+        <v>0.9874196219855104</v>
       </c>
       <c r="M11">
-        <v>0.9151152466452634</v>
+        <v>0.9151152466452626</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9572465317453351</v>
+        <v>0.957246531745334</v>
       </c>
       <c r="D12">
-        <v>0.983929117456037</v>
+        <v>0.9839291174560358</v>
       </c>
       <c r="E12">
-        <v>0.9702076988920271</v>
+        <v>0.9702076988920262</v>
       </c>
       <c r="F12">
-        <v>0.8932401030044173</v>
+        <v>0.8932401030044174</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023468088426451</v>
+        <v>1.02346808842645</v>
       </c>
       <c r="J12">
-        <v>0.9889773671578886</v>
+        <v>0.9889773671578878</v>
       </c>
       <c r="K12">
-        <v>0.9993708257173864</v>
+        <v>0.9993708257173854</v>
       </c>
       <c r="L12">
-        <v>0.9859288305097478</v>
+        <v>0.9859288305097469</v>
       </c>
       <c r="M12">
-        <v>0.9107446065387568</v>
+        <v>0.9107446065387567</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9577026017038396</v>
+        <v>0.9577026017038404</v>
       </c>
       <c r="D13">
-        <v>0.9842914723132443</v>
+        <v>0.984291472313245</v>
       </c>
       <c r="E13">
-        <v>0.9705829842121811</v>
+        <v>0.9705829842121816</v>
       </c>
       <c r="F13">
-        <v>0.8942653122978372</v>
+        <v>0.8942653122978382</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023683362296598</v>
+        <v>1.023683362296599</v>
       </c>
       <c r="J13">
-        <v>0.9893119459259367</v>
+        <v>0.9893119459259374</v>
       </c>
       <c r="K13">
-        <v>0.999680871252603</v>
+        <v>0.9996808712526039</v>
       </c>
       <c r="L13">
-        <v>0.9862503217260149</v>
+        <v>0.9862503217260153</v>
       </c>
       <c r="M13">
-        <v>0.9116912542280221</v>
+        <v>0.9116912542280233</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9591879429788005</v>
+        <v>0.9591879429787999</v>
       </c>
       <c r="D14">
-        <v>0.9854713810482242</v>
+        <v>0.9854713810482237</v>
       </c>
       <c r="E14">
-        <v>0.9718055020494536</v>
+        <v>0.9718055020494527</v>
       </c>
       <c r="F14">
-        <v>0.8975866506690124</v>
+        <v>0.8975866506690111</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.024382858497884</v>
       </c>
       <c r="J14">
-        <v>0.9904011894769921</v>
+        <v>0.9904011894769915</v>
       </c>
       <c r="K14">
         <v>1.000689923614009</v>
       </c>
       <c r="L14">
-        <v>0.9872971562640164</v>
+        <v>0.9872971562640156</v>
       </c>
       <c r="M14">
-        <v>0.914758019692098</v>
+        <v>0.9147580196920967</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9600963508469964</v>
+        <v>0.9600963508469953</v>
       </c>
       <c r="D15">
-        <v>0.9861928325730488</v>
+        <v>0.9861928325730477</v>
       </c>
       <c r="E15">
-        <v>0.972553382493906</v>
+        <v>0.972553382493905</v>
       </c>
       <c r="F15">
-        <v>0.8996049479411387</v>
+        <v>0.8996049479411392</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024809453343106</v>
+        <v>1.024809453343105</v>
       </c>
       <c r="J15">
-        <v>0.9910670355721752</v>
+        <v>0.9910670355721745</v>
       </c>
       <c r="K15">
         <v>1.001306509898776</v>
       </c>
       <c r="L15">
-        <v>0.9879372263469185</v>
+        <v>0.9879372263469176</v>
       </c>
       <c r="M15">
-        <v>0.916621567321493</v>
+        <v>0.9166215673214938</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9652855756276052</v>
+        <v>0.9652855756276044</v>
       </c>
       <c r="D16">
-        <v>0.9903119551316639</v>
+        <v>0.9903119551316635</v>
       </c>
       <c r="E16">
-        <v>0.9768286987582036</v>
+        <v>0.9768286987582031</v>
       </c>
       <c r="F16">
-        <v>0.9109561076877094</v>
+        <v>0.9109561076877087</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.027229251421863</v>
       </c>
       <c r="J16">
-        <v>0.9948661293768606</v>
+        <v>0.9948661293768599</v>
       </c>
       <c r="K16">
         <v>1.004821162049798</v>
       </c>
       <c r="L16">
-        <v>0.9915913616470984</v>
+        <v>0.9915913616470977</v>
       </c>
       <c r="M16">
-        <v>0.9271013823381397</v>
+        <v>0.927101382338139</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9684593003642342</v>
+        <v>0.9684593003642362</v>
       </c>
       <c r="D17">
-        <v>0.9928295954917452</v>
+        <v>0.9928295954917475</v>
       </c>
       <c r="E17">
-        <v>0.9794461002062411</v>
+        <v>0.9794461002062432</v>
       </c>
       <c r="F17">
-        <v>0.9177588023114434</v>
+        <v>0.917758802311446</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028695220543444</v>
+        <v>1.028695220543445</v>
       </c>
       <c r="J17">
-        <v>0.997185926501049</v>
+        <v>0.9971859265010512</v>
       </c>
       <c r="K17">
-        <v>1.006964526891865</v>
+        <v>1.006964526891867</v>
       </c>
       <c r="L17">
-        <v>0.9938243740490776</v>
+        <v>0.9938243740490796</v>
       </c>
       <c r="M17">
-        <v>0.9333807732204202</v>
+        <v>0.9333807732204226</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.97028299533674</v>
+        <v>0.9702829953367387</v>
       </c>
       <c r="D18">
-        <v>0.9942757919578885</v>
+        <v>0.9942757919578875</v>
       </c>
       <c r="E18">
-        <v>0.9809510281546658</v>
+        <v>0.9809510281546647</v>
       </c>
       <c r="F18">
-        <v>0.9216232124346009</v>
+        <v>0.9216232124346012</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029532913252248</v>
+        <v>1.029532913252247</v>
       </c>
       <c r="J18">
-        <v>0.9985176702448247</v>
+        <v>0.9985176702448235</v>
       </c>
       <c r="K18">
-        <v>1.00819406967726</v>
+        <v>1.008194069677259</v>
       </c>
       <c r="L18">
-        <v>0.9951068775054074</v>
+        <v>0.9951068775054062</v>
       </c>
       <c r="M18">
-        <v>0.9369474313132988</v>
+        <v>0.9369474313132992</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9709003249342757</v>
+        <v>0.9709003249342751</v>
       </c>
       <c r="D19">
-        <v>0.9947652585822586</v>
+        <v>0.9947652585822577</v>
       </c>
       <c r="E19">
-        <v>0.9814606045711758</v>
+        <v>0.9814606045711753</v>
       </c>
       <c r="F19">
-        <v>0.9229242457122081</v>
+        <v>0.922924245712208</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029815709537112</v>
+        <v>1.029815709537111</v>
       </c>
       <c r="J19">
-        <v>0.9989682634330067</v>
+        <v>0.9989682634330059</v>
       </c>
       <c r="K19">
-        <v>1.008609934140754</v>
+        <v>1.008609934140753</v>
       </c>
       <c r="L19">
-        <v>0.9955409053759493</v>
+        <v>0.9955409053759487</v>
       </c>
       <c r="M19">
-        <v>0.938148132351006</v>
+        <v>0.9381481323510058</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9681216711870962</v>
+        <v>0.9681216711870951</v>
       </c>
       <c r="D20">
-        <v>0.9925618156592496</v>
+        <v>0.9925618156592487</v>
       </c>
       <c r="E20">
-        <v>0.9791675588225299</v>
+        <v>0.9791675588225289</v>
       </c>
       <c r="F20">
-        <v>0.9170398674927105</v>
+        <v>0.9170398674927104</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.028539761438031</v>
       </c>
       <c r="J20">
-        <v>0.996939273469862</v>
+        <v>0.9969392734698611</v>
       </c>
       <c r="K20">
-        <v>1.006736729793997</v>
+        <v>1.006736729793996</v>
       </c>
       <c r="L20">
-        <v>0.993586887117288</v>
+        <v>0.993586887117287</v>
       </c>
       <c r="M20">
-        <v>0.9327171914918394</v>
+        <v>0.9327171914918395</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,13 +1143,13 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9587519682124048</v>
+        <v>0.9587519682124056</v>
       </c>
       <c r="D21">
-        <v>0.985125090363082</v>
+        <v>0.9851250903630822</v>
       </c>
       <c r="E21">
-        <v>0.9714466265232825</v>
+        <v>0.9714466265232831</v>
       </c>
       <c r="F21">
         <v>0.8966145353234424</v>
@@ -1161,16 +1161,16 @@
         <v>1.024177798201505</v>
       </c>
       <c r="J21">
-        <v>0.9900815432556798</v>
+        <v>0.9900815432556801</v>
       </c>
       <c r="K21">
-        <v>1.000393860762597</v>
+        <v>1.000393860762598</v>
       </c>
       <c r="L21">
-        <v>0.986989923935616</v>
+        <v>0.9869899239356167</v>
       </c>
       <c r="M21">
-        <v>0.9138604249702758</v>
+        <v>0.9138604249702754</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9525704130140064</v>
+        <v>0.9525704130140049</v>
       </c>
       <c r="D22">
-        <v>0.9802118914158019</v>
+        <v>0.9802118914158003</v>
       </c>
       <c r="E22">
-        <v>0.9663621623169537</v>
+        <v>0.9663621623169522</v>
       </c>
       <c r="F22">
-        <v>0.8825741171708911</v>
+        <v>0.8825741171708887</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021247081455151</v>
+        <v>1.02124708145515</v>
       </c>
       <c r="J22">
-        <v>0.9855433183888982</v>
+        <v>0.9855433183888967</v>
       </c>
       <c r="K22">
-        <v>0.9961858178664996</v>
+        <v>0.9961858178664981</v>
       </c>
       <c r="L22">
-        <v>0.982630799308197</v>
+        <v>0.9826307993081953</v>
       </c>
       <c r="M22">
-        <v>0.9008956424045197</v>
+        <v>0.9008956424045175</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9558773191709494</v>
+        <v>0.9558773191709512</v>
       </c>
       <c r="D23">
-        <v>0.9828410589909524</v>
+        <v>0.9828410589909539</v>
       </c>
       <c r="E23">
-        <v>0.9690812577657532</v>
+        <v>0.9690812577657547</v>
       </c>
       <c r="F23">
-        <v>0.8901465692368977</v>
+        <v>0.8901465692368983</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022820377210493</v>
+        <v>1.022820377210494</v>
       </c>
       <c r="J23">
-        <v>0.9879725259137782</v>
+        <v>0.9879725259137799</v>
       </c>
       <c r="K23">
-        <v>0.998439382146508</v>
+        <v>0.9984393821465094</v>
       </c>
       <c r="L23">
-        <v>0.9849634690059969</v>
+        <v>0.9849634690059982</v>
       </c>
       <c r="M23">
-        <v>0.9078880876243695</v>
+        <v>0.90788808762437</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9682743157829156</v>
+        <v>0.968274315782915</v>
       </c>
       <c r="D24">
-        <v>0.9926828823878013</v>
+        <v>0.9926828823878007</v>
       </c>
       <c r="E24">
-        <v>0.9792934865803352</v>
+        <v>0.9792934865803345</v>
       </c>
       <c r="F24">
-        <v>0.9173650403903912</v>
+        <v>0.91736504039039</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.028610060118371</v>
       </c>
       <c r="J24">
-        <v>0.9970507910067932</v>
+        <v>0.9970507910067927</v>
       </c>
       <c r="K24">
-        <v>1.006839724957124</v>
+        <v>1.006839724957123</v>
       </c>
       <c r="L24">
-        <v>0.9936942586515569</v>
+        <v>0.9936942586515563</v>
       </c>
       <c r="M24">
-        <v>0.9330173298029724</v>
+        <v>0.9330173298029711</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9815930188244707</v>
+        <v>0.9815930188244728</v>
       </c>
       <c r="D25">
-        <v>1.003237636300776</v>
+        <v>1.003237636300778</v>
       </c>
       <c r="E25">
-        <v>0.9902991447153117</v>
+        <v>0.9902991447153137</v>
       </c>
       <c r="F25">
-        <v>0.9449370929140084</v>
+        <v>0.9449370929140104</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034653461711687</v>
+        <v>1.034653461711688</v>
       </c>
       <c r="J25">
-        <v>1.006756137032704</v>
+        <v>1.006756137032706</v>
       </c>
       <c r="K25">
-        <v>1.015785899189688</v>
+        <v>1.01578589918969</v>
       </c>
       <c r="L25">
-        <v>1.003049944072388</v>
+        <v>1.00304994407239</v>
       </c>
       <c r="M25">
-        <v>0.9584548938840185</v>
+        <v>0.9584548938840206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9915189289154208</v>
+        <v>0.9915189289154205</v>
       </c>
       <c r="D2">
-        <v>1.011094083671828</v>
+        <v>1.011094083671827</v>
       </c>
       <c r="E2">
-        <v>0.9985247935388789</v>
+        <v>0.9985247935388787</v>
       </c>
       <c r="F2">
-        <v>0.9645957043838778</v>
+        <v>0.9645957043838774</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>1.010004718662141</v>
       </c>
       <c r="M2">
-        <v>0.976571352133213</v>
+        <v>0.9765713521332128</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9983830133576855</v>
+        <v>0.9983830133576859</v>
       </c>
       <c r="D3">
         <v>1.016522721157471</v>
@@ -468,7 +468,7 @@
         <v>1.004225023194732</v>
       </c>
       <c r="F3">
-        <v>0.9778182675937064</v>
+        <v>0.9778182675937053</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>1.014804127997035</v>
       </c>
       <c r="M3">
-        <v>0.9887430621900132</v>
+        <v>0.9887430621900123</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -506,7 +506,7 @@
         <v>1.007800292141857</v>
       </c>
       <c r="F4">
-        <v>0.9859618300473674</v>
+        <v>0.9859618300473666</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>1.017805477360276</v>
       </c>
       <c r="M4">
-        <v>0.9962326892091377</v>
+        <v>0.9962326892091369</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004457697634898</v>
+        <v>1.004457697634899</v>
       </c>
       <c r="D5">
-        <v>1.021324002010164</v>
+        <v>1.021324002010165</v>
       </c>
       <c r="E5">
-        <v>1.009277914594386</v>
+        <v>1.009277914594387</v>
       </c>
       <c r="F5">
-        <v>0.9892958342277199</v>
+        <v>0.9892958342277209</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.044614044856722</v>
       </c>
       <c r="J5">
-        <v>1.023295810207906</v>
+        <v>1.023295810207907</v>
       </c>
       <c r="K5">
-        <v>1.030953377029843</v>
+        <v>1.030953377029844</v>
       </c>
       <c r="L5">
-        <v>1.019043813744788</v>
+        <v>1.019043813744789</v>
       </c>
       <c r="M5">
-        <v>0.9992972971934481</v>
+        <v>0.999297297193449</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,13 +576,13 @@
         <v>1.004753991124895</v>
       </c>
       <c r="D6">
-        <v>1.021558108520834</v>
+        <v>1.021558108520833</v>
       </c>
       <c r="E6">
         <v>1.009524568418858</v>
       </c>
       <c r="F6">
-        <v>0.9898506177727561</v>
+        <v>0.9898506177727565</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.044739548592463</v>
       </c>
       <c r="J6">
-        <v>1.023509015505378</v>
+        <v>1.023509015505377</v>
       </c>
       <c r="K6">
         <v>1.031148225801267</v>
@@ -600,7 +600,7 @@
         <v>1.019250402725249</v>
       </c>
       <c r="M6">
-        <v>0.9998071528222906</v>
+        <v>0.999807152822291</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -620,7 +620,7 @@
         <v>1.00782013401764</v>
       </c>
       <c r="F7">
-        <v>0.9860067199635706</v>
+        <v>0.9860067199635711</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1.043870146321559</v>
       </c>
       <c r="J7">
-        <v>1.022034752320197</v>
+        <v>1.022034752320196</v>
       </c>
       <c r="K7">
         <v>1.029800529616629</v>
@@ -638,7 +638,7 @@
         <v>1.017822114264343</v>
       </c>
       <c r="M7">
-        <v>0.9962739586180483</v>
+        <v>0.9962739586180489</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9938695067106366</v>
+        <v>0.9938695067106382</v>
       </c>
       <c r="D8">
-        <v>1.012953497979556</v>
+        <v>1.012953497979558</v>
       </c>
       <c r="E8">
-        <v>1.000475710249781</v>
+        <v>1.000475710249783</v>
       </c>
       <c r="F8">
-        <v>0.969155690707907</v>
+        <v>0.9691556907079077</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040067780313396</v>
+        <v>1.040067780313398</v>
       </c>
       <c r="J8">
-        <v>1.015657048546704</v>
+        <v>1.015657048546706</v>
       </c>
       <c r="K8">
-        <v>1.023960818746321</v>
+        <v>1.023960818746323</v>
       </c>
       <c r="L8">
-        <v>1.011649241591301</v>
+        <v>1.011649241591302</v>
       </c>
       <c r="M8">
-        <v>0.9807703376355764</v>
+        <v>0.9807703376355773</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9770975749420613</v>
+        <v>0.9770975749420618</v>
       </c>
       <c r="D9">
-        <v>0.9996768907777109</v>
+        <v>0.9996768907777117</v>
       </c>
       <c r="E9">
-        <v>0.9865803995309501</v>
+        <v>0.9865803995309506</v>
       </c>
       <c r="F9">
-        <v>0.9357974855091983</v>
+        <v>0.9357974855091977</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.032633419546568</v>
       </c>
       <c r="J9">
-        <v>1.003485831615302</v>
+        <v>1.003485831615303</v>
       </c>
       <c r="K9">
-        <v>1.012775212379681</v>
+        <v>1.012775212379682</v>
       </c>
       <c r="L9">
-        <v>0.9998950185135931</v>
+        <v>0.9998950185135935</v>
       </c>
       <c r="M9">
-        <v>0.9500258170062548</v>
+        <v>0.9500258170062543</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9649230682891884</v>
+        <v>0.9649230682891881</v>
       </c>
       <c r="D10">
-        <v>0.9900243128732515</v>
+        <v>0.9900243128732513</v>
       </c>
       <c r="E10">
-        <v>0.9765298627208261</v>
+        <v>0.9765298627208258</v>
       </c>
       <c r="F10">
-        <v>0.9101725843975538</v>
+        <v>0.9101725843975541</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.027061139583652</v>
       </c>
       <c r="J10">
-        <v>0.99460098015883</v>
+        <v>0.9946009801588296</v>
       </c>
       <c r="K10">
-        <v>1.004576048028821</v>
+        <v>1.00457604802882</v>
       </c>
       <c r="L10">
-        <v>0.991336214458446</v>
+        <v>0.9913362144584458</v>
       </c>
       <c r="M10">
-        <v>0.9263780714999023</v>
+        <v>0.9263780714999026</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9593617373677018</v>
+        <v>0.9593617373677031</v>
       </c>
       <c r="D11">
-        <v>0.9856094165740714</v>
+        <v>0.9856094165740726</v>
       </c>
       <c r="E11">
-        <v>0.9719485723257986</v>
+        <v>0.9719485723258</v>
       </c>
       <c r="F11">
-        <v>0.8979735383059602</v>
+        <v>0.8979735383059612</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.024464543889058</v>
       </c>
       <c r="J11">
-        <v>0.9905285959815474</v>
+        <v>0.9905285959815487</v>
       </c>
       <c r="K11">
-        <v>1.000807918457284</v>
+        <v>1.000807918457285</v>
       </c>
       <c r="L11">
-        <v>0.9874196219855104</v>
+        <v>0.9874196219855119</v>
       </c>
       <c r="M11">
-        <v>0.9151152466452626</v>
+        <v>0.9151152466452634</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.957246531745334</v>
+        <v>0.9572465317453351</v>
       </c>
       <c r="D12">
-        <v>0.9839291174560358</v>
+        <v>0.983929117456037</v>
       </c>
       <c r="E12">
-        <v>0.9702076988920262</v>
+        <v>0.9702076988920271</v>
       </c>
       <c r="F12">
-        <v>0.8932401030044174</v>
+        <v>0.8932401030044173</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02346808842645</v>
+        <v>1.023468088426451</v>
       </c>
       <c r="J12">
-        <v>0.9889773671578878</v>
+        <v>0.9889773671578886</v>
       </c>
       <c r="K12">
-        <v>0.9993708257173854</v>
+        <v>0.9993708257173864</v>
       </c>
       <c r="L12">
-        <v>0.9859288305097469</v>
+        <v>0.9859288305097478</v>
       </c>
       <c r="M12">
-        <v>0.9107446065387567</v>
+        <v>0.9107446065387568</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C13">
-        <v>0.9577026017038404</v>
+        <v>0.9577026017038396</v>
       </c>
       <c r="D13">
-        <v>0.984291472313245</v>
+        <v>0.9842914723132443</v>
       </c>
       <c r="E13">
-        <v>0.9705829842121816</v>
+        <v>0.9705829842121811</v>
       </c>
       <c r="F13">
-        <v>0.8942653122978382</v>
+        <v>0.8942653122978372</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023683362296599</v>
+        <v>1.023683362296598</v>
       </c>
       <c r="J13">
-        <v>0.9893119459259374</v>
+        <v>0.9893119459259367</v>
       </c>
       <c r="K13">
-        <v>0.9996808712526039</v>
+        <v>0.999680871252603</v>
       </c>
       <c r="L13">
-        <v>0.9862503217260153</v>
+        <v>0.9862503217260149</v>
       </c>
       <c r="M13">
-        <v>0.9116912542280233</v>
+        <v>0.9116912542280221</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9591879429787999</v>
+        <v>0.9591879429788005</v>
       </c>
       <c r="D14">
-        <v>0.9854713810482237</v>
+        <v>0.9854713810482242</v>
       </c>
       <c r="E14">
-        <v>0.9718055020494527</v>
+        <v>0.9718055020494536</v>
       </c>
       <c r="F14">
-        <v>0.8975866506690111</v>
+        <v>0.8975866506690124</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.024382858497884</v>
       </c>
       <c r="J14">
-        <v>0.9904011894769915</v>
+        <v>0.9904011894769921</v>
       </c>
       <c r="K14">
         <v>1.000689923614009</v>
       </c>
       <c r="L14">
-        <v>0.9872971562640156</v>
+        <v>0.9872971562640164</v>
       </c>
       <c r="M14">
-        <v>0.9147580196920967</v>
+        <v>0.914758019692098</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9600963508469953</v>
+        <v>0.9600963508469964</v>
       </c>
       <c r="D15">
-        <v>0.9861928325730477</v>
+        <v>0.9861928325730488</v>
       </c>
       <c r="E15">
-        <v>0.972553382493905</v>
+        <v>0.972553382493906</v>
       </c>
       <c r="F15">
-        <v>0.8996049479411392</v>
+        <v>0.8996049479411387</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024809453343105</v>
+        <v>1.024809453343106</v>
       </c>
       <c r="J15">
-        <v>0.9910670355721745</v>
+        <v>0.9910670355721752</v>
       </c>
       <c r="K15">
         <v>1.001306509898776</v>
       </c>
       <c r="L15">
-        <v>0.9879372263469176</v>
+        <v>0.9879372263469185</v>
       </c>
       <c r="M15">
-        <v>0.9166215673214938</v>
+        <v>0.916621567321493</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9652855756276044</v>
+        <v>0.9652855756276052</v>
       </c>
       <c r="D16">
-        <v>0.9903119551316635</v>
+        <v>0.9903119551316639</v>
       </c>
       <c r="E16">
-        <v>0.9768286987582031</v>
+        <v>0.9768286987582036</v>
       </c>
       <c r="F16">
-        <v>0.9109561076877087</v>
+        <v>0.9109561076877094</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.027229251421863</v>
       </c>
       <c r="J16">
-        <v>0.9948661293768599</v>
+        <v>0.9948661293768606</v>
       </c>
       <c r="K16">
         <v>1.004821162049798</v>
       </c>
       <c r="L16">
-        <v>0.9915913616470977</v>
+        <v>0.9915913616470984</v>
       </c>
       <c r="M16">
-        <v>0.927101382338139</v>
+        <v>0.9271013823381397</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9684593003642362</v>
+        <v>0.9684593003642342</v>
       </c>
       <c r="D17">
-        <v>0.9928295954917475</v>
+        <v>0.9928295954917452</v>
       </c>
       <c r="E17">
-        <v>0.9794461002062432</v>
+        <v>0.9794461002062411</v>
       </c>
       <c r="F17">
-        <v>0.917758802311446</v>
+        <v>0.9177588023114434</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028695220543445</v>
+        <v>1.028695220543444</v>
       </c>
       <c r="J17">
-        <v>0.9971859265010512</v>
+        <v>0.997185926501049</v>
       </c>
       <c r="K17">
-        <v>1.006964526891867</v>
+        <v>1.006964526891865</v>
       </c>
       <c r="L17">
-        <v>0.9938243740490796</v>
+        <v>0.9938243740490776</v>
       </c>
       <c r="M17">
-        <v>0.9333807732204226</v>
+        <v>0.9333807732204202</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9702829953367387</v>
+        <v>0.97028299533674</v>
       </c>
       <c r="D18">
-        <v>0.9942757919578875</v>
+        <v>0.9942757919578885</v>
       </c>
       <c r="E18">
-        <v>0.9809510281546647</v>
+        <v>0.9809510281546658</v>
       </c>
       <c r="F18">
-        <v>0.9216232124346012</v>
+        <v>0.9216232124346009</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029532913252247</v>
+        <v>1.029532913252248</v>
       </c>
       <c r="J18">
-        <v>0.9985176702448235</v>
+        <v>0.9985176702448247</v>
       </c>
       <c r="K18">
-        <v>1.008194069677259</v>
+        <v>1.00819406967726</v>
       </c>
       <c r="L18">
-        <v>0.9951068775054062</v>
+        <v>0.9951068775054074</v>
       </c>
       <c r="M18">
-        <v>0.9369474313132992</v>
+        <v>0.9369474313132988</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9709003249342751</v>
+        <v>0.9709003249342757</v>
       </c>
       <c r="D19">
-        <v>0.9947652585822577</v>
+        <v>0.9947652585822586</v>
       </c>
       <c r="E19">
-        <v>0.9814606045711753</v>
+        <v>0.9814606045711758</v>
       </c>
       <c r="F19">
-        <v>0.922924245712208</v>
+        <v>0.9229242457122081</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029815709537111</v>
+        <v>1.029815709537112</v>
       </c>
       <c r="J19">
-        <v>0.9989682634330059</v>
+        <v>0.9989682634330067</v>
       </c>
       <c r="K19">
-        <v>1.008609934140753</v>
+        <v>1.008609934140754</v>
       </c>
       <c r="L19">
-        <v>0.9955409053759487</v>
+        <v>0.9955409053759493</v>
       </c>
       <c r="M19">
-        <v>0.9381481323510058</v>
+        <v>0.938148132351006</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9681216711870951</v>
+        <v>0.9681216711870962</v>
       </c>
       <c r="D20">
-        <v>0.9925618156592487</v>
+        <v>0.9925618156592496</v>
       </c>
       <c r="E20">
-        <v>0.9791675588225289</v>
+        <v>0.9791675588225299</v>
       </c>
       <c r="F20">
-        <v>0.9170398674927104</v>
+        <v>0.9170398674927105</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.028539761438031</v>
       </c>
       <c r="J20">
-        <v>0.9969392734698611</v>
+        <v>0.996939273469862</v>
       </c>
       <c r="K20">
-        <v>1.006736729793996</v>
+        <v>1.006736729793997</v>
       </c>
       <c r="L20">
-        <v>0.993586887117287</v>
+        <v>0.993586887117288</v>
       </c>
       <c r="M20">
-        <v>0.9327171914918395</v>
+        <v>0.9327171914918394</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,13 +1143,13 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9587519682124056</v>
+        <v>0.9587519682124048</v>
       </c>
       <c r="D21">
-        <v>0.9851250903630822</v>
+        <v>0.985125090363082</v>
       </c>
       <c r="E21">
-        <v>0.9714466265232831</v>
+        <v>0.9714466265232825</v>
       </c>
       <c r="F21">
         <v>0.8966145353234424</v>
@@ -1161,16 +1161,16 @@
         <v>1.024177798201505</v>
       </c>
       <c r="J21">
-        <v>0.9900815432556801</v>
+        <v>0.9900815432556798</v>
       </c>
       <c r="K21">
-        <v>1.000393860762598</v>
+        <v>1.000393860762597</v>
       </c>
       <c r="L21">
-        <v>0.9869899239356167</v>
+        <v>0.986989923935616</v>
       </c>
       <c r="M21">
-        <v>0.9138604249702754</v>
+        <v>0.9138604249702758</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9525704130140049</v>
+        <v>0.9525704130140064</v>
       </c>
       <c r="D22">
-        <v>0.9802118914158003</v>
+        <v>0.9802118914158019</v>
       </c>
       <c r="E22">
-        <v>0.9663621623169522</v>
+        <v>0.9663621623169537</v>
       </c>
       <c r="F22">
-        <v>0.8825741171708887</v>
+        <v>0.8825741171708911</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02124708145515</v>
+        <v>1.021247081455151</v>
       </c>
       <c r="J22">
-        <v>0.9855433183888967</v>
+        <v>0.9855433183888982</v>
       </c>
       <c r="K22">
-        <v>0.9961858178664981</v>
+        <v>0.9961858178664996</v>
       </c>
       <c r="L22">
-        <v>0.9826307993081953</v>
+        <v>0.982630799308197</v>
       </c>
       <c r="M22">
-        <v>0.9008956424045175</v>
+        <v>0.9008956424045197</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9558773191709512</v>
+        <v>0.9558773191709494</v>
       </c>
       <c r="D23">
-        <v>0.9828410589909539</v>
+        <v>0.9828410589909524</v>
       </c>
       <c r="E23">
-        <v>0.9690812577657547</v>
+        <v>0.9690812577657532</v>
       </c>
       <c r="F23">
-        <v>0.8901465692368983</v>
+        <v>0.8901465692368977</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022820377210494</v>
+        <v>1.022820377210493</v>
       </c>
       <c r="J23">
-        <v>0.9879725259137799</v>
+        <v>0.9879725259137782</v>
       </c>
       <c r="K23">
-        <v>0.9984393821465094</v>
+        <v>0.998439382146508</v>
       </c>
       <c r="L23">
-        <v>0.9849634690059982</v>
+        <v>0.9849634690059969</v>
       </c>
       <c r="M23">
-        <v>0.90788808762437</v>
+        <v>0.9078880876243695</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.968274315782915</v>
+        <v>0.9682743157829156</v>
       </c>
       <c r="D24">
-        <v>0.9926828823878007</v>
+        <v>0.9926828823878013</v>
       </c>
       <c r="E24">
-        <v>0.9792934865803345</v>
+        <v>0.9792934865803352</v>
       </c>
       <c r="F24">
-        <v>0.91736504039039</v>
+        <v>0.9173650403903912</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.028610060118371</v>
       </c>
       <c r="J24">
-        <v>0.9970507910067927</v>
+        <v>0.9970507910067932</v>
       </c>
       <c r="K24">
-        <v>1.006839724957123</v>
+        <v>1.006839724957124</v>
       </c>
       <c r="L24">
-        <v>0.9936942586515563</v>
+        <v>0.9936942586515569</v>
       </c>
       <c r="M24">
-        <v>0.9330173298029711</v>
+        <v>0.9330173298029724</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9815930188244728</v>
+        <v>0.9815930188244707</v>
       </c>
       <c r="D25">
-        <v>1.003237636300778</v>
+        <v>1.003237636300776</v>
       </c>
       <c r="E25">
-        <v>0.9902991447153137</v>
+        <v>0.9902991447153117</v>
       </c>
       <c r="F25">
-        <v>0.9449370929140104</v>
+        <v>0.9449370929140084</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034653461711688</v>
+        <v>1.034653461711687</v>
       </c>
       <c r="J25">
-        <v>1.006756137032706</v>
+        <v>1.006756137032704</v>
       </c>
       <c r="K25">
-        <v>1.01578589918969</v>
+        <v>1.015785899189688</v>
       </c>
       <c r="L25">
-        <v>1.00304994407239</v>
+        <v>1.003049944072388</v>
       </c>
       <c r="M25">
-        <v>0.9584548938840206</v>
+        <v>0.9584548938840185</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9915189289154205</v>
+        <v>0.991530822134054</v>
       </c>
       <c r="D2">
-        <v>1.011094083671827</v>
+        <v>1.011103792008236</v>
       </c>
       <c r="E2">
-        <v>0.9985247935388787</v>
+        <v>0.9985367837027836</v>
       </c>
       <c r="F2">
-        <v>0.9645957043838774</v>
+        <v>0.9646024323820167</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039042776756642</v>
+        <v>1.039048287290862</v>
       </c>
       <c r="J2">
-        <v>1.013956300631663</v>
+        <v>1.013967829688605</v>
       </c>
       <c r="K2">
-        <v>1.022400994039514</v>
+        <v>1.02241057083345</v>
       </c>
       <c r="L2">
-        <v>1.010004718662141</v>
+        <v>1.010016541162869</v>
       </c>
       <c r="M2">
-        <v>0.9765713521332128</v>
+        <v>0.9765779774241727</v>
+      </c>
+      <c r="N2">
+        <v>1.010689476605058</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9983830133576859</v>
+        <v>0.9983906996975966</v>
       </c>
       <c r="D3">
-        <v>1.016522721157471</v>
+        <v>1.016529003642307</v>
       </c>
       <c r="E3">
-        <v>1.004225023194732</v>
+        <v>1.004233172713148</v>
       </c>
       <c r="F3">
-        <v>0.9778182675937053</v>
+        <v>0.9778225224674549</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042020124433201</v>
+        <v>1.042023689760309</v>
       </c>
       <c r="J3">
-        <v>1.018917856331792</v>
+        <v>1.018925332210764</v>
       </c>
       <c r="K3">
-        <v>1.026948467056327</v>
+        <v>1.026954672375026</v>
       </c>
       <c r="L3">
-        <v>1.014804127997035</v>
+        <v>1.014812174334337</v>
       </c>
       <c r="M3">
-        <v>0.9887430621900123</v>
+        <v>0.9887472594722011</v>
+      </c>
+      <c r="N3">
+        <v>1.014186435572196</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002682234803886</v>
+        <v>1.002687332912262</v>
       </c>
       <c r="D4">
-        <v>1.019921026490487</v>
+        <v>1.019925196811516</v>
       </c>
       <c r="E4">
-        <v>1.007800292141857</v>
+        <v>1.007806075943296</v>
       </c>
       <c r="F4">
-        <v>0.9859618300473666</v>
+        <v>0.9859646169541478</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043859995940284</v>
+        <v>1.043862362549637</v>
       </c>
       <c r="J4">
-        <v>1.022017576713907</v>
+        <v>1.022022545354</v>
       </c>
       <c r="K4">
-        <v>1.029784823564563</v>
+        <v>1.029788945953029</v>
       </c>
       <c r="L4">
-        <v>1.017805477360276</v>
+        <v>1.017811192689226</v>
       </c>
       <c r="M4">
-        <v>0.9962326892091369</v>
+        <v>0.9962354412763925</v>
+      </c>
+      <c r="N4">
+        <v>1.01636865771132</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004457697634899</v>
+        <v>1.004461736768474</v>
       </c>
       <c r="D5">
-        <v>1.021324002010165</v>
+        <v>1.021327307159313</v>
       </c>
       <c r="E5">
-        <v>1.009277914594387</v>
+        <v>1.009282729987798</v>
       </c>
       <c r="F5">
-        <v>0.9892958342277209</v>
+        <v>0.9892980312912992</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044614044856722</v>
+        <v>1.044615920508196</v>
       </c>
       <c r="J5">
-        <v>1.023295810207907</v>
+        <v>1.02329975003963</v>
       </c>
       <c r="K5">
-        <v>1.030953377029844</v>
+        <v>1.030956645264129</v>
       </c>
       <c r="L5">
-        <v>1.019043813744789</v>
+        <v>1.019048573759189</v>
       </c>
       <c r="M5">
-        <v>0.999297297193449</v>
+        <v>0.9992994677070507</v>
+      </c>
+      <c r="N5">
+        <v>1.017267917579848</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004753991124895</v>
+        <v>1.004757854081178</v>
       </c>
       <c r="D6">
-        <v>1.021558108520833</v>
+        <v>1.021561269679669</v>
       </c>
       <c r="E6">
-        <v>1.009524568418858</v>
+        <v>1.00952922267964</v>
       </c>
       <c r="F6">
-        <v>0.9898506177727565</v>
+        <v>0.9898527172880491</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044739548592463</v>
+        <v>1.04474134253503</v>
       </c>
       <c r="J6">
-        <v>1.023509015505377</v>
+        <v>1.023512784011418</v>
       </c>
       <c r="K6">
-        <v>1.031148225801267</v>
+        <v>1.031151351824636</v>
       </c>
       <c r="L6">
-        <v>1.019250402725249</v>
+        <v>1.019255003722477</v>
       </c>
       <c r="M6">
-        <v>0.999807152822291</v>
+        <v>0.9998092271112754</v>
+      </c>
+      <c r="N6">
+        <v>1.017417873835173</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002706081433882</v>
+        <v>1.002711165281367</v>
       </c>
       <c r="D7">
-        <v>1.019939871872521</v>
+        <v>1.019944030546325</v>
       </c>
       <c r="E7">
-        <v>1.00782013401764</v>
+        <v>1.007825904779461</v>
       </c>
       <c r="F7">
-        <v>0.9860067199635711</v>
+        <v>0.9860094988867493</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043870146321559</v>
+        <v>1.043872506321361</v>
       </c>
       <c r="J7">
-        <v>1.022034752320196</v>
+        <v>1.022039707117086</v>
       </c>
       <c r="K7">
-        <v>1.029800529616629</v>
+        <v>1.0298046405099</v>
       </c>
       <c r="L7">
-        <v>1.017822114264343</v>
+        <v>1.017827816734294</v>
       </c>
       <c r="M7">
-        <v>0.9962739586180489</v>
+        <v>0.9962767028171718</v>
+      </c>
+      <c r="N7">
+        <v>1.016380743560449</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9938695067106382</v>
+        <v>0.9938799485700162</v>
       </c>
       <c r="D8">
-        <v>1.012953497979558</v>
+        <v>1.012962025416459</v>
       </c>
       <c r="E8">
-        <v>1.000475710249783</v>
+        <v>1.000486376134809</v>
       </c>
       <c r="F8">
-        <v>0.9691556907079077</v>
+        <v>0.969161552561895</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040067780313398</v>
+        <v>1.040072620147698</v>
       </c>
       <c r="J8">
-        <v>1.015657048546706</v>
+        <v>1.015667182359385</v>
       </c>
       <c r="K8">
-        <v>1.023960818746323</v>
+        <v>1.023969234348378</v>
       </c>
       <c r="L8">
-        <v>1.011649241591302</v>
+        <v>1.011659763174829</v>
       </c>
       <c r="M8">
-        <v>0.9807703376355773</v>
+        <v>0.9807761135451957</v>
+      </c>
+      <c r="N8">
+        <v>1.011888694187371</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9770975749420618</v>
+        <v>0.9771186416581843</v>
       </c>
       <c r="D9">
-        <v>0.9996768907777117</v>
+        <v>0.9996940391142591</v>
       </c>
       <c r="E9">
-        <v>0.9865803995309506</v>
+        <v>0.9866007373117452</v>
       </c>
       <c r="F9">
-        <v>0.9357974855091977</v>
+        <v>0.9358100551884407</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032633419546568</v>
+        <v>1.032643163493431</v>
       </c>
       <c r="J9">
-        <v>1.003485831615303</v>
+        <v>1.003506104424954</v>
       </c>
       <c r="K9">
-        <v>1.012775212379682</v>
+        <v>1.012792082271534</v>
       </c>
       <c r="L9">
-        <v>0.9998950185135935</v>
+        <v>0.9999150146625034</v>
       </c>
       <c r="M9">
-        <v>0.9500258170062543</v>
+        <v>0.9500381444525027</v>
+      </c>
+      <c r="N9">
+        <v>1.003296946183442</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9649230682891881</v>
+        <v>0.9649522901308049</v>
       </c>
       <c r="D10">
-        <v>0.9900243128732513</v>
+        <v>0.9900480425334592</v>
       </c>
       <c r="E10">
-        <v>0.9765298627208258</v>
+        <v>0.9765575806551489</v>
       </c>
       <c r="F10">
-        <v>0.9101725843975541</v>
+        <v>0.910191012221597</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027061139583652</v>
+        <v>1.027074647558853</v>
       </c>
       <c r="J10">
-        <v>0.9946009801588296</v>
+        <v>0.9946289186654339</v>
       </c>
       <c r="K10">
-        <v>1.00457604802882</v>
+        <v>1.004599337923446</v>
       </c>
       <c r="L10">
-        <v>0.9913362144584458</v>
+        <v>0.9913633999607799</v>
       </c>
       <c r="M10">
-        <v>0.9263780714999026</v>
+        <v>0.9263960728787911</v>
+      </c>
+      <c r="N10">
+        <v>0.9970142351861934</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9593617373677031</v>
+        <v>0.9593948299089315</v>
       </c>
       <c r="D11">
-        <v>0.9856094165740726</v>
+        <v>0.9856362604146731</v>
       </c>
       <c r="E11">
-        <v>0.9719485723258</v>
+        <v>0.9719797773701246</v>
       </c>
       <c r="F11">
-        <v>0.8979735383059612</v>
+        <v>0.897995029380056</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024464543889058</v>
+        <v>1.02447984280608</v>
       </c>
       <c r="J11">
-        <v>0.9905285959815487</v>
+        <v>0.9905601384276846</v>
       </c>
       <c r="K11">
-        <v>1.000807918457285</v>
+        <v>1.000834236494979</v>
       </c>
       <c r="L11">
-        <v>0.9874196219855119</v>
+        <v>0.9874501929525165</v>
       </c>
       <c r="M11">
-        <v>0.9151152466452634</v>
+        <v>0.9151361983667629</v>
+      </c>
+      <c r="N11">
+        <v>0.9941326151414339</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9572465317453351</v>
+        <v>0.957281122924012</v>
       </c>
       <c r="D12">
-        <v>0.983929117456037</v>
+        <v>0.9839571655820341</v>
       </c>
       <c r="E12">
-        <v>0.9702076988920271</v>
+        <v>0.9702402511333362</v>
       </c>
       <c r="F12">
-        <v>0.8932401030044173</v>
+        <v>0.8932628381698845</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023468088426451</v>
+        <v>1.023484082107922</v>
       </c>
       <c r="J12">
-        <v>0.9889773671578886</v>
+        <v>0.9890102991438486</v>
       </c>
       <c r="K12">
-        <v>0.9993708257173864</v>
+        <v>0.999398313167533</v>
       </c>
       <c r="L12">
-        <v>0.9859288305097478</v>
+        <v>0.9859607075018721</v>
       </c>
       <c r="M12">
-        <v>0.9107446065387568</v>
+        <v>0.9107667534040439</v>
+      </c>
+      <c r="N12">
+        <v>0.9930347455170242</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9577026017038396</v>
+        <v>0.9577368684727638</v>
       </c>
       <c r="D13">
-        <v>0.9842914723132443</v>
+        <v>0.9843192598119149</v>
       </c>
       <c r="E13">
-        <v>0.9705829842121811</v>
+        <v>0.970615244967475</v>
       </c>
       <c r="F13">
-        <v>0.8942653122978372</v>
+        <v>0.8942877752138074</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023683362296598</v>
+        <v>1.023699205506026</v>
       </c>
       <c r="J13">
-        <v>0.9893119459259367</v>
+        <v>0.9893445773908017</v>
       </c>
       <c r="K13">
-        <v>0.999680871252603</v>
+        <v>0.9997081056969146</v>
       </c>
       <c r="L13">
-        <v>0.9862503217260149</v>
+        <v>0.9862819162287852</v>
       </c>
       <c r="M13">
-        <v>0.9116912542280221</v>
+        <v>0.9117131397046312</v>
+      </c>
+      <c r="N13">
+        <v>0.9932715495207977</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9591879429788005</v>
+        <v>0.9592211580879257</v>
       </c>
       <c r="D14">
-        <v>0.9854713810482242</v>
+        <v>0.9854983234115905</v>
       </c>
       <c r="E14">
-        <v>0.9718055020494536</v>
+        <v>0.971836817338295</v>
       </c>
       <c r="F14">
-        <v>0.8975866506690124</v>
+        <v>0.8976082422090252</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024382858497884</v>
+        <v>1.024398214204379</v>
       </c>
       <c r="J14">
-        <v>0.9904011894769921</v>
+        <v>0.9904328456891998</v>
       </c>
       <c r="K14">
-        <v>1.000689923614009</v>
+        <v>1.000716337354593</v>
       </c>
       <c r="L14">
-        <v>0.9872971562640164</v>
+        <v>0.9873278341456977</v>
       </c>
       <c r="M14">
-        <v>0.914758019692098</v>
+        <v>0.9147790679919733</v>
+      </c>
+      <c r="N14">
+        <v>0.9940424482021581</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9600963508469964</v>
+        <v>0.9601289264078986</v>
       </c>
       <c r="D15">
-        <v>0.9861928325730488</v>
+        <v>0.9862192607954556</v>
       </c>
       <c r="E15">
-        <v>0.972553382493906</v>
+        <v>0.9725841224155739</v>
       </c>
       <c r="F15">
-        <v>0.8996049479411387</v>
+        <v>0.8996260177068276</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024809453343106</v>
+        <v>1.024824512786959</v>
       </c>
       <c r="J15">
-        <v>0.9910670355721752</v>
+        <v>0.9910980979253134</v>
       </c>
       <c r="K15">
-        <v>1.001306509898776</v>
+        <v>1.001332424148559</v>
       </c>
       <c r="L15">
-        <v>0.9879372263469185</v>
+        <v>0.9879673461621731</v>
       </c>
       <c r="M15">
-        <v>0.916621567321493</v>
+        <v>0.9166421139113191</v>
+      </c>
+      <c r="N15">
+        <v>0.9945136661248823</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9652855756276052</v>
+        <v>0.9653145485162286</v>
       </c>
       <c r="D16">
-        <v>0.9903119551316639</v>
+        <v>0.9903354842996412</v>
       </c>
       <c r="E16">
-        <v>0.9768286987582036</v>
+        <v>0.9768561920479008</v>
       </c>
       <c r="F16">
-        <v>0.9109561076877094</v>
+        <v>0.9109743453580835</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027229251421863</v>
+        <v>1.027242644346963</v>
       </c>
       <c r="J16">
-        <v>0.9948661293768606</v>
+        <v>0.9948938353383054</v>
       </c>
       <c r="K16">
-        <v>1.004821162049798</v>
+        <v>1.00484425678281</v>
       </c>
       <c r="L16">
-        <v>0.9915913616470984</v>
+        <v>0.9916183288053313</v>
       </c>
       <c r="M16">
-        <v>0.9271013823381397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9271192002068797</v>
+      </c>
+      <c r="N16">
+        <v>0.9972018206248915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9684593003642342</v>
+        <v>0.9684861104190401</v>
       </c>
       <c r="D17">
-        <v>0.9928295954917452</v>
+        <v>0.9928513817793722</v>
       </c>
       <c r="E17">
-        <v>0.9794461002062411</v>
+        <v>0.979471640059529</v>
       </c>
       <c r="F17">
-        <v>0.9177588023114434</v>
+        <v>0.9177754201500685</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028695220543444</v>
+        <v>1.02870761447149</v>
       </c>
       <c r="J17">
-        <v>0.997185926501049</v>
+        <v>0.9972116083206828</v>
       </c>
       <c r="K17">
-        <v>1.006964526891865</v>
+        <v>1.006985923999861</v>
       </c>
       <c r="L17">
-        <v>0.9938243740490776</v>
+        <v>0.9938494412727624</v>
       </c>
       <c r="M17">
-        <v>0.9333807732204202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9333970260774264</v>
+      </c>
+      <c r="N17">
+        <v>0.9988428006789021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.97028299533674</v>
+        <v>0.9703085758113886</v>
       </c>
       <c r="D18">
-        <v>0.9942757919578885</v>
+        <v>0.9942965865383074</v>
       </c>
       <c r="E18">
-        <v>0.9809510281546658</v>
+        <v>0.9809754560723463</v>
       </c>
       <c r="F18">
-        <v>0.9216232124346009</v>
+        <v>0.9216389339582818</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029532913252248</v>
+        <v>1.029544739591299</v>
       </c>
       <c r="J18">
-        <v>0.9985176702448247</v>
+        <v>0.9985421982309742</v>
       </c>
       <c r="K18">
-        <v>1.00819406967726</v>
+        <v>1.008214499951438</v>
       </c>
       <c r="L18">
-        <v>0.9951068775054074</v>
+        <v>0.9951308622082683</v>
       </c>
       <c r="M18">
-        <v>0.9369474313132988</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.936962816808051</v>
+      </c>
+      <c r="N18">
+        <v>0.9997846655649315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9709003249342757</v>
+        <v>0.9709254913192724</v>
       </c>
       <c r="D19">
-        <v>0.9947652585822586</v>
+        <v>0.9947857190359908</v>
       </c>
       <c r="E19">
-        <v>0.9814606045711758</v>
+        <v>0.9814846577958709</v>
       </c>
       <c r="F19">
-        <v>0.9229242457122081</v>
+        <v>0.9229396692015756</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029815709537112</v>
+        <v>1.029827344771395</v>
       </c>
       <c r="J19">
-        <v>0.9989682634330067</v>
+        <v>0.9989924023301925</v>
       </c>
       <c r="K19">
-        <v>1.008609934140754</v>
+        <v>1.008630038523758</v>
       </c>
       <c r="L19">
-        <v>0.9955409053759493</v>
+        <v>0.9955645251263093</v>
       </c>
       <c r="M19">
-        <v>0.938148132351006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9381632292176886</v>
+      </c>
+      <c r="N19">
+        <v>1.000103310698323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9681216711870962</v>
+        <v>0.9681487099247708</v>
       </c>
       <c r="D20">
-        <v>0.9925618156592496</v>
+        <v>0.9925837863183067</v>
       </c>
       <c r="E20">
-        <v>0.9791675588225299</v>
+        <v>0.9791933053681044</v>
       </c>
       <c r="F20">
-        <v>0.9170398674927105</v>
+        <v>0.9170566539481668</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028539761438031</v>
+        <v>1.028552260953298</v>
       </c>
       <c r="J20">
-        <v>0.996939273469862</v>
+        <v>0.9969651696360566</v>
       </c>
       <c r="K20">
-        <v>1.006736729793997</v>
+        <v>1.006758306578608</v>
       </c>
       <c r="L20">
-        <v>0.993586887117288</v>
+        <v>0.9936121554819536</v>
       </c>
       <c r="M20">
-        <v>0.9327171914918394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9327336074083099</v>
+      </c>
+      <c r="N20">
+        <v>0.9986683418712282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9587519682124048</v>
+        <v>0.9587854912339834</v>
       </c>
       <c r="D21">
-        <v>0.985125090363082</v>
+        <v>0.9851522802102525</v>
       </c>
       <c r="E21">
-        <v>0.9714466265232825</v>
+        <v>0.9714782187172476</v>
       </c>
       <c r="F21">
-        <v>0.8966145353234424</v>
+        <v>0.8966363802458217</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024177798201505</v>
+        <v>1.024193296598045</v>
       </c>
       <c r="J21">
-        <v>0.9900815432556798</v>
+        <v>0.9901134851733762</v>
       </c>
       <c r="K21">
-        <v>1.000393860762597</v>
+        <v>1.000420514877507</v>
       </c>
       <c r="L21">
-        <v>0.986989923935616</v>
+        <v>0.9870208703276978</v>
       </c>
       <c r="M21">
-        <v>0.9138604249702758</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9138817167967355</v>
+      </c>
+      <c r="N21">
+        <v>0.9938162279115244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9525704130140064</v>
+        <v>0.9526083726204342</v>
       </c>
       <c r="D22">
-        <v>0.9802118914158019</v>
+        <v>0.9802426437671192</v>
       </c>
       <c r="E22">
-        <v>0.9663621623169537</v>
+        <v>0.9663977364260911</v>
       </c>
       <c r="F22">
-        <v>0.8825741171708911</v>
+        <v>0.8825997820329983</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021247081455151</v>
+        <v>1.021264640457856</v>
       </c>
       <c r="J22">
-        <v>0.9855433183888982</v>
+        <v>0.9855793619715331</v>
       </c>
       <c r="K22">
-        <v>0.9961858178664996</v>
+        <v>0.9962159280808041</v>
       </c>
       <c r="L22">
-        <v>0.982630799308197</v>
+        <v>0.9826656020641918</v>
       </c>
       <c r="M22">
-        <v>0.9008956424045197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.900920596915585</v>
+      </c>
+      <c r="N22">
+        <v>0.9906040136443452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9558773191709494</v>
+        <v>0.9559128886064772</v>
       </c>
       <c r="D23">
-        <v>0.9828410589909524</v>
+        <v>0.9828698928316195</v>
       </c>
       <c r="E23">
-        <v>0.9690812577657532</v>
+        <v>0.9691146885046715</v>
       </c>
       <c r="F23">
-        <v>0.8901465692368977</v>
+        <v>0.8901701355530174</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022820377210493</v>
+        <v>1.022836824917931</v>
       </c>
       <c r="J23">
-        <v>0.9879725259137782</v>
+        <v>0.9880063632146397</v>
       </c>
       <c r="K23">
-        <v>0.998439382146508</v>
+        <v>0.9984676320882965</v>
       </c>
       <c r="L23">
-        <v>0.9849634690059969</v>
+        <v>0.9849961970877529</v>
       </c>
       <c r="M23">
-        <v>0.9078880876243695</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9079110319712382</v>
+      </c>
+      <c r="N23">
+        <v>0.9923235257007885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9682743157829156</v>
+        <v>0.9683012510905794</v>
       </c>
       <c r="D24">
-        <v>0.9926828823878013</v>
+        <v>0.9927047696610034</v>
       </c>
       <c r="E24">
-        <v>0.9792934865803352</v>
+        <v>0.9793191396462563</v>
       </c>
       <c r="F24">
-        <v>0.9173650403903912</v>
+        <v>0.9173817505071439</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028610060118371</v>
+        <v>1.028622511877005</v>
       </c>
       <c r="J24">
-        <v>0.9970507910067932</v>
+        <v>0.9970765902367229</v>
       </c>
       <c r="K24">
-        <v>1.006839724957124</v>
+        <v>1.006861220481937</v>
       </c>
       <c r="L24">
-        <v>0.9936942586515569</v>
+        <v>0.9937194360504619</v>
       </c>
       <c r="M24">
-        <v>0.9330173298029724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9330336719010764</v>
+      </c>
+      <c r="N24">
+        <v>0.9987472193118138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9815930188244707</v>
+        <v>0.9816111735753922</v>
       </c>
       <c r="D25">
-        <v>1.003237636300776</v>
+        <v>1.003252427352515</v>
       </c>
       <c r="E25">
-        <v>0.9902991447153117</v>
+        <v>0.990316837397906</v>
       </c>
       <c r="F25">
-        <v>0.9449370929140084</v>
+        <v>0.9449477333679734</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034653461711687</v>
+        <v>1.034661862496754</v>
       </c>
       <c r="J25">
-        <v>1.006756137032704</v>
+        <v>1.006773648284446</v>
       </c>
       <c r="K25">
-        <v>1.015785899189688</v>
+        <v>1.015800462521612</v>
       </c>
       <c r="L25">
-        <v>1.003049944072388</v>
+        <v>1.003067355167437</v>
       </c>
       <c r="M25">
-        <v>0.9584548938840185</v>
+        <v>0.9584653432058073</v>
+      </c>
+      <c r="N25">
+        <v>1.005607481757351</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.991530822134054</v>
+        <v>1.006845455547513</v>
       </c>
       <c r="D2">
-        <v>1.011103792008236</v>
+        <v>1.02463908513447</v>
       </c>
       <c r="E2">
-        <v>0.9985367837027836</v>
+        <v>1.020419352820238</v>
       </c>
       <c r="F2">
-        <v>0.9646024323820167</v>
+        <v>1.028316379451357</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039048287290862</v>
+        <v>1.050123835066049</v>
       </c>
       <c r="J2">
-        <v>1.013967829688605</v>
+        <v>1.02882333036079</v>
       </c>
       <c r="K2">
-        <v>1.02241057083345</v>
+        <v>1.035765507325697</v>
       </c>
       <c r="L2">
-        <v>1.010016541162869</v>
+        <v>1.031601358537229</v>
       </c>
       <c r="M2">
-        <v>0.9765779774241727</v>
+        <v>1.039394829002754</v>
       </c>
       <c r="N2">
-        <v>1.010689476605058</v>
+        <v>1.030284377497587</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9983906996975966</v>
+        <v>1.014063071819066</v>
       </c>
       <c r="D3">
-        <v>1.016529003642307</v>
+        <v>1.030198622150523</v>
       </c>
       <c r="E3">
-        <v>1.004233172713148</v>
+        <v>1.026688537914007</v>
       </c>
       <c r="F3">
-        <v>0.9778225224674549</v>
+        <v>1.035122406490713</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042023689760309</v>
+        <v>1.052639779240131</v>
       </c>
       <c r="J3">
-        <v>1.018925332210764</v>
+        <v>1.034177569090305</v>
       </c>
       <c r="K3">
-        <v>1.026954672375026</v>
+        <v>1.040459153734894</v>
       </c>
       <c r="L3">
-        <v>1.014812174334337</v>
+        <v>1.03699095284693</v>
       </c>
       <c r="M3">
-        <v>0.9887472594722011</v>
+        <v>1.045324778610323</v>
       </c>
       <c r="N3">
-        <v>1.014186435572196</v>
+        <v>1.035646219860238</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002687332912262</v>
+        <v>1.018596718772182</v>
       </c>
       <c r="D4">
-        <v>1.019925196811516</v>
+        <v>1.033691884022847</v>
       </c>
       <c r="E4">
-        <v>1.007806075943296</v>
+        <v>1.030632511486818</v>
       </c>
       <c r="F4">
-        <v>0.9859646169541478</v>
+        <v>1.039405519021243</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043862362549637</v>
+        <v>1.054205092734144</v>
       </c>
       <c r="J4">
-        <v>1.022022545354</v>
+        <v>1.037536391568612</v>
       </c>
       <c r="K4">
-        <v>1.029788945953029</v>
+        <v>1.043399996562765</v>
       </c>
       <c r="L4">
-        <v>1.017811192689226</v>
+        <v>1.040374768741559</v>
       </c>
       <c r="M4">
-        <v>0.9962354412763925</v>
+        <v>1.049050524663078</v>
       </c>
       <c r="N4">
-        <v>1.01636865771132</v>
+        <v>1.039009812251727</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004461736768474</v>
+        <v>1.020471727428737</v>
       </c>
       <c r="D5">
-        <v>1.021327307159313</v>
+        <v>1.035136775897207</v>
       </c>
       <c r="E5">
-        <v>1.009282729987798</v>
+        <v>1.032265017851108</v>
       </c>
       <c r="F5">
-        <v>0.9892980312912992</v>
+        <v>1.041178749657422</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044615920508196</v>
+        <v>1.054848792392968</v>
       </c>
       <c r="J5">
-        <v>1.02329975003963</v>
+        <v>1.038924408968341</v>
       </c>
       <c r="K5">
-        <v>1.030956645264129</v>
+        <v>1.044614402185373</v>
       </c>
       <c r="L5">
-        <v>1.019048573759189</v>
+        <v>1.041773783212454</v>
       </c>
       <c r="M5">
-        <v>0.9992994677070507</v>
+        <v>1.050591548374587</v>
       </c>
       <c r="N5">
-        <v>1.017267917579848</v>
+        <v>1.040399800795372</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004757854081178</v>
+        <v>1.020784784407355</v>
       </c>
       <c r="D6">
-        <v>1.021561269679669</v>
+        <v>1.035378025871081</v>
       </c>
       <c r="E6">
-        <v>1.00952922267964</v>
+        <v>1.032537664328186</v>
       </c>
       <c r="F6">
-        <v>0.9898527172880491</v>
+        <v>1.041474919239894</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04474134253503</v>
+        <v>1.054956048234448</v>
       </c>
       <c r="J6">
-        <v>1.023512784011418</v>
+        <v>1.039156089289948</v>
       </c>
       <c r="K6">
-        <v>1.031151351824636</v>
+        <v>1.044817051469675</v>
       </c>
       <c r="L6">
-        <v>1.019255003722477</v>
+        <v>1.042007338262926</v>
       </c>
       <c r="M6">
-        <v>0.9998092271112754</v>
+        <v>1.050848848485096</v>
       </c>
       <c r="N6">
-        <v>1.017417873835173</v>
+        <v>1.040631810129609</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002711165281367</v>
+        <v>1.018621892050039</v>
       </c>
       <c r="D7">
-        <v>1.019944030546325</v>
+        <v>1.033711282182399</v>
       </c>
       <c r="E7">
-        <v>1.007825904779461</v>
+        <v>1.030654423679216</v>
       </c>
       <c r="F7">
-        <v>0.9860094988867493</v>
+        <v>1.039429318693142</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043872506321361</v>
+        <v>1.054213749482565</v>
       </c>
       <c r="J7">
-        <v>1.022039707117086</v>
+        <v>1.037555031135725</v>
       </c>
       <c r="K7">
-        <v>1.0298046405099</v>
+        <v>1.043416308243737</v>
       </c>
       <c r="L7">
-        <v>1.017827816734294</v>
+        <v>1.040393553348107</v>
       </c>
       <c r="M7">
-        <v>0.9962767028171718</v>
+        <v>1.049071213496116</v>
       </c>
       <c r="N7">
-        <v>1.016380743560449</v>
+        <v>1.039028478289163</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9938799485700162</v>
+        <v>1.009314088660237</v>
       </c>
       <c r="D8">
-        <v>1.012962025416459</v>
+        <v>1.026540304816199</v>
       </c>
       <c r="E8">
-        <v>1.000486376134809</v>
+        <v>1.02256226046216</v>
       </c>
       <c r="F8">
-        <v>0.969161552561895</v>
+        <v>1.030642496445263</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040072620147698</v>
+        <v>1.050987492008647</v>
       </c>
       <c r="J8">
-        <v>1.015667182359385</v>
+        <v>1.030655516226027</v>
       </c>
       <c r="K8">
-        <v>1.023969234348378</v>
+        <v>1.037372382138427</v>
       </c>
       <c r="L8">
-        <v>1.011659763174829</v>
+        <v>1.033445044173956</v>
       </c>
       <c r="M8">
-        <v>0.9807761135451957</v>
+        <v>1.041422796246124</v>
       </c>
       <c r="N8">
-        <v>1.011888694187371</v>
+        <v>1.032119165276909</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9771186416581843</v>
+        <v>0.9917779494438497</v>
       </c>
       <c r="D9">
-        <v>0.9996940391142591</v>
+        <v>1.013044478687866</v>
       </c>
       <c r="E9">
-        <v>0.9866007373117452</v>
+        <v>1.007370067568066</v>
       </c>
       <c r="F9">
-        <v>0.9358100551884407</v>
+        <v>1.014157143093237</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032643163493431</v>
+        <v>1.044790411131487</v>
       </c>
       <c r="J9">
-        <v>1.003506104424954</v>
+        <v>1.017624428173789</v>
       </c>
       <c r="K9">
-        <v>1.012792082271534</v>
+        <v>1.025929405049895</v>
       </c>
       <c r="L9">
-        <v>0.9999150146625034</v>
+        <v>1.020344691658086</v>
       </c>
       <c r="M9">
-        <v>0.9500381444525027</v>
+        <v>1.027024631656779</v>
       </c>
       <c r="N9">
-        <v>1.003296946183442</v>
+        <v>1.019069571584949</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9649522901308049</v>
+        <v>0.9791857898991813</v>
       </c>
       <c r="D10">
-        <v>0.9900480425334592</v>
+        <v>1.00337194343628</v>
       </c>
       <c r="E10">
-        <v>0.9765575806551489</v>
+        <v>0.9965045976964541</v>
       </c>
       <c r="F10">
-        <v>0.910191012221597</v>
+        <v>1.002373673640301</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027074647558853</v>
+        <v>1.04026457092554</v>
       </c>
       <c r="J10">
-        <v>0.9946289186654339</v>
+        <v>1.008250272811317</v>
       </c>
       <c r="K10">
-        <v>1.004599337923446</v>
+        <v>1.017680582129735</v>
       </c>
       <c r="L10">
-        <v>0.9913633999607799</v>
+        <v>1.010937250812229</v>
       </c>
       <c r="M10">
-        <v>0.9263960728787911</v>
+        <v>1.016700202525855</v>
       </c>
       <c r="N10">
-        <v>0.9970142351861934</v>
+        <v>1.009682103846632</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9593948299089315</v>
+        <v>0.973483175743575</v>
       </c>
       <c r="D11">
-        <v>0.9856362604146731</v>
+        <v>0.9989980904216481</v>
       </c>
       <c r="E11">
-        <v>0.9719797773701246</v>
+        <v>0.9915961126265156</v>
       </c>
       <c r="F11">
-        <v>0.897995029380056</v>
+        <v>0.9970519622084576</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02447984280608</v>
+        <v>1.038198179271281</v>
       </c>
       <c r="J11">
-        <v>0.9905601384276846</v>
+        <v>1.004002261798848</v>
       </c>
       <c r="K11">
-        <v>1.000834236494979</v>
+        <v>1.013938926056184</v>
       </c>
       <c r="L11">
-        <v>0.9874501929525165</v>
+        <v>1.006678273444021</v>
       </c>
       <c r="M11">
-        <v>0.9151361983667629</v>
+        <v>1.012029689174984</v>
       </c>
       <c r="N11">
-        <v>0.9941326151414339</v>
+        <v>1.005428060171271</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.957281122924012</v>
+        <v>0.9713238168744868</v>
       </c>
       <c r="D12">
-        <v>0.9839571655820341</v>
+        <v>0.9973430748745811</v>
       </c>
       <c r="E12">
-        <v>0.9702402511333362</v>
+        <v>0.9897394619937327</v>
       </c>
       <c r="F12">
-        <v>0.8932628381698845</v>
+        <v>0.9950392157366272</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023484082107922</v>
+        <v>1.03741331667507</v>
       </c>
       <c r="J12">
-        <v>0.9890102991438486</v>
+        <v>1.002393417740433</v>
       </c>
       <c r="K12">
-        <v>0.999398313167533</v>
+        <v>1.012521355017617</v>
       </c>
       <c r="L12">
-        <v>0.9859607075018721</v>
+        <v>1.00506591363997</v>
       </c>
       <c r="M12">
-        <v>0.9107667534040439</v>
+        <v>1.010262077697219</v>
       </c>
       <c r="N12">
-        <v>0.9930347455170242</v>
+        <v>1.003816931369756</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9577368684727638</v>
+        <v>0.9717889315551422</v>
       </c>
       <c r="D13">
-        <v>0.9843192598119149</v>
+        <v>0.9976994991944045</v>
       </c>
       <c r="E13">
-        <v>0.970615244967475</v>
+        <v>0.9901392815096408</v>
       </c>
       <c r="F13">
-        <v>0.8942877752138074</v>
+        <v>0.9954726404662267</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023699205506026</v>
+        <v>1.037582478264082</v>
       </c>
       <c r="J13">
-        <v>0.9893445773908017</v>
+        <v>1.002739965207644</v>
       </c>
       <c r="K13">
-        <v>0.9997081056969146</v>
+        <v>1.012826723731403</v>
       </c>
       <c r="L13">
-        <v>0.9862819162287852</v>
+        <v>1.005413189300954</v>
       </c>
       <c r="M13">
-        <v>0.9117131397046312</v>
+        <v>1.010642767208777</v>
       </c>
       <c r="N13">
-        <v>0.9932715495207977</v>
+        <v>1.00416397097412</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9592211580879257</v>
+        <v>0.9733055443475191</v>
       </c>
       <c r="D14">
-        <v>0.9854983234115905</v>
+        <v>0.9988619214311201</v>
       </c>
       <c r="E14">
-        <v>0.971836817338295</v>
+        <v>0.9914433406915666</v>
       </c>
       <c r="F14">
-        <v>0.8976082422090252</v>
+        <v>0.9968863420012196</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024398214204379</v>
+        <v>1.038133663483886</v>
       </c>
       <c r="J14">
-        <v>0.9904328456891998</v>
+        <v>1.003869921455171</v>
       </c>
       <c r="K14">
-        <v>1.000716337354593</v>
+        <v>1.013822329292384</v>
       </c>
       <c r="L14">
-        <v>0.9873278341456977</v>
+        <v>1.006545630858286</v>
       </c>
       <c r="M14">
-        <v>0.9147790679919733</v>
+        <v>1.011884263505569</v>
       </c>
       <c r="N14">
-        <v>0.9940424482021581</v>
+        <v>1.005295531889127</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9601289264078986</v>
+        <v>0.9742344113091904</v>
       </c>
       <c r="D15">
-        <v>0.9862192607954556</v>
+        <v>0.9995740236876564</v>
       </c>
       <c r="E15">
-        <v>0.9725841224155739</v>
+        <v>0.9922422954510085</v>
       </c>
       <c r="F15">
-        <v>0.8996260177068276</v>
+        <v>0.9977524980387162</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024824512786959</v>
+        <v>1.038470931515133</v>
       </c>
       <c r="J15">
-        <v>0.9910980979253134</v>
+        <v>1.004561942354542</v>
       </c>
       <c r="K15">
-        <v>1.001332424148559</v>
+        <v>1.014432005462095</v>
       </c>
       <c r="L15">
-        <v>0.9879673461621731</v>
+        <v>1.007239258234752</v>
       </c>
       <c r="M15">
-        <v>0.9166421139113191</v>
+        <v>1.012644759687017</v>
       </c>
       <c r="N15">
-        <v>0.9945136661248823</v>
+        <v>1.00598853553755</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9653145485162286</v>
+        <v>0.9795586889997454</v>
       </c>
       <c r="D16">
-        <v>0.9903354842996412</v>
+        <v>1.003658106182611</v>
       </c>
       <c r="E16">
-        <v>0.9768561920479008</v>
+        <v>0.9968258338432783</v>
       </c>
       <c r="F16">
-        <v>0.9109743453580835</v>
+        <v>1.002721982923677</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027242644346963</v>
+        <v>1.040399356920067</v>
       </c>
       <c r="J16">
-        <v>0.9948938353383054</v>
+        <v>1.008528007603984</v>
       </c>
       <c r="K16">
-        <v>1.00484425678281</v>
+        <v>1.017925140463123</v>
       </c>
       <c r="L16">
-        <v>0.9916183288053313</v>
+        <v>1.011215789277378</v>
       </c>
       <c r="M16">
-        <v>0.9271192002068797</v>
+        <v>1.017005730633258</v>
       </c>
       <c r="N16">
-        <v>0.9972018206248915</v>
+        <v>1.009960233054561</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9684861104190401</v>
+        <v>0.9828291191740459</v>
       </c>
       <c r="D17">
-        <v>0.9928513817793722</v>
+        <v>1.006168595685026</v>
       </c>
       <c r="E17">
-        <v>0.979471640059529</v>
+        <v>0.9996445561541673</v>
       </c>
       <c r="F17">
-        <v>0.9177754201500685</v>
+        <v>1.005778427136107</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02870761447149</v>
+        <v>1.041579589350742</v>
       </c>
       <c r="J17">
-        <v>0.9972116083206828</v>
+        <v>1.010963524956739</v>
       </c>
       <c r="K17">
-        <v>1.006985923999861</v>
+        <v>1.02006932469073</v>
       </c>
       <c r="L17">
-        <v>0.9938494412727624</v>
+        <v>1.013658820460112</v>
       </c>
       <c r="M17">
-        <v>0.9333970260774264</v>
+        <v>1.019685892528962</v>
       </c>
       <c r="N17">
-        <v>0.9988428006789021</v>
+        <v>1.012399209121315</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9703085758113886</v>
+        <v>0.9847128368874992</v>
       </c>
       <c r="D18">
-        <v>0.9942965865383074</v>
+        <v>1.007615199743586</v>
       </c>
       <c r="E18">
-        <v>0.9809754560723463</v>
+        <v>1.00126922699439</v>
       </c>
       <c r="F18">
-        <v>0.9216389339582818</v>
+        <v>1.007540257684593</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029544739591299</v>
+        <v>1.042257801581438</v>
       </c>
       <c r="J18">
-        <v>0.9985421982309742</v>
+        <v>1.012366080113705</v>
       </c>
       <c r="K18">
-        <v>1.008214499951438</v>
+        <v>1.021303766962816</v>
       </c>
       <c r="L18">
-        <v>0.9951308622082683</v>
+        <v>1.015066087833306</v>
       </c>
       <c r="M18">
-        <v>0.936962816808051</v>
+        <v>1.021230093512911</v>
       </c>
       <c r="N18">
-        <v>0.9997846655649315</v>
+        <v>1.013803756067479</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9709254913192724</v>
+        <v>0.9853511885581663</v>
       </c>
       <c r="D19">
-        <v>0.9947857190359908</v>
+        <v>1.00810551899545</v>
       </c>
       <c r="E19">
-        <v>0.9814846577958709</v>
+        <v>1.001819980034653</v>
       </c>
       <c r="F19">
-        <v>0.9229396692015756</v>
+        <v>1.008137531175926</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029827344771395</v>
+        <v>1.042487361242252</v>
       </c>
       <c r="J19">
-        <v>0.9989924023301925</v>
+        <v>1.012841327590021</v>
       </c>
       <c r="K19">
-        <v>1.008630038523758</v>
+        <v>1.021721991294321</v>
       </c>
       <c r="L19">
-        <v>0.9955645251263093</v>
+        <v>1.01554299683812</v>
       </c>
       <c r="M19">
-        <v>0.9381632292176886</v>
+        <v>1.021753465229573</v>
       </c>
       <c r="N19">
-        <v>1.000103310698323</v>
+        <v>1.014279678449723</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9681487099247708</v>
+        <v>0.9824807262047471</v>
       </c>
       <c r="D20">
-        <v>0.9925837863183067</v>
+        <v>1.005901093988687</v>
       </c>
       <c r="E20">
-        <v>0.9791933053681044</v>
+        <v>0.9993441641851586</v>
       </c>
       <c r="F20">
-        <v>0.9170566539481668</v>
+        <v>1.005452686606299</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028552260953298</v>
+        <v>1.041454025123503</v>
       </c>
       <c r="J20">
-        <v>0.9969651696360566</v>
+        <v>1.010704100497968</v>
       </c>
       <c r="K20">
-        <v>1.006758306578608</v>
+        <v>1.019840967393926</v>
       </c>
       <c r="L20">
-        <v>0.9936121554819536</v>
+        <v>1.013398555486257</v>
       </c>
       <c r="M20">
-        <v>0.9327336074083099</v>
+        <v>1.019400329952736</v>
       </c>
       <c r="N20">
-        <v>0.9986683418712282</v>
+        <v>1.012139416250055</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9587854912339834</v>
+        <v>0.9728601068100472</v>
       </c>
       <c r="D21">
-        <v>0.9851522802102525</v>
+        <v>0.998520477064721</v>
       </c>
       <c r="E21">
-        <v>0.9714782187172476</v>
+        <v>0.9910602748286801</v>
       </c>
       <c r="F21">
-        <v>0.8966363802458217</v>
+        <v>0.9964710632182182</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024193296598045</v>
+        <v>1.037971842248429</v>
       </c>
       <c r="J21">
-        <v>0.9901134851733762</v>
+        <v>1.003538053899377</v>
       </c>
       <c r="K21">
-        <v>1.000420514877507</v>
+        <v>1.013529933779799</v>
       </c>
       <c r="L21">
-        <v>0.9870208703276978</v>
+        <v>1.006213015694319</v>
       </c>
       <c r="M21">
-        <v>0.9138817167967355</v>
+        <v>1.011519602240749</v>
       </c>
       <c r="N21">
-        <v>0.9938162279115244</v>
+        <v>1.004963193043338</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9526083726204342</v>
+        <v>0.9665710051515138</v>
       </c>
       <c r="D22">
-        <v>0.9802426437671192</v>
+        <v>0.9937027908385725</v>
       </c>
       <c r="E22">
-        <v>0.9663977364260911</v>
+        <v>0.9856568268823351</v>
       </c>
       <c r="F22">
-        <v>0.8825997820329983</v>
+        <v>0.9906137053427283</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021264640457856</v>
+        <v>1.03568152622439</v>
       </c>
       <c r="J22">
-        <v>0.9855793619715331</v>
+        <v>0.9988519254593379</v>
       </c>
       <c r="K22">
-        <v>0.9962159280808041</v>
+        <v>1.009400037445176</v>
       </c>
       <c r="L22">
-        <v>0.9826656020641918</v>
+        <v>1.001517882227845</v>
       </c>
       <c r="M22">
-        <v>0.900920596915585</v>
+        <v>1.006373428348916</v>
       </c>
       <c r="N22">
-        <v>0.9906040136443452</v>
+        <v>1.000270409763407</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9559128886064772</v>
+        <v>0.9699290703185246</v>
       </c>
       <c r="D23">
-        <v>0.9828698928316195</v>
+        <v>0.9962744520244555</v>
       </c>
       <c r="E23">
-        <v>0.9691146885046715</v>
+        <v>0.9885408251895142</v>
       </c>
       <c r="F23">
-        <v>0.8901701355530174</v>
+        <v>0.9937398617578854</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022836824917931</v>
+        <v>1.036905707297507</v>
       </c>
       <c r="J23">
-        <v>0.9880063632146397</v>
+        <v>1.001354188772731</v>
       </c>
       <c r="K23">
-        <v>0.9984676320882965</v>
+        <v>1.011605543702177</v>
       </c>
       <c r="L23">
-        <v>0.9849961970877529</v>
+        <v>1.004024596030234</v>
       </c>
       <c r="M23">
-        <v>0.9079110319712382</v>
+        <v>1.009120648239975</v>
       </c>
       <c r="N23">
-        <v>0.9923235257007885</v>
+        <v>1.002776226577719</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9683012510905794</v>
+        <v>0.9826382234882801</v>
       </c>
       <c r="D24">
-        <v>0.9927047696610034</v>
+        <v>1.006022021072711</v>
       </c>
       <c r="E24">
-        <v>0.9793191396462563</v>
+        <v>0.9994799582590143</v>
       </c>
       <c r="F24">
-        <v>0.9173817505071439</v>
+        <v>1.005599939219485</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028622511877005</v>
+        <v>1.041510793610483</v>
       </c>
       <c r="J24">
-        <v>0.9970765902367229</v>
+        <v>1.010821378806447</v>
       </c>
       <c r="K24">
-        <v>1.006861220481937</v>
+        <v>1.019944202198711</v>
       </c>
       <c r="L24">
-        <v>0.9937194360504619</v>
+        <v>1.013516212571979</v>
       </c>
       <c r="M24">
-        <v>0.9330336719010764</v>
+        <v>1.019529422187051</v>
       </c>
       <c r="N24">
-        <v>0.9987472193118138</v>
+        <v>1.012256861107185</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9816111735753922</v>
+        <v>0.9964592298729478</v>
       </c>
       <c r="D25">
-        <v>1.003252427352515</v>
+        <v>1.016644715015324</v>
       </c>
       <c r="E25">
-        <v>0.990316837397906</v>
+        <v>1.011418756240838</v>
       </c>
       <c r="F25">
-        <v>0.9449477333679734</v>
+        <v>1.018549239871884</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034661862496754</v>
+        <v>1.046458011070443</v>
       </c>
       <c r="J25">
-        <v>1.006773648284446</v>
+        <v>1.021106345458981</v>
       </c>
       <c r="K25">
-        <v>1.015800462521612</v>
+        <v>1.028990023455693</v>
       </c>
       <c r="L25">
-        <v>1.003067355167437</v>
+        <v>1.023842359596089</v>
       </c>
       <c r="M25">
-        <v>0.9584653432058073</v>
+        <v>1.030866268737495</v>
       </c>
       <c r="N25">
-        <v>1.005607481757351</v>
+        <v>1.022556433592067</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006845455547513</v>
+        <v>1.055037098945924</v>
       </c>
       <c r="D2">
-        <v>1.02463908513447</v>
+        <v>1.067368904783477</v>
       </c>
       <c r="E2">
-        <v>1.020419352820238</v>
+        <v>1.063666549771831</v>
       </c>
       <c r="F2">
-        <v>1.028316379451357</v>
+        <v>1.075201042087534</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050123835066049</v>
+        <v>1.077448914689632</v>
       </c>
       <c r="J2">
-        <v>1.02882333036079</v>
+        <v>1.075687647031145</v>
       </c>
       <c r="K2">
-        <v>1.035765507325697</v>
+        <v>1.07796317909881</v>
       </c>
       <c r="L2">
-        <v>1.031601358537229</v>
+        <v>1.074304833736471</v>
       </c>
       <c r="M2">
-        <v>1.039394829002754</v>
+        <v>1.085703451318497</v>
       </c>
       <c r="N2">
-        <v>1.030284377497587</v>
+        <v>1.077215246873026</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014063071819066</v>
+        <v>1.060966175444849</v>
       </c>
       <c r="D3">
-        <v>1.030198622150523</v>
+        <v>1.072039084784552</v>
       </c>
       <c r="E3">
-        <v>1.026688537914007</v>
+        <v>1.068701974324997</v>
       </c>
       <c r="F3">
-        <v>1.035122406490713</v>
+        <v>1.080376971623756</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052639779240131</v>
+        <v>1.079992726591546</v>
       </c>
       <c r="J3">
-        <v>1.034177569090305</v>
+        <v>1.07992237630755</v>
       </c>
       <c r="K3">
-        <v>1.040459153734894</v>
+        <v>1.081826283147588</v>
       </c>
       <c r="L3">
-        <v>1.03699095284693</v>
+        <v>1.078525255328537</v>
       </c>
       <c r="M3">
-        <v>1.045324778610323</v>
+        <v>1.090075208259802</v>
       </c>
       <c r="N3">
-        <v>1.035646219860238</v>
+        <v>1.081455989950734</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018596718772182</v>
+        <v>1.064711612079657</v>
       </c>
       <c r="D4">
-        <v>1.033691884022847</v>
+        <v>1.074991551242575</v>
       </c>
       <c r="E4">
-        <v>1.030632511486818</v>
+        <v>1.071887096294268</v>
       </c>
       <c r="F4">
-        <v>1.039405519021243</v>
+        <v>1.083651687184654</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054205092734144</v>
+        <v>1.081589415373351</v>
       </c>
       <c r="J4">
-        <v>1.037536391568612</v>
+        <v>1.082593304173455</v>
       </c>
       <c r="K4">
-        <v>1.043399996562765</v>
+        <v>1.084261910527491</v>
       </c>
       <c r="L4">
-        <v>1.040374768741559</v>
+        <v>1.081188932071952</v>
       </c>
       <c r="M4">
-        <v>1.049050524663078</v>
+        <v>1.092835398265655</v>
       </c>
       <c r="N4">
-        <v>1.039009812251727</v>
+        <v>1.084130710840568</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020471727428737</v>
+        <v>1.066265340846625</v>
       </c>
       <c r="D5">
-        <v>1.035136775897207</v>
+        <v>1.076216818793449</v>
       </c>
       <c r="E5">
-        <v>1.032265017851108</v>
+        <v>1.073209343923811</v>
       </c>
       <c r="F5">
-        <v>1.041178749657422</v>
+        <v>1.085011298873571</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054848792392968</v>
+        <v>1.082249274191951</v>
       </c>
       <c r="J5">
-        <v>1.038924408968341</v>
+        <v>1.083700248851517</v>
       </c>
       <c r="K5">
-        <v>1.044614402185373</v>
+        <v>1.085271108515864</v>
       </c>
       <c r="L5">
-        <v>1.041773783212454</v>
+        <v>1.082293290321081</v>
       </c>
       <c r="M5">
-        <v>1.050591548374587</v>
+        <v>1.093980008841524</v>
       </c>
       <c r="N5">
-        <v>1.040399800795372</v>
+        <v>1.085239227507041</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020784784407355</v>
+        <v>1.06652502245507</v>
       </c>
       <c r="D6">
-        <v>1.035378025871081</v>
+        <v>1.076421630272588</v>
       </c>
       <c r="E6">
-        <v>1.032537664328186</v>
+        <v>1.073430391700966</v>
       </c>
       <c r="F6">
-        <v>1.041474919239894</v>
+        <v>1.08523860302028</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054956048234448</v>
+        <v>1.082359411257798</v>
       </c>
       <c r="J6">
-        <v>1.039156089289948</v>
+        <v>1.083885194982356</v>
       </c>
       <c r="K6">
-        <v>1.044817051469675</v>
+        <v>1.085439709609647</v>
       </c>
       <c r="L6">
-        <v>1.042007338262926</v>
+        <v>1.082477828755154</v>
       </c>
       <c r="M6">
-        <v>1.050848848485096</v>
+        <v>1.094171287391088</v>
       </c>
       <c r="N6">
-        <v>1.040631810129609</v>
+        <v>1.0854244362826</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018621892050039</v>
+        <v>1.064732453802866</v>
       </c>
       <c r="D7">
-        <v>1.033711282182399</v>
+        <v>1.075007985130607</v>
       </c>
       <c r="E7">
-        <v>1.030654423679216</v>
+        <v>1.071904829221497</v>
       </c>
       <c r="F7">
-        <v>1.039429318693142</v>
+        <v>1.083669920535418</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054213749482565</v>
+        <v>1.081598276653591</v>
       </c>
       <c r="J7">
-        <v>1.037555031135725</v>
+        <v>1.082608156908228</v>
       </c>
       <c r="K7">
-        <v>1.043416308243737</v>
+        <v>1.084275452635129</v>
       </c>
       <c r="L7">
-        <v>1.040393553348107</v>
+        <v>1.081203748455068</v>
       </c>
       <c r="M7">
-        <v>1.049071213496116</v>
+        <v>1.092850753746564</v>
       </c>
       <c r="N7">
-        <v>1.039028478289163</v>
+        <v>1.084145584667929</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009314088660237</v>
+        <v>1.057060306459394</v>
       </c>
       <c r="D8">
-        <v>1.026540304816199</v>
+        <v>1.068962015861736</v>
       </c>
       <c r="E8">
-        <v>1.02256226046216</v>
+        <v>1.065383892445839</v>
       </c>
       <c r="F8">
-        <v>1.030642496445263</v>
+        <v>1.076966152548088</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050987492008647</v>
+        <v>1.078319082702852</v>
       </c>
       <c r="J8">
-        <v>1.030655516226027</v>
+        <v>1.07713353719011</v>
       </c>
       <c r="K8">
-        <v>1.037372382138427</v>
+        <v>1.079282367858246</v>
       </c>
       <c r="L8">
-        <v>1.033445044173956</v>
+        <v>1.07574546140493</v>
       </c>
       <c r="M8">
-        <v>1.041422796246124</v>
+        <v>1.087195525462135</v>
       </c>
       <c r="N8">
-        <v>1.032119165276909</v>
+        <v>1.078663190361864</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9917779494438497</v>
+        <v>1.042797515173707</v>
       </c>
       <c r="D9">
-        <v>1.013044478687866</v>
+        <v>1.057743600367153</v>
       </c>
       <c r="E9">
-        <v>1.007370067568066</v>
+        <v>1.053297753636447</v>
       </c>
       <c r="F9">
-        <v>1.014157143093237</v>
+        <v>1.064546967451837</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044790411131487</v>
+        <v>1.072142626389966</v>
       </c>
       <c r="J9">
-        <v>1.017624428173789</v>
+        <v>1.066924507410945</v>
       </c>
       <c r="K9">
-        <v>1.025929405049895</v>
+        <v>1.069964486997061</v>
       </c>
       <c r="L9">
-        <v>1.020344691658086</v>
+        <v>1.065581493361869</v>
       </c>
       <c r="M9">
-        <v>1.027024631656779</v>
+        <v>1.076672953376661</v>
       </c>
       <c r="N9">
-        <v>1.019069571584949</v>
+        <v>1.06843966258942</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9791857898991813</v>
+        <v>1.032719188048786</v>
       </c>
       <c r="D10">
-        <v>1.00337194343628</v>
+        <v>1.049835396028098</v>
       </c>
       <c r="E10">
-        <v>0.9965045976964541</v>
+        <v>1.044786481713412</v>
       </c>
       <c r="F10">
-        <v>1.002373673640301</v>
+        <v>1.055805230935752</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04026457092554</v>
+        <v>1.067726495026945</v>
       </c>
       <c r="J10">
-        <v>1.008250272811317</v>
+        <v>1.059692209452545</v>
       </c>
       <c r="K10">
-        <v>1.017680582129735</v>
+        <v>1.063359605505894</v>
       </c>
       <c r="L10">
-        <v>1.010937250812229</v>
+        <v>1.058391594129393</v>
       </c>
       <c r="M10">
-        <v>1.016700202525855</v>
+        <v>1.069235058094585</v>
       </c>
       <c r="N10">
-        <v>1.009682103846632</v>
+        <v>1.061197093938363</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.973483175743575</v>
+        <v>1.028202552311219</v>
       </c>
       <c r="D11">
-        <v>0.9989980904216481</v>
+        <v>1.046296896015936</v>
       </c>
       <c r="E11">
-        <v>0.9915961126265156</v>
+        <v>1.040980044729132</v>
       </c>
       <c r="F11">
-        <v>0.9970519622084576</v>
+        <v>1.051896723240449</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038198179271281</v>
+        <v>1.065735780251541</v>
       </c>
       <c r="J11">
-        <v>1.004002261798848</v>
+        <v>1.056447380652009</v>
       </c>
       <c r="K11">
-        <v>1.013938926056184</v>
+        <v>1.060395524449385</v>
       </c>
       <c r="L11">
-        <v>1.006678273444021</v>
+        <v>1.05516841615339</v>
       </c>
       <c r="M11">
-        <v>1.012029689174984</v>
+        <v>1.065902094897438</v>
       </c>
       <c r="N11">
-        <v>1.005428060171271</v>
+        <v>1.057947657108744</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9713238168744868</v>
+        <v>1.026500287489652</v>
       </c>
       <c r="D12">
-        <v>0.9973430748745811</v>
+        <v>1.044964219505459</v>
       </c>
       <c r="E12">
-        <v>0.9897394619937327</v>
+        <v>1.039546730561564</v>
       </c>
       <c r="F12">
-        <v>0.9950392157366272</v>
+        <v>1.050425127352737</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03741331667507</v>
+        <v>1.064983821449335</v>
       </c>
       <c r="J12">
-        <v>1.002393417740433</v>
+        <v>1.055223962602774</v>
       </c>
       <c r="K12">
-        <v>1.012521355017617</v>
+        <v>1.059277862233422</v>
       </c>
       <c r="L12">
-        <v>1.00506591363997</v>
+        <v>1.053953569488742</v>
       </c>
       <c r="M12">
-        <v>1.010262077697219</v>
+        <v>1.064646081908946</v>
       </c>
       <c r="N12">
-        <v>1.003816931369756</v>
+        <v>1.056722501665549</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9717889315551422</v>
+        <v>1.026866569813718</v>
       </c>
       <c r="D13">
-        <v>0.9976994991944045</v>
+        <v>1.045250932009124</v>
       </c>
       <c r="E13">
-        <v>0.9901392815096408</v>
+        <v>1.039855082156598</v>
       </c>
       <c r="F13">
-        <v>0.9954726404662267</v>
+        <v>1.050741707604023</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037582478264082</v>
+        <v>1.065145698032327</v>
       </c>
       <c r="J13">
-        <v>1.002739965207644</v>
+        <v>1.055487230409161</v>
       </c>
       <c r="K13">
-        <v>1.012826723731403</v>
+        <v>1.059518376477043</v>
       </c>
       <c r="L13">
-        <v>1.005413189300954</v>
+        <v>1.054214974152642</v>
       </c>
       <c r="M13">
-        <v>1.010642767208777</v>
+        <v>1.064916334859822</v>
       </c>
       <c r="N13">
-        <v>1.00416397097412</v>
+        <v>1.056986143342419</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9733055443475191</v>
+        <v>1.028062354196977</v>
       </c>
       <c r="D14">
-        <v>0.9988619214311201</v>
+        <v>1.04618711738777</v>
       </c>
       <c r="E14">
-        <v>0.9914433406915666</v>
+        <v>1.040861970644716</v>
       </c>
       <c r="F14">
-        <v>0.9968863420012196</v>
+        <v>1.051775492443847</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038133663483886</v>
+        <v>1.065673882907694</v>
       </c>
       <c r="J14">
-        <v>1.003869921455171</v>
+        <v>1.056346629620994</v>
       </c>
       <c r="K14">
-        <v>1.013822329292384</v>
+        <v>1.060303484489643</v>
       </c>
       <c r="L14">
-        <v>1.006545630858286</v>
+        <v>1.05506836262372</v>
       </c>
       <c r="M14">
-        <v>1.011884263505569</v>
+        <v>1.065798646606208</v>
       </c>
       <c r="N14">
-        <v>1.005295531889127</v>
+        <v>1.057846762999708</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9742344113091904</v>
+        <v>1.028795806643481</v>
       </c>
       <c r="D15">
-        <v>0.9995740236876564</v>
+        <v>1.046761467917138</v>
       </c>
       <c r="E15">
-        <v>0.9922422954510085</v>
+        <v>1.041479733202048</v>
       </c>
       <c r="F15">
-        <v>0.9977524980387162</v>
+        <v>1.052409777141823</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038470931515133</v>
+        <v>1.065997633385926</v>
       </c>
       <c r="J15">
-        <v>1.004561942354542</v>
+        <v>1.056873693757196</v>
       </c>
       <c r="K15">
-        <v>1.014432005462095</v>
+        <v>1.060784974124021</v>
       </c>
       <c r="L15">
-        <v>1.007239258234752</v>
+        <v>1.055591794585218</v>
       </c>
       <c r="M15">
-        <v>1.012644759687017</v>
+        <v>1.066339847015499</v>
       </c>
       <c r="N15">
-        <v>1.00598853553755</v>
+        <v>1.058374575627439</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9795586889997454</v>
+        <v>1.033015588621912</v>
       </c>
       <c r="D16">
-        <v>1.003658106182611</v>
+        <v>1.050067731717627</v>
       </c>
       <c r="E16">
-        <v>0.9968258338432783</v>
+        <v>1.045036448501173</v>
       </c>
       <c r="F16">
-        <v>1.002721982923677</v>
+        <v>1.056061921666375</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040399356920067</v>
+        <v>1.067856897909081</v>
       </c>
       <c r="J16">
-        <v>1.008528007603984</v>
+        <v>1.059905078377664</v>
       </c>
       <c r="K16">
-        <v>1.017925140463123</v>
+        <v>1.063554042473613</v>
       </c>
       <c r="L16">
-        <v>1.011215789277378</v>
+        <v>1.058603098397196</v>
       </c>
       <c r="M16">
-        <v>1.017005730633258</v>
+        <v>1.069453795646666</v>
       </c>
       <c r="N16">
-        <v>1.009960233054561</v>
+        <v>1.061410265161772</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9828291191740459</v>
+        <v>1.035620558606493</v>
       </c>
       <c r="D17">
-        <v>1.006168595685026</v>
+        <v>1.052110301286152</v>
       </c>
       <c r="E17">
-        <v>0.9996445561541673</v>
+        <v>1.047234235786255</v>
       </c>
       <c r="F17">
-        <v>1.005778427136107</v>
+        <v>1.058318941701213</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041579589350742</v>
+        <v>1.069001657134492</v>
       </c>
       <c r="J17">
-        <v>1.010963524956739</v>
+        <v>1.061775508863884</v>
       </c>
       <c r="K17">
-        <v>1.02006932469073</v>
+        <v>1.065262432642476</v>
       </c>
       <c r="L17">
-        <v>1.013658820460112</v>
+        <v>1.060461837425608</v>
       </c>
       <c r="M17">
-        <v>1.019685892528962</v>
+        <v>1.071376260179448</v>
       </c>
       <c r="N17">
-        <v>1.012399209121315</v>
+        <v>1.063283351873824</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9847128368874992</v>
+        <v>1.037125384004711</v>
       </c>
       <c r="D18">
-        <v>1.007615199743586</v>
+        <v>1.053290763315363</v>
       </c>
       <c r="E18">
-        <v>1.00126922699439</v>
+        <v>1.048504583742508</v>
       </c>
       <c r="F18">
-        <v>1.007540257684593</v>
+        <v>1.059623621180302</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042257801581438</v>
+        <v>1.069661853967612</v>
       </c>
       <c r="J18">
-        <v>1.012366080113705</v>
+        <v>1.062855659696236</v>
       </c>
       <c r="K18">
-        <v>1.021303766962816</v>
+        <v>1.066248935432905</v>
       </c>
       <c r="L18">
-        <v>1.015066087833306</v>
+        <v>1.061535483911222</v>
       </c>
       <c r="M18">
-        <v>1.021230093512911</v>
+        <v>1.072486846881747</v>
       </c>
       <c r="N18">
-        <v>1.013803756067479</v>
+        <v>1.064365036644253</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9853511885581663</v>
+        <v>1.037636060204286</v>
       </c>
       <c r="D19">
-        <v>1.00810551899545</v>
+        <v>1.053691449363681</v>
       </c>
       <c r="E19">
-        <v>1.001819980034653</v>
+        <v>1.048935810973853</v>
       </c>
       <c r="F19">
-        <v>1.008137531175926</v>
+        <v>1.060066518358123</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042487361242252</v>
+        <v>1.069885709138827</v>
       </c>
       <c r="J19">
-        <v>1.012841327590021</v>
+        <v>1.063222157504141</v>
       </c>
       <c r="K19">
-        <v>1.021721991294321</v>
+        <v>1.066583645604059</v>
       </c>
       <c r="L19">
-        <v>1.01554299683812</v>
+        <v>1.061899816353898</v>
       </c>
       <c r="M19">
-        <v>1.021753465229573</v>
+        <v>1.072863736774254</v>
       </c>
       <c r="N19">
-        <v>1.014279678449723</v>
+        <v>1.064732054921083</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9824807262047471</v>
+        <v>1.035342592552239</v>
       </c>
       <c r="D20">
-        <v>1.005901093988687</v>
+        <v>1.051892291956256</v>
       </c>
       <c r="E20">
-        <v>0.9993441641851586</v>
+        <v>1.046999640925911</v>
       </c>
       <c r="F20">
-        <v>1.005452686606299</v>
+        <v>1.05807801444976</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041454025123503</v>
+        <v>1.068879618352921</v>
       </c>
       <c r="J20">
-        <v>1.010704100497968</v>
+        <v>1.061575958459157</v>
       </c>
       <c r="K20">
-        <v>1.019840967393926</v>
+        <v>1.065080177152081</v>
       </c>
       <c r="L20">
-        <v>1.013398555486257</v>
+        <v>1.060263508574093</v>
       </c>
       <c r="M20">
-        <v>1.019400329952736</v>
+        <v>1.071171118136903</v>
       </c>
       <c r="N20">
-        <v>1.012139416250055</v>
+        <v>1.063083518084633</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9728601068100472</v>
+        <v>1.027710918209116</v>
       </c>
       <c r="D21">
-        <v>0.998520477064721</v>
+        <v>1.045911949728053</v>
       </c>
       <c r="E21">
-        <v>0.9910602748286801</v>
+        <v>1.040566014210034</v>
       </c>
       <c r="F21">
-        <v>0.9964710632182182</v>
+        <v>1.051471626084447</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037971842248429</v>
+        <v>1.065518697359792</v>
       </c>
       <c r="J21">
-        <v>1.003538053899377</v>
+        <v>1.056094068505094</v>
       </c>
       <c r="K21">
-        <v>1.013529933779799</v>
+        <v>1.06007275865921</v>
       </c>
       <c r="L21">
-        <v>1.006213015694319</v>
+        <v>1.054817556611783</v>
       </c>
       <c r="M21">
-        <v>1.011519602240749</v>
+        <v>1.065539334322827</v>
       </c>
       <c r="N21">
-        <v>1.004963193043338</v>
+        <v>1.057593843218054</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9665710051515138</v>
+        <v>1.022769404639743</v>
       </c>
       <c r="D22">
-        <v>0.9937027908385725</v>
+        <v>1.042045220847506</v>
       </c>
       <c r="E22">
-        <v>0.9856568268823351</v>
+        <v>1.03640779069871</v>
       </c>
       <c r="F22">
-        <v>0.9906137053427283</v>
+        <v>1.047202636218555</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03568152622439</v>
+        <v>1.063332714459758</v>
       </c>
       <c r="J22">
-        <v>0.9988519254593379</v>
+        <v>1.052541767660738</v>
       </c>
       <c r="K22">
-        <v>1.009400037445176</v>
+        <v>1.056827365600198</v>
       </c>
       <c r="L22">
-        <v>1.001517882227845</v>
+        <v>1.051290933872904</v>
       </c>
       <c r="M22">
-        <v>1.006373428348916</v>
+        <v>1.061893616712242</v>
       </c>
       <c r="N22">
-        <v>1.000270409763407</v>
+        <v>1.054036497699045</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9699290703185246</v>
+        <v>1.02540315889203</v>
       </c>
       <c r="D23">
-        <v>0.9962744520244555</v>
+        <v>1.044105573196484</v>
       </c>
       <c r="E23">
-        <v>0.9885408251895142</v>
+        <v>1.038623318553022</v>
       </c>
       <c r="F23">
-        <v>0.9937398617578854</v>
+        <v>1.049477095887706</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036905707297507</v>
+        <v>1.064498709508042</v>
       </c>
       <c r="J23">
-        <v>1.001354188772731</v>
+        <v>1.054435329090922</v>
       </c>
       <c r="K23">
-        <v>1.011605543702177</v>
+        <v>1.058557375491888</v>
       </c>
       <c r="L23">
-        <v>1.004024596030234</v>
+        <v>1.053170578052527</v>
       </c>
       <c r="M23">
-        <v>1.009120648239975</v>
+        <v>1.06383661850935</v>
       </c>
       <c r="N23">
-        <v>1.002776226577719</v>
+        <v>1.055932748203654</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9826382234882801</v>
+        <v>1.035468238473118</v>
       </c>
       <c r="D24">
-        <v>1.006022021072711</v>
+        <v>1.051990834692712</v>
       </c>
       <c r="E24">
-        <v>0.9994799582590143</v>
+        <v>1.047105679951425</v>
       </c>
       <c r="F24">
-        <v>1.005599939219485</v>
+        <v>1.058186915481848</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041510793610483</v>
+        <v>1.068934785616411</v>
       </c>
       <c r="J24">
-        <v>1.010821378806447</v>
+        <v>1.061666160111217</v>
       </c>
       <c r="K24">
-        <v>1.019944202198711</v>
+        <v>1.065162561304666</v>
       </c>
       <c r="L24">
-        <v>1.013516212571979</v>
+        <v>1.060353157287757</v>
       </c>
       <c r="M24">
-        <v>1.019529422187051</v>
+        <v>1.071263846146525</v>
       </c>
       <c r="N24">
-        <v>1.012256861107185</v>
+        <v>1.063173847833386</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9964592298729478</v>
+        <v>1.046579736003876</v>
       </c>
       <c r="D25">
-        <v>1.016644715015324</v>
+        <v>1.060715605056825</v>
       </c>
       <c r="E25">
-        <v>1.011418756240838</v>
+        <v>1.056498113682165</v>
       </c>
       <c r="F25">
-        <v>1.018549239871884</v>
+        <v>1.067834826984438</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046458011070443</v>
+        <v>1.073789584274793</v>
       </c>
       <c r="J25">
-        <v>1.021106345458981</v>
+        <v>1.069635129905238</v>
       </c>
       <c r="K25">
-        <v>1.028990023455693</v>
+        <v>1.072439219755198</v>
       </c>
       <c r="L25">
-        <v>1.023842359596089</v>
+        <v>1.068278400170517</v>
       </c>
       <c r="M25">
-        <v>1.030866268737495</v>
+        <v>1.079464051835235</v>
       </c>
       <c r="N25">
-        <v>1.022556433592067</v>
+        <v>1.071154134478567</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.055037098945924</v>
+        <v>1.07837893064909</v>
       </c>
       <c r="D2">
-        <v>1.067368904783477</v>
+        <v>1.079566417411833</v>
       </c>
       <c r="E2">
-        <v>1.063666549771831</v>
+        <v>1.081813542453623</v>
       </c>
       <c r="F2">
-        <v>1.075201042087534</v>
+        <v>1.09241558652532</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.077448914689632</v>
+        <v>1.065828316021834</v>
       </c>
       <c r="J2">
-        <v>1.075687647031145</v>
+        <v>1.083268700750428</v>
       </c>
       <c r="K2">
-        <v>1.07796317909881</v>
+        <v>1.082242132426751</v>
       </c>
       <c r="L2">
-        <v>1.074304833736471</v>
+        <v>1.084483386601136</v>
       </c>
       <c r="M2">
-        <v>1.085703451318497</v>
+        <v>1.095058083056891</v>
       </c>
       <c r="N2">
-        <v>1.077215246873026</v>
+        <v>1.08480706655815</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.060966175444849</v>
+        <v>1.07959198113016</v>
       </c>
       <c r="D3">
-        <v>1.072039084784552</v>
+        <v>1.080532148426952</v>
       </c>
       <c r="E3">
-        <v>1.068701974324997</v>
+        <v>1.082879779012723</v>
       </c>
       <c r="F3">
-        <v>1.080376971623756</v>
+        <v>1.093514371441239</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.079992726591546</v>
+        <v>1.066269136261808</v>
       </c>
       <c r="J3">
-        <v>1.07992237630755</v>
+        <v>1.08414108101649</v>
       </c>
       <c r="K3">
-        <v>1.081826283147588</v>
+        <v>1.083025598248837</v>
       </c>
       <c r="L3">
-        <v>1.078525255328537</v>
+        <v>1.085367538662868</v>
       </c>
       <c r="M3">
-        <v>1.090075208259802</v>
+        <v>1.095976683625121</v>
       </c>
       <c r="N3">
-        <v>1.081455989950734</v>
+        <v>1.085680685704253</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.064711612079657</v>
+        <v>1.08037678007734</v>
       </c>
       <c r="D4">
-        <v>1.074991551242575</v>
+        <v>1.08115686553006</v>
       </c>
       <c r="E4">
-        <v>1.071887096294268</v>
+        <v>1.083569740833363</v>
       </c>
       <c r="F4">
-        <v>1.083651687184654</v>
+        <v>1.094225499648296</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.081589415373351</v>
+        <v>1.066553056129498</v>
       </c>
       <c r="J4">
-        <v>1.082593304173455</v>
+        <v>1.084704862235279</v>
       </c>
       <c r="K4">
-        <v>1.084261910527491</v>
+        <v>1.083531752630428</v>
       </c>
       <c r="L4">
-        <v>1.081188932071952</v>
+        <v>1.085939073949416</v>
       </c>
       <c r="M4">
-        <v>1.092835398265655</v>
+        <v>1.096570618829723</v>
       </c>
       <c r="N4">
-        <v>1.084130710840568</v>
+        <v>1.08624526755704</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.066265340846625</v>
+        <v>1.080706680972378</v>
       </c>
       <c r="D5">
-        <v>1.076216818793449</v>
+        <v>1.081419455194067</v>
       </c>
       <c r="E5">
-        <v>1.073209343923811</v>
+        <v>1.083859810034468</v>
       </c>
       <c r="F5">
-        <v>1.085011298873571</v>
+        <v>1.094524492402239</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.082249274191951</v>
+        <v>1.06667210045177</v>
       </c>
       <c r="J5">
-        <v>1.083700248851517</v>
+        <v>1.084941707423531</v>
       </c>
       <c r="K5">
-        <v>1.085271108515864</v>
+        <v>1.08374434900166</v>
       </c>
       <c r="L5">
-        <v>1.082293290321081</v>
+        <v>1.086179211637558</v>
       </c>
       <c r="M5">
-        <v>1.093980008841524</v>
+        <v>1.096820199596786</v>
       </c>
       <c r="N5">
-        <v>1.085239227507041</v>
+        <v>1.086482449092626</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.06652502245507</v>
+        <v>1.080762071153088</v>
       </c>
       <c r="D6">
-        <v>1.076421630272588</v>
+        <v>1.081463542743335</v>
       </c>
       <c r="E6">
-        <v>1.073430391700966</v>
+        <v>1.083908514494366</v>
       </c>
       <c r="F6">
-        <v>1.08523860302028</v>
+        <v>1.094574696642889</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.082359411257798</v>
+        <v>1.066692070025327</v>
       </c>
       <c r="J6">
-        <v>1.083885194982356</v>
+        <v>1.084981464920572</v>
       </c>
       <c r="K6">
-        <v>1.085439709609647</v>
+        <v>1.083780033691539</v>
       </c>
       <c r="L6">
-        <v>1.082477828755154</v>
+        <v>1.086219523874116</v>
       </c>
       <c r="M6">
-        <v>1.094171287391088</v>
+        <v>1.096862098900188</v>
       </c>
       <c r="N6">
-        <v>1.0854244362826</v>
+        <v>1.086522263049872</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.064732453802866</v>
+        <v>1.080381188339614</v>
       </c>
       <c r="D7">
-        <v>1.075007985130607</v>
+        <v>1.081160374427953</v>
       </c>
       <c r="E7">
-        <v>1.071904829221497</v>
+        <v>1.083573616714915</v>
       </c>
       <c r="F7">
-        <v>1.083669920535418</v>
+        <v>1.094229494667806</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.081598276653591</v>
+        <v>1.066554648044991</v>
       </c>
       <c r="J7">
-        <v>1.082608156908228</v>
+        <v>1.084708027633039</v>
       </c>
       <c r="K7">
-        <v>1.084275452635129</v>
+        <v>1.083534594102912</v>
       </c>
       <c r="L7">
-        <v>1.081203748455068</v>
+        <v>1.085942283213386</v>
       </c>
       <c r="M7">
-        <v>1.092850753746564</v>
+        <v>1.096573954169867</v>
       </c>
       <c r="N7">
-        <v>1.084145584667929</v>
+        <v>1.086248437450028</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.057060306459394</v>
+        <v>1.078788913719164</v>
       </c>
       <c r="D8">
-        <v>1.068962015861736</v>
+        <v>1.079892827414135</v>
       </c>
       <c r="E8">
-        <v>1.065383892445839</v>
+        <v>1.082173875204106</v>
       </c>
       <c r="F8">
-        <v>1.076966152548088</v>
+        <v>1.092786897296179</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.078319082702852</v>
+        <v>1.065977566960274</v>
       </c>
       <c r="J8">
-        <v>1.07713353719011</v>
+        <v>1.083563672680722</v>
       </c>
       <c r="K8">
-        <v>1.079282367858246</v>
+        <v>1.082507074508706</v>
       </c>
       <c r="L8">
-        <v>1.07574546140493</v>
+        <v>1.084782308457934</v>
       </c>
       <c r="M8">
-        <v>1.087195525462135</v>
+        <v>1.095368624262695</v>
       </c>
       <c r="N8">
-        <v>1.078663190361864</v>
+        <v>1.085102457382418</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.042797515173707</v>
+        <v>1.075982089545532</v>
       </c>
       <c r="D9">
-        <v>1.057743600367153</v>
+        <v>1.077657876914791</v>
       </c>
       <c r="E9">
-        <v>1.053297753636447</v>
+        <v>1.079707589075979</v>
       </c>
       <c r="F9">
-        <v>1.064546967451837</v>
+        <v>1.090245902586715</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.072142626389966</v>
+        <v>1.064950542150429</v>
       </c>
       <c r="J9">
-        <v>1.066924507410945</v>
+        <v>1.081541718517676</v>
       </c>
       <c r="K9">
-        <v>1.069964486997061</v>
+        <v>1.080690292667388</v>
       </c>
       <c r="L9">
-        <v>1.065581493361869</v>
+        <v>1.082733882989944</v>
       </c>
       <c r="M9">
-        <v>1.076672953376661</v>
+        <v>1.093241117278717</v>
       </c>
       <c r="N9">
-        <v>1.06843966258942</v>
+        <v>1.08307763181254</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.032719188048786</v>
+        <v>1.074110080002922</v>
       </c>
       <c r="D10">
-        <v>1.049835396028098</v>
+        <v>1.076166947884789</v>
       </c>
       <c r="E10">
-        <v>1.044786481713412</v>
+        <v>1.078063507114903</v>
       </c>
       <c r="F10">
-        <v>1.055805230935752</v>
+        <v>1.088552560761606</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.067726495026945</v>
+        <v>1.064259012773203</v>
       </c>
       <c r="J10">
-        <v>1.059692209452545</v>
+        <v>1.080190025563587</v>
       </c>
       <c r="K10">
-        <v>1.063359605505894</v>
+        <v>1.079474917004553</v>
       </c>
       <c r="L10">
-        <v>1.058391594129393</v>
+        <v>1.081365255973167</v>
       </c>
       <c r="M10">
-        <v>1.069235058094585</v>
+        <v>1.091820336634268</v>
       </c>
       <c r="N10">
-        <v>1.061197093938363</v>
+        <v>1.081724019299415</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.028202552311219</v>
+        <v>1.073299268251385</v>
       </c>
       <c r="D11">
-        <v>1.046296896015936</v>
+        <v>1.075521121146257</v>
       </c>
       <c r="E11">
-        <v>1.040980044729132</v>
+        <v>1.077351615161485</v>
       </c>
       <c r="F11">
-        <v>1.051896723240449</v>
+        <v>1.087819468618517</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.065735780251541</v>
+        <v>1.063957941409895</v>
       </c>
       <c r="J11">
-        <v>1.056447380652009</v>
+        <v>1.07960383121581</v>
       </c>
       <c r="K11">
-        <v>1.060395524449385</v>
+        <v>1.078947641847343</v>
       </c>
       <c r="L11">
-        <v>1.05516841615339</v>
+        <v>1.080771899455348</v>
       </c>
       <c r="M11">
-        <v>1.065902094897438</v>
+        <v>1.091204532125644</v>
       </c>
       <c r="N11">
-        <v>1.057947657108744</v>
+        <v>1.081136992488426</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.026500287489652</v>
+        <v>1.072998061663421</v>
       </c>
       <c r="D12">
-        <v>1.044964219505459</v>
+        <v>1.075281194639636</v>
       </c>
       <c r="E12">
-        <v>1.039546730561564</v>
+        <v>1.077087186607276</v>
       </c>
       <c r="F12">
-        <v>1.050425127352737</v>
+        <v>1.087547184881869</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.064983821449335</v>
+        <v>1.063845863789657</v>
       </c>
       <c r="J12">
-        <v>1.055223962602774</v>
+        <v>1.079385955729217</v>
       </c>
       <c r="K12">
-        <v>1.059277862233422</v>
+        <v>1.078751635692242</v>
       </c>
       <c r="L12">
-        <v>1.053953569488742</v>
+        <v>1.080551389326021</v>
       </c>
       <c r="M12">
-        <v>1.064646081908946</v>
+        <v>1.090975704119054</v>
       </c>
       <c r="N12">
-        <v>1.056722501665549</v>
+        <v>1.080918807593652</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.026866569813718</v>
+        <v>1.073062673116007</v>
       </c>
       <c r="D13">
-        <v>1.045250932009124</v>
+        <v>1.07533266141102</v>
       </c>
       <c r="E13">
-        <v>1.039855082156598</v>
+        <v>1.077143907456581</v>
       </c>
       <c r="F13">
-        <v>1.050741707604023</v>
+        <v>1.087605589810998</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.065145698032327</v>
+        <v>1.063869915977504</v>
       </c>
       <c r="J13">
-        <v>1.055487230409161</v>
+        <v>1.079432696971235</v>
       </c>
       <c r="K13">
-        <v>1.059518376477043</v>
+        <v>1.078793686603604</v>
       </c>
       <c r="L13">
-        <v>1.054214974152642</v>
+        <v>1.080598694542875</v>
       </c>
       <c r="M13">
-        <v>1.064916334859822</v>
+        <v>1.091024792629248</v>
       </c>
       <c r="N13">
-        <v>1.056986143342419</v>
+        <v>1.080965615213595</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.028062354196977</v>
+        <v>1.073274371146806</v>
       </c>
       <c r="D14">
-        <v>1.04618711738777</v>
+        <v>1.075501289520939</v>
       </c>
       <c r="E14">
-        <v>1.040861970644716</v>
+        <v>1.07732975742512</v>
       </c>
       <c r="F14">
-        <v>1.051775492443847</v>
+        <v>1.087796961172096</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.065673882907694</v>
+        <v>1.063948682067747</v>
       </c>
       <c r="J14">
-        <v>1.056346629620994</v>
+        <v>1.079585824358047</v>
       </c>
       <c r="K14">
-        <v>1.060303484489643</v>
+        <v>1.078931443038056</v>
       </c>
       <c r="L14">
-        <v>1.05506836262372</v>
+        <v>1.080753674292179</v>
       </c>
       <c r="M14">
-        <v>1.065798646606208</v>
+        <v>1.091185618989665</v>
       </c>
       <c r="N14">
-        <v>1.057846762999708</v>
+        <v>1.08111896005886</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.028795806643481</v>
+        <v>1.073404800590773</v>
       </c>
       <c r="D15">
-        <v>1.046761467917138</v>
+        <v>1.075605181840835</v>
       </c>
       <c r="E15">
-        <v>1.041479733202048</v>
+        <v>1.077444265665684</v>
       </c>
       <c r="F15">
-        <v>1.052409777141823</v>
+        <v>1.087914873911333</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.065997633385926</v>
+        <v>1.063997179795068</v>
       </c>
       <c r="J15">
-        <v>1.056873693757196</v>
+        <v>1.079680153029947</v>
       </c>
       <c r="K15">
-        <v>1.060784974124021</v>
+        <v>1.079016299061049</v>
       </c>
       <c r="L15">
-        <v>1.055591794585218</v>
+        <v>1.080849147675255</v>
       </c>
       <c r="M15">
-        <v>1.066339847015499</v>
+        <v>1.091284697354822</v>
       </c>
       <c r="N15">
-        <v>1.058374575627439</v>
+        <v>1.081213422688293</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.033015588621912</v>
+        <v>1.074163886113033</v>
       </c>
       <c r="D16">
-        <v>1.050067731717627</v>
+        <v>1.076209804043532</v>
       </c>
       <c r="E16">
-        <v>1.045036448501173</v>
+        <v>1.078110753076109</v>
       </c>
       <c r="F16">
-        <v>1.056061921666375</v>
+        <v>1.088601216444079</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.067856897909081</v>
+        <v>1.064278959386682</v>
       </c>
       <c r="J16">
-        <v>1.059905078377664</v>
+        <v>1.08022891023452</v>
       </c>
       <c r="K16">
-        <v>1.063554042473613</v>
+        <v>1.079509889164447</v>
       </c>
       <c r="L16">
-        <v>1.058603098397196</v>
+        <v>1.081404619572788</v>
       </c>
       <c r="M16">
-        <v>1.069453795646666</v>
+        <v>1.091861192878409</v>
       </c>
       <c r="N16">
-        <v>1.061410265161772</v>
+        <v>1.081762959191041</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.035620558606493</v>
+        <v>1.074639980249187</v>
       </c>
       <c r="D17">
-        <v>1.052110301286152</v>
+        <v>1.076589001415</v>
       </c>
       <c r="E17">
-        <v>1.047234235786255</v>
+        <v>1.078528823922223</v>
       </c>
       <c r="F17">
-        <v>1.058318941701213</v>
+        <v>1.08903177661968</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.069001657134492</v>
+        <v>1.06445527413874</v>
       </c>
       <c r="J17">
-        <v>1.061775508863884</v>
+        <v>1.08057288866846</v>
       </c>
       <c r="K17">
-        <v>1.065262432642476</v>
+        <v>1.079819234209354</v>
       </c>
       <c r="L17">
-        <v>1.060461837425608</v>
+        <v>1.081752855650004</v>
       </c>
       <c r="M17">
-        <v>1.071376260179448</v>
+        <v>1.092222652660766</v>
       </c>
       <c r="N17">
-        <v>1.063283351873824</v>
+        <v>1.082107426113812</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.037125384004711</v>
+        <v>1.074917656886131</v>
       </c>
       <c r="D18">
-        <v>1.053290763315363</v>
+        <v>1.076810157286717</v>
       </c>
       <c r="E18">
-        <v>1.048504583742508</v>
+        <v>1.078772678266516</v>
       </c>
       <c r="F18">
-        <v>1.059623621180302</v>
+        <v>1.089282928286378</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.069661853967612</v>
+        <v>1.064557957886546</v>
       </c>
       <c r="J18">
-        <v>1.062855659696236</v>
+        <v>1.080773438485616</v>
       </c>
       <c r="K18">
-        <v>1.066248935432905</v>
+        <v>1.079999572609279</v>
       </c>
       <c r="L18">
-        <v>1.061535483911222</v>
+        <v>1.081955905311519</v>
       </c>
       <c r="M18">
-        <v>1.072486846881747</v>
+        <v>1.09243342849633</v>
       </c>
       <c r="N18">
-        <v>1.064365036644253</v>
+        <v>1.082308260734712</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.037636060204286</v>
+        <v>1.075012333941179</v>
       </c>
       <c r="D19">
-        <v>1.053691449363681</v>
+        <v>1.076885561759865</v>
       </c>
       <c r="E19">
-        <v>1.048935810973853</v>
+        <v>1.078855826448499</v>
       </c>
       <c r="F19">
-        <v>1.060066518358123</v>
+        <v>1.089368566787268</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.069885709138827</v>
+        <v>1.064592943670727</v>
       </c>
       <c r="J19">
-        <v>1.063222157504141</v>
+        <v>1.080841806074152</v>
       </c>
       <c r="K19">
-        <v>1.066583645604059</v>
+        <v>1.08006104686535</v>
       </c>
       <c r="L19">
-        <v>1.061899816353898</v>
+        <v>1.082025128066467</v>
       </c>
       <c r="M19">
-        <v>1.072863736774254</v>
+        <v>1.092505287882476</v>
       </c>
       <c r="N19">
-        <v>1.064732054921083</v>
+        <v>1.082376725413065</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.035342592552239</v>
+        <v>1.074588902042668</v>
       </c>
       <c r="D20">
-        <v>1.051892291956256</v>
+        <v>1.076548319567197</v>
       </c>
       <c r="E20">
-        <v>1.046999640925911</v>
+        <v>1.078483968813414</v>
       </c>
       <c r="F20">
-        <v>1.05807801444976</v>
+        <v>1.088985580230035</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.068879618352921</v>
+        <v>1.064436373547586</v>
       </c>
       <c r="J20">
-        <v>1.061575958459157</v>
+        <v>1.080535992043726</v>
       </c>
       <c r="K20">
-        <v>1.065080177152081</v>
+        <v>1.07978605448827</v>
       </c>
       <c r="L20">
-        <v>1.060263508574093</v>
+        <v>1.081715500519928</v>
       </c>
       <c r="M20">
-        <v>1.071171118136903</v>
+        <v>1.092183877406221</v>
       </c>
       <c r="N20">
-        <v>1.063083518084633</v>
+        <v>1.082070477091639</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.027710918209116</v>
+        <v>1.073212032335942</v>
       </c>
       <c r="D21">
-        <v>1.045911949728053</v>
+        <v>1.07545163379385</v>
       </c>
       <c r="E21">
-        <v>1.040566014210034</v>
+        <v>1.077275029255901</v>
       </c>
       <c r="F21">
-        <v>1.051471626084447</v>
+        <v>1.087740606551502</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.065518697359792</v>
+        <v>1.063925494222632</v>
       </c>
       <c r="J21">
-        <v>1.056094068505094</v>
+        <v>1.079540735945639</v>
       </c>
       <c r="K21">
-        <v>1.06007275865921</v>
+        <v>1.07889088142466</v>
       </c>
       <c r="L21">
-        <v>1.054817556611783</v>
+        <v>1.080708039694713</v>
       </c>
       <c r="M21">
-        <v>1.065539334322827</v>
+        <v>1.091138262150062</v>
       </c>
       <c r="N21">
-        <v>1.057593843218054</v>
+        <v>1.081073807615734</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.022769404639743</v>
+        <v>1.0723461361725</v>
       </c>
       <c r="D22">
-        <v>1.042045220847506</v>
+        <v>1.074761885326947</v>
       </c>
       <c r="E22">
-        <v>1.03640779069871</v>
+        <v>1.076514919331263</v>
       </c>
       <c r="F22">
-        <v>1.047202636218555</v>
+        <v>1.086957953450677</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.063332714459758</v>
+        <v>1.063602858673951</v>
       </c>
       <c r="J22">
-        <v>1.052541767660738</v>
+        <v>1.078914186809707</v>
       </c>
       <c r="K22">
-        <v>1.056827365600198</v>
+        <v>1.078327166696601</v>
       </c>
       <c r="L22">
-        <v>1.051290933872904</v>
+        <v>1.080073965743134</v>
       </c>
       <c r="M22">
-        <v>1.061893616712242</v>
+        <v>1.090480316498514</v>
       </c>
       <c r="N22">
-        <v>1.054036497699045</v>
+        <v>1.080446368708164</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.02540315889203</v>
+        <v>1.072805184092519</v>
       </c>
       <c r="D23">
-        <v>1.044105573196484</v>
+        <v>1.07512755507693</v>
       </c>
       <c r="E23">
-        <v>1.038623318553022</v>
+        <v>1.076917868522494</v>
       </c>
       <c r="F23">
-        <v>1.049477095887706</v>
+        <v>1.087372842493212</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.064498709508042</v>
+        <v>1.063774029242886</v>
       </c>
       <c r="J23">
-        <v>1.054435329090922</v>
+        <v>1.079246407857799</v>
       </c>
       <c r="K23">
-        <v>1.058557375491888</v>
+        <v>1.078626086664396</v>
       </c>
       <c r="L23">
-        <v>1.053170578052527</v>
+        <v>1.080410161699945</v>
       </c>
       <c r="M23">
-        <v>1.06383661850935</v>
+        <v>1.090829156142902</v>
       </c>
       <c r="N23">
-        <v>1.055932748203654</v>
+        <v>1.08077906154825</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.035468238473118</v>
+        <v>1.07461198214995</v>
       </c>
       <c r="D24">
-        <v>1.051990834692712</v>
+        <v>1.076566702015505</v>
       </c>
       <c r="E24">
-        <v>1.047105679951425</v>
+        <v>1.078504236903817</v>
       </c>
       <c r="F24">
-        <v>1.058186915481848</v>
+        <v>1.089006454348869</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.068934785616411</v>
+        <v>1.064444914398089</v>
       </c>
       <c r="J24">
-        <v>1.061666160111217</v>
+        <v>1.080552664308642</v>
       </c>
       <c r="K24">
-        <v>1.065162561304666</v>
+        <v>1.079801047276439</v>
       </c>
       <c r="L24">
-        <v>1.060353157287757</v>
+        <v>1.081732379912919</v>
       </c>
       <c r="M24">
-        <v>1.071263846146525</v>
+        <v>1.092201398452135</v>
       </c>
       <c r="N24">
-        <v>1.063173847833386</v>
+        <v>1.082087173033083</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.046579736003876</v>
+        <v>1.076707853467083</v>
       </c>
       <c r="D25">
-        <v>1.060715605056825</v>
+        <v>1.078235831784271</v>
       </c>
       <c r="E25">
-        <v>1.056498113682165</v>
+        <v>1.080345160260596</v>
       </c>
       <c r="F25">
-        <v>1.067834826984438</v>
+        <v>1.090902691663162</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.073789584274793</v>
+        <v>1.065217256986436</v>
       </c>
       <c r="J25">
-        <v>1.069635129905238</v>
+        <v>1.08206509430955</v>
       </c>
       <c r="K25">
-        <v>1.072439219755198</v>
+        <v>1.081160709112574</v>
       </c>
       <c r="L25">
-        <v>1.068278400170517</v>
+        <v>1.083263976908189</v>
       </c>
       <c r="M25">
-        <v>1.079464051835235</v>
+        <v>1.093791555846008</v>
       </c>
       <c r="N25">
-        <v>1.071154134478567</v>
+        <v>1.083601750858071</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.07837893064909</v>
+        <v>1.055037098945923</v>
       </c>
       <c r="D2">
-        <v>1.079566417411833</v>
+        <v>1.067368904783476</v>
       </c>
       <c r="E2">
-        <v>1.081813542453623</v>
+        <v>1.063666549771831</v>
       </c>
       <c r="F2">
-        <v>1.09241558652532</v>
+        <v>1.075201042087533</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065828316021834</v>
+        <v>1.077448914689632</v>
       </c>
       <c r="J2">
-        <v>1.083268700750428</v>
+        <v>1.075687647031144</v>
       </c>
       <c r="K2">
-        <v>1.082242132426751</v>
+        <v>1.07796317909881</v>
       </c>
       <c r="L2">
-        <v>1.084483386601136</v>
+        <v>1.07430483373647</v>
       </c>
       <c r="M2">
-        <v>1.095058083056891</v>
+        <v>1.085703451318497</v>
       </c>
       <c r="N2">
-        <v>1.08480706655815</v>
+        <v>1.077215246873025</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.07959198113016</v>
+        <v>1.060966175444848</v>
       </c>
       <c r="D3">
-        <v>1.080532148426952</v>
+        <v>1.072039084784551</v>
       </c>
       <c r="E3">
-        <v>1.082879779012723</v>
+        <v>1.068701974324996</v>
       </c>
       <c r="F3">
-        <v>1.093514371441239</v>
+        <v>1.080376971623756</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066269136261808</v>
+        <v>1.079992726591546</v>
       </c>
       <c r="J3">
-        <v>1.08414108101649</v>
+        <v>1.079922376307549</v>
       </c>
       <c r="K3">
-        <v>1.083025598248837</v>
+        <v>1.081826283147587</v>
       </c>
       <c r="L3">
-        <v>1.085367538662868</v>
+        <v>1.078525255328536</v>
       </c>
       <c r="M3">
-        <v>1.095976683625121</v>
+        <v>1.090075208259802</v>
       </c>
       <c r="N3">
-        <v>1.085680685704253</v>
+        <v>1.081455989950733</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.08037678007734</v>
+        <v>1.064711612079656</v>
       </c>
       <c r="D4">
-        <v>1.08115686553006</v>
+        <v>1.074991551242574</v>
       </c>
       <c r="E4">
-        <v>1.083569740833363</v>
+        <v>1.071887096294267</v>
       </c>
       <c r="F4">
-        <v>1.094225499648296</v>
+        <v>1.083651687184654</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066553056129498</v>
+        <v>1.08158941537335</v>
       </c>
       <c r="J4">
-        <v>1.084704862235279</v>
+        <v>1.082593304173454</v>
       </c>
       <c r="K4">
-        <v>1.083531752630428</v>
+        <v>1.08426191052749</v>
       </c>
       <c r="L4">
-        <v>1.085939073949416</v>
+        <v>1.081188932071951</v>
       </c>
       <c r="M4">
-        <v>1.096570618829723</v>
+        <v>1.092835398265654</v>
       </c>
       <c r="N4">
-        <v>1.08624526755704</v>
+        <v>1.084130710840568</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.080706680972378</v>
+        <v>1.066265340846625</v>
       </c>
       <c r="D5">
-        <v>1.081419455194067</v>
+        <v>1.076216818793448</v>
       </c>
       <c r="E5">
-        <v>1.083859810034468</v>
+        <v>1.073209343923811</v>
       </c>
       <c r="F5">
-        <v>1.094524492402239</v>
+        <v>1.085011298873571</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06667210045177</v>
+        <v>1.08224927419195</v>
       </c>
       <c r="J5">
-        <v>1.084941707423531</v>
+        <v>1.083700248851517</v>
       </c>
       <c r="K5">
-        <v>1.08374434900166</v>
+        <v>1.085271108515864</v>
       </c>
       <c r="L5">
-        <v>1.086179211637558</v>
+        <v>1.082293290321081</v>
       </c>
       <c r="M5">
-        <v>1.096820199596786</v>
+        <v>1.093980008841523</v>
       </c>
       <c r="N5">
-        <v>1.086482449092626</v>
+        <v>1.085239227507041</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.080762071153088</v>
+        <v>1.066525022455071</v>
       </c>
       <c r="D6">
-        <v>1.081463542743335</v>
+        <v>1.076421630272589</v>
       </c>
       <c r="E6">
-        <v>1.083908514494366</v>
+        <v>1.073430391700968</v>
       </c>
       <c r="F6">
-        <v>1.094574696642889</v>
+        <v>1.085238603020281</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066692070025327</v>
+        <v>1.082359411257799</v>
       </c>
       <c r="J6">
-        <v>1.084981464920572</v>
+        <v>1.083885194982357</v>
       </c>
       <c r="K6">
-        <v>1.083780033691539</v>
+        <v>1.085439709609648</v>
       </c>
       <c r="L6">
-        <v>1.086219523874116</v>
+        <v>1.082477828755155</v>
       </c>
       <c r="M6">
-        <v>1.096862098900188</v>
+        <v>1.094171287391089</v>
       </c>
       <c r="N6">
-        <v>1.086522263049872</v>
+        <v>1.085424436282601</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.080381188339614</v>
+        <v>1.064732453802867</v>
       </c>
       <c r="D7">
-        <v>1.081160374427953</v>
+        <v>1.075007985130607</v>
       </c>
       <c r="E7">
-        <v>1.083573616714915</v>
+        <v>1.071904829221497</v>
       </c>
       <c r="F7">
-        <v>1.094229494667806</v>
+        <v>1.083669920535418</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066554648044991</v>
+        <v>1.081598276653591</v>
       </c>
       <c r="J7">
-        <v>1.084708027633039</v>
+        <v>1.082608156908228</v>
       </c>
       <c r="K7">
-        <v>1.083534594102912</v>
+        <v>1.084275452635129</v>
       </c>
       <c r="L7">
-        <v>1.085942283213386</v>
+        <v>1.081203748455068</v>
       </c>
       <c r="M7">
-        <v>1.096573954169867</v>
+        <v>1.092850753746563</v>
       </c>
       <c r="N7">
-        <v>1.086248437450028</v>
+        <v>1.084145584667929</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.078788913719164</v>
+        <v>1.057060306459394</v>
       </c>
       <c r="D8">
-        <v>1.079892827414135</v>
+        <v>1.068962015861736</v>
       </c>
       <c r="E8">
-        <v>1.082173875204106</v>
+        <v>1.065383892445839</v>
       </c>
       <c r="F8">
-        <v>1.092786897296179</v>
+        <v>1.076966152548088</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065977566960274</v>
+        <v>1.078319082702851</v>
       </c>
       <c r="J8">
-        <v>1.083563672680722</v>
+        <v>1.07713353719011</v>
       </c>
       <c r="K8">
-        <v>1.082507074508706</v>
+        <v>1.079282367858246</v>
       </c>
       <c r="L8">
-        <v>1.084782308457934</v>
+        <v>1.07574546140493</v>
       </c>
       <c r="M8">
-        <v>1.095368624262695</v>
+        <v>1.087195525462135</v>
       </c>
       <c r="N8">
-        <v>1.085102457382418</v>
+        <v>1.078663190361864</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.075982089545532</v>
+        <v>1.042797515173705</v>
       </c>
       <c r="D9">
-        <v>1.077657876914791</v>
+        <v>1.057743600367151</v>
       </c>
       <c r="E9">
-        <v>1.079707589075979</v>
+        <v>1.053297753636445</v>
       </c>
       <c r="F9">
-        <v>1.090245902586715</v>
+        <v>1.064546967451835</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.064950542150429</v>
+        <v>1.072142626389965</v>
       </c>
       <c r="J9">
-        <v>1.081541718517676</v>
+        <v>1.066924507410944</v>
       </c>
       <c r="K9">
-        <v>1.080690292667388</v>
+        <v>1.069964486997059</v>
       </c>
       <c r="L9">
-        <v>1.082733882989944</v>
+        <v>1.065581493361867</v>
       </c>
       <c r="M9">
-        <v>1.093241117278717</v>
+        <v>1.076672953376659</v>
       </c>
       <c r="N9">
-        <v>1.08307763181254</v>
+        <v>1.068439662589419</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.074110080002922</v>
+        <v>1.032719188048785</v>
       </c>
       <c r="D10">
-        <v>1.076166947884789</v>
+        <v>1.049835396028096</v>
       </c>
       <c r="E10">
-        <v>1.078063507114903</v>
+        <v>1.044786481713411</v>
       </c>
       <c r="F10">
-        <v>1.088552560761606</v>
+        <v>1.055805230935751</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.064259012773203</v>
+        <v>1.067726495026944</v>
       </c>
       <c r="J10">
-        <v>1.080190025563587</v>
+        <v>1.059692209452544</v>
       </c>
       <c r="K10">
-        <v>1.079474917004553</v>
+        <v>1.063359605505892</v>
       </c>
       <c r="L10">
-        <v>1.081365255973167</v>
+        <v>1.058391594129392</v>
       </c>
       <c r="M10">
-        <v>1.091820336634268</v>
+        <v>1.069235058094584</v>
       </c>
       <c r="N10">
-        <v>1.081724019299415</v>
+        <v>1.061197093938361</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.073299268251385</v>
+        <v>1.028202552311218</v>
       </c>
       <c r="D11">
-        <v>1.075521121146257</v>
+        <v>1.046296896015935</v>
       </c>
       <c r="E11">
-        <v>1.077351615161485</v>
+        <v>1.040980044729131</v>
       </c>
       <c r="F11">
-        <v>1.087819468618517</v>
+        <v>1.051896723240447</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.063957941409895</v>
+        <v>1.06573578025154</v>
       </c>
       <c r="J11">
-        <v>1.07960383121581</v>
+        <v>1.056447380652008</v>
       </c>
       <c r="K11">
-        <v>1.078947641847343</v>
+        <v>1.060395524449384</v>
       </c>
       <c r="L11">
-        <v>1.080771899455348</v>
+        <v>1.055168416153389</v>
       </c>
       <c r="M11">
-        <v>1.091204532125644</v>
+        <v>1.065902094897436</v>
       </c>
       <c r="N11">
-        <v>1.081136992488426</v>
+        <v>1.057947657108742</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.072998061663421</v>
+        <v>1.026500287489654</v>
       </c>
       <c r="D12">
-        <v>1.075281194639636</v>
+        <v>1.044964219505461</v>
       </c>
       <c r="E12">
-        <v>1.077087186607276</v>
+        <v>1.039546730561566</v>
       </c>
       <c r="F12">
-        <v>1.087547184881869</v>
+        <v>1.05042512735274</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.063845863789657</v>
+        <v>1.064983821449336</v>
       </c>
       <c r="J12">
-        <v>1.079385955729217</v>
+        <v>1.055223962602776</v>
       </c>
       <c r="K12">
-        <v>1.078751635692242</v>
+        <v>1.059277862233425</v>
       </c>
       <c r="L12">
-        <v>1.080551389326021</v>
+        <v>1.053953569488744</v>
       </c>
       <c r="M12">
-        <v>1.090975704119054</v>
+        <v>1.064646081908948</v>
       </c>
       <c r="N12">
-        <v>1.080918807593652</v>
+        <v>1.056722501665552</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.073062673116007</v>
+        <v>1.026866569813717</v>
       </c>
       <c r="D13">
-        <v>1.07533266141102</v>
+        <v>1.045250932009124</v>
       </c>
       <c r="E13">
-        <v>1.077143907456581</v>
+        <v>1.039855082156597</v>
       </c>
       <c r="F13">
-        <v>1.087605589810998</v>
+        <v>1.050741707604022</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.063869915977504</v>
+        <v>1.065145698032326</v>
       </c>
       <c r="J13">
-        <v>1.079432696971235</v>
+        <v>1.05548723040916</v>
       </c>
       <c r="K13">
-        <v>1.078793686603604</v>
+        <v>1.059518376477043</v>
       </c>
       <c r="L13">
-        <v>1.080598694542875</v>
+        <v>1.054214974152642</v>
       </c>
       <c r="M13">
-        <v>1.091024792629248</v>
+        <v>1.064916334859821</v>
       </c>
       <c r="N13">
-        <v>1.080965615213595</v>
+        <v>1.056986143342419</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.073274371146806</v>
+        <v>1.028062354196976</v>
       </c>
       <c r="D14">
-        <v>1.075501289520939</v>
+        <v>1.046187117387768</v>
       </c>
       <c r="E14">
-        <v>1.07732975742512</v>
+        <v>1.040861970644715</v>
       </c>
       <c r="F14">
-        <v>1.087796961172096</v>
+        <v>1.051775492443845</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.063948682067747</v>
+        <v>1.065673882907693</v>
       </c>
       <c r="J14">
-        <v>1.079585824358047</v>
+        <v>1.056346629620993</v>
       </c>
       <c r="K14">
-        <v>1.078931443038056</v>
+        <v>1.060303484489642</v>
       </c>
       <c r="L14">
-        <v>1.080753674292179</v>
+        <v>1.055068362623719</v>
       </c>
       <c r="M14">
-        <v>1.091185618989665</v>
+        <v>1.065798646606206</v>
       </c>
       <c r="N14">
-        <v>1.08111896005886</v>
+        <v>1.057846762999707</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.073404800590773</v>
+        <v>1.028795806643481</v>
       </c>
       <c r="D15">
-        <v>1.075605181840835</v>
+        <v>1.046761467917137</v>
       </c>
       <c r="E15">
-        <v>1.077444265665684</v>
+        <v>1.041479733202048</v>
       </c>
       <c r="F15">
-        <v>1.087914873911333</v>
+        <v>1.052409777141823</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.063997179795068</v>
+        <v>1.065997633385926</v>
       </c>
       <c r="J15">
-        <v>1.079680153029947</v>
+        <v>1.056873693757196</v>
       </c>
       <c r="K15">
-        <v>1.079016299061049</v>
+        <v>1.060784974124021</v>
       </c>
       <c r="L15">
-        <v>1.080849147675255</v>
+        <v>1.055591794585218</v>
       </c>
       <c r="M15">
-        <v>1.091284697354822</v>
+        <v>1.066339847015498</v>
       </c>
       <c r="N15">
-        <v>1.081213422688293</v>
+        <v>1.058374575627439</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.074163886113033</v>
+        <v>1.033015588621912</v>
       </c>
       <c r="D16">
-        <v>1.076209804043532</v>
+        <v>1.050067731717627</v>
       </c>
       <c r="E16">
-        <v>1.078110753076109</v>
+        <v>1.045036448501173</v>
       </c>
       <c r="F16">
-        <v>1.088601216444079</v>
+        <v>1.056061921666375</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.064278959386682</v>
+        <v>1.067856897909082</v>
       </c>
       <c r="J16">
-        <v>1.08022891023452</v>
+        <v>1.059905078377664</v>
       </c>
       <c r="K16">
-        <v>1.079509889164447</v>
+        <v>1.063554042473614</v>
       </c>
       <c r="L16">
-        <v>1.081404619572788</v>
+        <v>1.058603098397196</v>
       </c>
       <c r="M16">
-        <v>1.091861192878409</v>
+        <v>1.069453795646666</v>
       </c>
       <c r="N16">
-        <v>1.081762959191041</v>
+        <v>1.061410265161772</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.074639980249187</v>
+        <v>1.035620558606492</v>
       </c>
       <c r="D17">
-        <v>1.076589001415</v>
+        <v>1.052110301286151</v>
       </c>
       <c r="E17">
-        <v>1.078528823922223</v>
+        <v>1.047234235786254</v>
       </c>
       <c r="F17">
-        <v>1.08903177661968</v>
+        <v>1.058318941701212</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.06445527413874</v>
+        <v>1.06900165713449</v>
       </c>
       <c r="J17">
-        <v>1.08057288866846</v>
+        <v>1.061775508863882</v>
       </c>
       <c r="K17">
-        <v>1.079819234209354</v>
+        <v>1.065262432642475</v>
       </c>
       <c r="L17">
-        <v>1.081752855650004</v>
+        <v>1.060461837425607</v>
       </c>
       <c r="M17">
-        <v>1.092222652660766</v>
+        <v>1.071376260179447</v>
       </c>
       <c r="N17">
-        <v>1.082107426113812</v>
+        <v>1.063283351873822</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.074917656886131</v>
+        <v>1.037125384004711</v>
       </c>
       <c r="D18">
-        <v>1.076810157286717</v>
+        <v>1.053290763315363</v>
       </c>
       <c r="E18">
-        <v>1.078772678266516</v>
+        <v>1.048504583742507</v>
       </c>
       <c r="F18">
-        <v>1.089282928286378</v>
+        <v>1.059623621180301</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.064557957886546</v>
+        <v>1.069661853967612</v>
       </c>
       <c r="J18">
-        <v>1.080773438485616</v>
+        <v>1.062855659696236</v>
       </c>
       <c r="K18">
-        <v>1.079999572609279</v>
+        <v>1.066248935432904</v>
       </c>
       <c r="L18">
-        <v>1.081955905311519</v>
+        <v>1.061535483911222</v>
       </c>
       <c r="M18">
-        <v>1.09243342849633</v>
+        <v>1.072486846881746</v>
       </c>
       <c r="N18">
-        <v>1.082308260734712</v>
+        <v>1.064365036644253</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.075012333941179</v>
+        <v>1.037636060204285</v>
       </c>
       <c r="D19">
-        <v>1.076885561759865</v>
+        <v>1.05369144936368</v>
       </c>
       <c r="E19">
-        <v>1.078855826448499</v>
+        <v>1.048935810973852</v>
       </c>
       <c r="F19">
-        <v>1.089368566787268</v>
+        <v>1.060066518358122</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.064592943670727</v>
+        <v>1.069885709138826</v>
       </c>
       <c r="J19">
-        <v>1.080841806074152</v>
+        <v>1.06322215750414</v>
       </c>
       <c r="K19">
-        <v>1.08006104686535</v>
+        <v>1.066583645604058</v>
       </c>
       <c r="L19">
-        <v>1.082025128066467</v>
+        <v>1.061899816353897</v>
       </c>
       <c r="M19">
-        <v>1.092505287882476</v>
+        <v>1.072863736774253</v>
       </c>
       <c r="N19">
-        <v>1.082376725413065</v>
+        <v>1.064732054921082</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.074588902042668</v>
+        <v>1.035342592552237</v>
       </c>
       <c r="D20">
-        <v>1.076548319567197</v>
+        <v>1.051892291956253</v>
       </c>
       <c r="E20">
-        <v>1.078483968813414</v>
+        <v>1.046999640925908</v>
       </c>
       <c r="F20">
-        <v>1.088985580230035</v>
+        <v>1.058078014449758</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.064436373547586</v>
+        <v>1.06887961835292</v>
       </c>
       <c r="J20">
-        <v>1.080535992043726</v>
+        <v>1.061575958459155</v>
       </c>
       <c r="K20">
-        <v>1.07978605448827</v>
+        <v>1.065080177152079</v>
       </c>
       <c r="L20">
-        <v>1.081715500519928</v>
+        <v>1.060263508574091</v>
       </c>
       <c r="M20">
-        <v>1.092183877406221</v>
+        <v>1.071171118136901</v>
       </c>
       <c r="N20">
-        <v>1.082070477091639</v>
+        <v>1.063083518084631</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.073212032335942</v>
+        <v>1.027710918209114</v>
       </c>
       <c r="D21">
-        <v>1.07545163379385</v>
+        <v>1.045911949728051</v>
       </c>
       <c r="E21">
-        <v>1.077275029255901</v>
+        <v>1.040566014210032</v>
       </c>
       <c r="F21">
-        <v>1.087740606551502</v>
+        <v>1.051471626084445</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.063925494222632</v>
+        <v>1.065518697359791</v>
       </c>
       <c r="J21">
-        <v>1.079540735945639</v>
+        <v>1.056094068505092</v>
       </c>
       <c r="K21">
-        <v>1.07889088142466</v>
+        <v>1.060072758659208</v>
       </c>
       <c r="L21">
-        <v>1.080708039694713</v>
+        <v>1.054817556611781</v>
       </c>
       <c r="M21">
-        <v>1.091138262150062</v>
+        <v>1.065539334322825</v>
       </c>
       <c r="N21">
-        <v>1.081073807615734</v>
+        <v>1.057593843218052</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0723461361725</v>
+        <v>1.022769404639744</v>
       </c>
       <c r="D22">
-        <v>1.074761885326947</v>
+        <v>1.042045220847506</v>
       </c>
       <c r="E22">
-        <v>1.076514919331263</v>
+        <v>1.036407790698711</v>
       </c>
       <c r="F22">
-        <v>1.086957953450677</v>
+        <v>1.047202636218555</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.063602858673951</v>
+        <v>1.063332714459759</v>
       </c>
       <c r="J22">
-        <v>1.078914186809707</v>
+        <v>1.052541767660738</v>
       </c>
       <c r="K22">
-        <v>1.078327166696601</v>
+        <v>1.056827365600198</v>
       </c>
       <c r="L22">
-        <v>1.080073965743134</v>
+        <v>1.051290933872904</v>
       </c>
       <c r="M22">
-        <v>1.090480316498514</v>
+        <v>1.061893616712242</v>
       </c>
       <c r="N22">
-        <v>1.080446368708164</v>
+        <v>1.054036497699045</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.072805184092519</v>
+        <v>1.025403158892032</v>
       </c>
       <c r="D23">
-        <v>1.07512755507693</v>
+        <v>1.044105573196485</v>
       </c>
       <c r="E23">
-        <v>1.076917868522494</v>
+        <v>1.038623318553023</v>
       </c>
       <c r="F23">
-        <v>1.087372842493212</v>
+        <v>1.049477095887707</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.063774029242886</v>
+        <v>1.064498709508042</v>
       </c>
       <c r="J23">
-        <v>1.079246407857799</v>
+        <v>1.054435329090923</v>
       </c>
       <c r="K23">
-        <v>1.078626086664396</v>
+        <v>1.05855737549189</v>
       </c>
       <c r="L23">
-        <v>1.080410161699945</v>
+        <v>1.053170578052528</v>
       </c>
       <c r="M23">
-        <v>1.090829156142902</v>
+        <v>1.063836618509351</v>
       </c>
       <c r="N23">
-        <v>1.08077906154825</v>
+        <v>1.055932748203655</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.07461198214995</v>
+        <v>1.035468238473118</v>
       </c>
       <c r="D24">
-        <v>1.076566702015505</v>
+        <v>1.051990834692713</v>
       </c>
       <c r="E24">
-        <v>1.078504236903817</v>
+        <v>1.047105679951426</v>
       </c>
       <c r="F24">
-        <v>1.089006454348869</v>
+        <v>1.05818691548185</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.064444914398089</v>
+        <v>1.068934785616412</v>
       </c>
       <c r="J24">
-        <v>1.080552664308642</v>
+        <v>1.061666160111218</v>
       </c>
       <c r="K24">
-        <v>1.079801047276439</v>
+        <v>1.065162561304667</v>
       </c>
       <c r="L24">
-        <v>1.081732379912919</v>
+        <v>1.060353157287758</v>
       </c>
       <c r="M24">
-        <v>1.092201398452135</v>
+        <v>1.071263846146526</v>
       </c>
       <c r="N24">
-        <v>1.082087173033083</v>
+        <v>1.063173847833387</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.076707853467083</v>
+        <v>1.046579736003875</v>
       </c>
       <c r="D25">
-        <v>1.078235831784271</v>
+        <v>1.060715605056825</v>
       </c>
       <c r="E25">
-        <v>1.080345160260596</v>
+        <v>1.056498113682164</v>
       </c>
       <c r="F25">
-        <v>1.090902691663162</v>
+        <v>1.067834826984438</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.065217256986436</v>
+        <v>1.073789584274792</v>
       </c>
       <c r="J25">
-        <v>1.08206509430955</v>
+        <v>1.069635129905237</v>
       </c>
       <c r="K25">
-        <v>1.081160709112574</v>
+        <v>1.072439219755198</v>
       </c>
       <c r="L25">
-        <v>1.083263976908189</v>
+        <v>1.068278400170517</v>
       </c>
       <c r="M25">
-        <v>1.093791555846008</v>
+        <v>1.079464051835234</v>
       </c>
       <c r="N25">
-        <v>1.083601750858071</v>
+        <v>1.071154134478567</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.055037098945923</v>
+        <v>1.001478901920683</v>
       </c>
       <c r="D2">
-        <v>1.067368904783476</v>
+        <v>1.022424964497531</v>
       </c>
       <c r="E2">
-        <v>1.063666549771831</v>
+        <v>1.018495959135741</v>
       </c>
       <c r="F2">
-        <v>1.075201042087533</v>
+        <v>1.031454936112716</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.077448914689632</v>
+        <v>1.049197845920842</v>
       </c>
       <c r="J2">
-        <v>1.075687647031144</v>
+        <v>1.023615469083818</v>
       </c>
       <c r="K2">
-        <v>1.07796317909881</v>
+        <v>1.033580479983423</v>
       </c>
       <c r="L2">
-        <v>1.07430483373647</v>
+        <v>1.029703492158335</v>
       </c>
       <c r="M2">
-        <v>1.085703451318497</v>
+        <v>1.042492779649941</v>
       </c>
       <c r="N2">
-        <v>1.077215246873025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011840344358401</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042202573350217</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.034814536847686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.060966175444848</v>
+        <v>1.004966015591203</v>
       </c>
       <c r="D3">
-        <v>1.072039084784551</v>
+        <v>1.02470268988259</v>
       </c>
       <c r="E3">
-        <v>1.068701974324996</v>
+        <v>1.021206866648773</v>
       </c>
       <c r="F3">
-        <v>1.080376971623756</v>
+        <v>1.034137074286864</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.079992726591546</v>
+        <v>1.049918367860547</v>
       </c>
       <c r="J3">
-        <v>1.079922376307549</v>
+        <v>1.025322211441616</v>
       </c>
       <c r="K3">
-        <v>1.081826283147587</v>
+        <v>1.035028958259045</v>
       </c>
       <c r="L3">
-        <v>1.078525255328536</v>
+        <v>1.031575405859034</v>
       </c>
       <c r="M3">
-        <v>1.090075208259802</v>
+        <v>1.044351030218818</v>
       </c>
       <c r="N3">
-        <v>1.081455989950733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012411916916764</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043673249131883</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.035836068255968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.064711612079656</v>
+        <v>1.007184083290929</v>
       </c>
       <c r="D4">
-        <v>1.074991551242574</v>
+        <v>1.026152908059534</v>
       </c>
       <c r="E4">
-        <v>1.071887096294267</v>
+        <v>1.022937060121504</v>
       </c>
       <c r="F4">
-        <v>1.083651687184654</v>
+        <v>1.035849612087028</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.08158941537335</v>
+        <v>1.050363637216268</v>
       </c>
       <c r="J4">
-        <v>1.082593304173454</v>
+        <v>1.026405787800262</v>
       </c>
       <c r="K4">
-        <v>1.08426191052749</v>
+        <v>1.035945613456275</v>
       </c>
       <c r="L4">
-        <v>1.081188932071951</v>
+        <v>1.032766317632943</v>
       </c>
       <c r="M4">
-        <v>1.092835398265654</v>
+        <v>1.045533792018166</v>
       </c>
       <c r="N4">
-        <v>1.084130710840568</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012774826620841</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044609321096763</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036485128095441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.066265340846625</v>
+        <v>1.008109800542307</v>
       </c>
       <c r="D5">
-        <v>1.076216818793448</v>
+        <v>1.026760285998016</v>
       </c>
       <c r="E5">
-        <v>1.073209343923811</v>
+        <v>1.023660608968895</v>
       </c>
       <c r="F5">
-        <v>1.085011298873571</v>
+        <v>1.036565360104653</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.08224927419195</v>
+        <v>1.05054744835689</v>
       </c>
       <c r="J5">
-        <v>1.083700248851517</v>
+        <v>1.026858563304369</v>
       </c>
       <c r="K5">
-        <v>1.085271108515864</v>
+        <v>1.036329338622597</v>
       </c>
       <c r="L5">
-        <v>1.082293290321081</v>
+        <v>1.033263959839705</v>
       </c>
       <c r="M5">
-        <v>1.093980008841523</v>
+        <v>1.046027574733053</v>
       </c>
       <c r="N5">
-        <v>1.085239227507041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012926742683977</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.04500011469274</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.036763658260623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.066525022455071</v>
+        <v>1.008267348893097</v>
       </c>
       <c r="D6">
-        <v>1.076421630272589</v>
+        <v>1.026865889404594</v>
       </c>
       <c r="E6">
-        <v>1.073430391700968</v>
+        <v>1.02378391883512</v>
       </c>
       <c r="F6">
-        <v>1.085238603020281</v>
+        <v>1.036686643774865</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.082359411257799</v>
+        <v>1.050579946372387</v>
       </c>
       <c r="J6">
-        <v>1.083885194982357</v>
+        <v>1.026936872648806</v>
       </c>
       <c r="K6">
-        <v>1.085439709609648</v>
+        <v>1.036397386460137</v>
       </c>
       <c r="L6">
-        <v>1.082477828755155</v>
+        <v>1.033349362837664</v>
       </c>
       <c r="M6">
-        <v>1.094171287391089</v>
+        <v>1.046111618240479</v>
       </c>
       <c r="N6">
-        <v>1.085424436282601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01295334264642</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045066629079011</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.036820556632333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.064732453802867</v>
+        <v>1.007203523569429</v>
       </c>
       <c r="D7">
-        <v>1.075007985130607</v>
+        <v>1.026171562535666</v>
       </c>
       <c r="E7">
-        <v>1.071904829221497</v>
+        <v>1.022952490576157</v>
       </c>
       <c r="F7">
-        <v>1.083669920535418</v>
+        <v>1.03586297524155</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.081598276653591</v>
+        <v>1.050371241007942</v>
       </c>
       <c r="J7">
-        <v>1.082608156908228</v>
+        <v>1.026418716393087</v>
       </c>
       <c r="K7">
-        <v>1.084275452635129</v>
+        <v>1.035961157741838</v>
       </c>
       <c r="L7">
-        <v>1.081203748455068</v>
+        <v>1.032778660824058</v>
       </c>
       <c r="M7">
-        <v>1.092850753746563</v>
+        <v>1.045544144508384</v>
       </c>
       <c r="N7">
-        <v>1.084145584667929</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012780048469707</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044617514352247</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036516319530456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.057060306459394</v>
+        <v>1.002674073670549</v>
       </c>
       <c r="D8">
-        <v>1.068962015861736</v>
+        <v>1.023212449587394</v>
       </c>
       <c r="E8">
-        <v>1.065383892445839</v>
+        <v>1.019424193649792</v>
       </c>
       <c r="F8">
-        <v>1.076966152548088</v>
+        <v>1.032370786718287</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.078319082702851</v>
+        <v>1.049451916240791</v>
       </c>
       <c r="J8">
-        <v>1.07713353719011</v>
+        <v>1.024204990084481</v>
       </c>
       <c r="K8">
-        <v>1.079282367858246</v>
+        <v>1.034086911939715</v>
       </c>
       <c r="L8">
-        <v>1.07574546140493</v>
+        <v>1.030347326185457</v>
       </c>
       <c r="M8">
-        <v>1.087195525462135</v>
+        <v>1.043129425768282</v>
       </c>
       <c r="N8">
-        <v>1.078663190361864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012038915078429</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042706434705601</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035195647032791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042797515173705</v>
+        <v>0.9943762696294765</v>
       </c>
       <c r="D9">
-        <v>1.057743600367151</v>
+        <v>1.017795413720724</v>
       </c>
       <c r="E9">
-        <v>1.053297753636445</v>
+        <v>1.013007870852857</v>
       </c>
       <c r="F9">
-        <v>1.064546967451835</v>
+        <v>1.026029046882915</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.072142626389965</v>
+        <v>1.047661031816534</v>
       </c>
       <c r="J9">
-        <v>1.066924507410944</v>
+        <v>1.020129191325046</v>
       </c>
       <c r="K9">
-        <v>1.069964486997059</v>
+        <v>1.03060622295671</v>
       </c>
       <c r="L9">
-        <v>1.065581493361867</v>
+        <v>1.025893371769799</v>
       </c>
       <c r="M9">
-        <v>1.076672953376659</v>
+        <v>1.038713479109385</v>
       </c>
       <c r="N9">
-        <v>1.068439662589419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010673171638155</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039211511220302</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032731354696992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032719188048785</v>
+        <v>0.9886709134935031</v>
       </c>
       <c r="D10">
-        <v>1.049835396028096</v>
+        <v>1.014086765788754</v>
       </c>
       <c r="E10">
-        <v>1.044786481713411</v>
+        <v>1.008674423189928</v>
       </c>
       <c r="F10">
-        <v>1.055805230935751</v>
+        <v>1.021813769704626</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.067726495026944</v>
+        <v>1.04638127649719</v>
       </c>
       <c r="J10">
-        <v>1.059692209452544</v>
+        <v>1.017341342489706</v>
       </c>
       <c r="K10">
-        <v>1.063359605505892</v>
+        <v>1.028206253536849</v>
       </c>
       <c r="L10">
-        <v>1.058391594129392</v>
+        <v>1.022888804816674</v>
       </c>
       <c r="M10">
-        <v>1.069235058094584</v>
+        <v>1.035800031316274</v>
       </c>
       <c r="N10">
-        <v>1.061197093938361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009743314381634</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036957238283284</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031051315491504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028202552311218</v>
+        <v>0.9865251425960596</v>
       </c>
       <c r="D11">
-        <v>1.046296896015935</v>
+        <v>1.012719179545212</v>
       </c>
       <c r="E11">
-        <v>1.040980044729131</v>
+        <v>1.007400305833936</v>
       </c>
       <c r="F11">
-        <v>1.051896723240447</v>
+        <v>1.021090385325681</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.06573578025154</v>
+        <v>1.046010958941824</v>
       </c>
       <c r="J11">
-        <v>1.056447380652008</v>
+        <v>1.016469437894996</v>
       </c>
       <c r="K11">
-        <v>1.060395524449384</v>
+        <v>1.027405151925526</v>
       </c>
       <c r="L11">
-        <v>1.055168416153389</v>
+        <v>1.022183999729689</v>
       </c>
       <c r="M11">
-        <v>1.065902094897436</v>
+        <v>1.035625234386329</v>
       </c>
       <c r="N11">
-        <v>1.057947657108742</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009485049667931</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037255730342833</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.030517935015756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026500287489654</v>
+        <v>0.9858479118117315</v>
       </c>
       <c r="D12">
-        <v>1.044964219505461</v>
+        <v>1.012288660865648</v>
       </c>
       <c r="E12">
-        <v>1.039546730561566</v>
+        <v>1.007139596750659</v>
       </c>
       <c r="F12">
-        <v>1.05042512735274</v>
+        <v>1.021219899080148</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.064983821449336</v>
+        <v>1.045938542698894</v>
       </c>
       <c r="J12">
-        <v>1.055223962602776</v>
+        <v>1.016263529090129</v>
       </c>
       <c r="K12">
-        <v>1.059277862233425</v>
+        <v>1.027184156634258</v>
       </c>
       <c r="L12">
-        <v>1.053953569488744</v>
+        <v>1.022131279824766</v>
       </c>
       <c r="M12">
-        <v>1.064646081908948</v>
+        <v>1.035951546567969</v>
       </c>
       <c r="N12">
-        <v>1.056722501665552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009441595829377</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037840546647215</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030361682420874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026866569813717</v>
+        <v>0.9862648195921156</v>
       </c>
       <c r="D13">
-        <v>1.045250932009124</v>
+        <v>1.012563176283068</v>
       </c>
       <c r="E13">
-        <v>1.039855082156597</v>
+        <v>1.007651077410572</v>
       </c>
       <c r="F13">
-        <v>1.050741707604022</v>
+        <v>1.02203420763544</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.065145698032326</v>
+        <v>1.046102822164373</v>
       </c>
       <c r="J13">
-        <v>1.05548723040916</v>
+        <v>1.016567276926018</v>
       </c>
       <c r="K13">
-        <v>1.059518376477043</v>
+        <v>1.027410340309253</v>
       </c>
       <c r="L13">
-        <v>1.054214974152642</v>
+        <v>1.022589601664521</v>
       </c>
       <c r="M13">
-        <v>1.064916334859821</v>
+        <v>1.03670844221317</v>
       </c>
       <c r="N13">
-        <v>1.056986143342419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009565414842157</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038715851011043</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.030519095599134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028062354196976</v>
+        <v>0.9870512952812128</v>
       </c>
       <c r="D14">
-        <v>1.046187117387768</v>
+        <v>1.013075063347626</v>
       </c>
       <c r="E14">
-        <v>1.040861970644715</v>
+        <v>1.008355430008874</v>
       </c>
       <c r="F14">
-        <v>1.051775492443845</v>
+        <v>1.022910229847494</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.065673882907693</v>
+        <v>1.046324308076453</v>
       </c>
       <c r="J14">
-        <v>1.056346629620993</v>
+        <v>1.017009296231626</v>
       </c>
       <c r="K14">
-        <v>1.060303484489642</v>
+        <v>1.027771196093364</v>
       </c>
       <c r="L14">
-        <v>1.055068362623719</v>
+        <v>1.023138241306133</v>
       </c>
       <c r="M14">
-        <v>1.065798646606206</v>
+        <v>1.037429070467371</v>
       </c>
       <c r="N14">
-        <v>1.057846762999707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00972744226906</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039458871105746</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.030775668638003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028795806643481</v>
+        <v>0.9874855711512632</v>
       </c>
       <c r="D15">
-        <v>1.046761467917137</v>
+        <v>1.013358814733988</v>
       </c>
       <c r="E15">
-        <v>1.041479733202048</v>
+        <v>1.00870554607869</v>
       </c>
       <c r="F15">
-        <v>1.052409777141823</v>
+        <v>1.023291743265219</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.065997633385926</v>
+        <v>1.046433742653586</v>
       </c>
       <c r="J15">
-        <v>1.056873693757196</v>
+        <v>1.017234091238391</v>
       </c>
       <c r="K15">
-        <v>1.060784974124021</v>
+        <v>1.027962572002821</v>
       </c>
       <c r="L15">
-        <v>1.055591794585218</v>
+        <v>1.023394108973797</v>
       </c>
       <c r="M15">
-        <v>1.066339847015498</v>
+        <v>1.037717819574237</v>
       </c>
       <c r="N15">
-        <v>1.058374575627439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009805765548854</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039724641351361</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.030916885541423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033015588621912</v>
+        <v>0.9898184305788129</v>
       </c>
       <c r="D16">
-        <v>1.050067731717627</v>
+        <v>1.01487777795743</v>
       </c>
       <c r="E16">
-        <v>1.045036448501173</v>
+        <v>1.010446456555993</v>
       </c>
       <c r="F16">
-        <v>1.056061921666375</v>
+        <v>1.024958212710434</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.067856897909082</v>
+        <v>1.046963696023345</v>
       </c>
       <c r="J16">
-        <v>1.059905078377664</v>
+        <v>1.018363813827091</v>
       </c>
       <c r="K16">
-        <v>1.063554042473614</v>
+        <v>1.028947602172165</v>
       </c>
       <c r="L16">
-        <v>1.058603098397196</v>
+        <v>1.024593492884394</v>
       </c>
       <c r="M16">
-        <v>1.069453795646666</v>
+        <v>1.038855602171555</v>
       </c>
       <c r="N16">
-        <v>1.061410265161772</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010178646901929</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040585220409783</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.031616530603083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035620558606492</v>
+        <v>0.9911990261310557</v>
       </c>
       <c r="D17">
-        <v>1.052110301286151</v>
+        <v>1.015777415316781</v>
       </c>
       <c r="E17">
-        <v>1.047234235786254</v>
+        <v>1.011415533325468</v>
       </c>
       <c r="F17">
-        <v>1.058318941701212</v>
+        <v>1.025773222231483</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.06900165713449</v>
+        <v>1.047251488207084</v>
       </c>
       <c r="J17">
-        <v>1.061775508863882</v>
+        <v>1.018999665142584</v>
       </c>
       <c r="K17">
-        <v>1.065262432642475</v>
+        <v>1.029514351153871</v>
       </c>
       <c r="L17">
-        <v>1.060461837425607</v>
+        <v>1.025226324257808</v>
       </c>
       <c r="M17">
-        <v>1.071376260179447</v>
+        <v>1.039343956335748</v>
       </c>
       <c r="N17">
-        <v>1.063283351873822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010380015025709</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040842177820023</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03201985048291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037125384004711</v>
+        <v>0.9918784472987697</v>
       </c>
       <c r="D18">
-        <v>1.053290763315363</v>
+        <v>1.016213848527972</v>
       </c>
       <c r="E18">
-        <v>1.048504583742507</v>
+        <v>1.011776812328133</v>
       </c>
       <c r="F18">
-        <v>1.059623621180301</v>
+        <v>1.025869068796457</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.069661853967612</v>
+        <v>1.047349047675339</v>
       </c>
       <c r="J18">
-        <v>1.062855659696236</v>
+        <v>1.019251827645139</v>
       </c>
       <c r="K18">
-        <v>1.066248935432904</v>
+        <v>1.029758458245266</v>
       </c>
       <c r="L18">
-        <v>1.061535483911222</v>
+        <v>1.025395312535437</v>
       </c>
       <c r="M18">
-        <v>1.072486846881746</v>
+        <v>1.039255724441317</v>
       </c>
       <c r="N18">
-        <v>1.064365036644253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010445178267141</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040534691203914</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032180741528097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037636060204285</v>
+        <v>0.9919196119093308</v>
       </c>
       <c r="D19">
-        <v>1.05369144936368</v>
+        <v>1.016233964852666</v>
       </c>
       <c r="E19">
-        <v>1.048935810973852</v>
+        <v>1.01157394777821</v>
       </c>
       <c r="F19">
-        <v>1.060066518358122</v>
+        <v>1.025295077770132</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.069885709138826</v>
+        <v>1.047277052154026</v>
       </c>
       <c r="J19">
-        <v>1.06322215750414</v>
+        <v>1.019154965886353</v>
       </c>
       <c r="K19">
-        <v>1.066583645604058</v>
+        <v>1.029715168210398</v>
       </c>
       <c r="L19">
-        <v>1.061899816353897</v>
+        <v>1.025132357949759</v>
       </c>
       <c r="M19">
-        <v>1.072863736774253</v>
+        <v>1.038628735225247</v>
       </c>
       <c r="N19">
-        <v>1.064732054921082</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01038915536085</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039713280119824</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.032156564148679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035342592552237</v>
+        <v>0.9901659616836856</v>
       </c>
       <c r="D20">
-        <v>1.051892291956253</v>
+        <v>1.015071253937395</v>
       </c>
       <c r="E20">
-        <v>1.046999640925908</v>
+        <v>1.009810383001366</v>
       </c>
       <c r="F20">
-        <v>1.058078014449758</v>
+        <v>1.022916958712664</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.06887961835292</v>
+        <v>1.046729924684197</v>
       </c>
       <c r="J20">
-        <v>1.061575958459155</v>
+        <v>1.018081304073974</v>
       </c>
       <c r="K20">
-        <v>1.065080177152079</v>
+        <v>1.028854171062492</v>
       </c>
       <c r="L20">
-        <v>1.060263508574091</v>
+        <v>1.023682894579909</v>
       </c>
       <c r="M20">
-        <v>1.071171118136901</v>
+        <v>1.036568464992326</v>
       </c>
       <c r="N20">
-        <v>1.063083518084631</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009992855073542</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.03755480522146</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031551739965394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027710918209114</v>
+        <v>0.9858120327794442</v>
       </c>
       <c r="D21">
-        <v>1.045911949728051</v>
+        <v>1.012238058422127</v>
       </c>
       <c r="E21">
-        <v>1.040566014210032</v>
+        <v>1.00644800396133</v>
       </c>
       <c r="F21">
-        <v>1.051471626084445</v>
+        <v>1.019548526897306</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.065518697359791</v>
+        <v>1.045705440860799</v>
       </c>
       <c r="J21">
-        <v>1.056094068505092</v>
+        <v>1.015915161701016</v>
       </c>
       <c r="K21">
-        <v>1.060072758659208</v>
+        <v>1.026991228007287</v>
       </c>
       <c r="L21">
-        <v>1.054817556611781</v>
+        <v>1.021308238050895</v>
       </c>
       <c r="M21">
-        <v>1.065539334322825</v>
+        <v>1.034168775363347</v>
       </c>
       <c r="N21">
-        <v>1.057593843218052</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009264234227707</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035614667417951</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030237800154667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022769404639744</v>
+        <v>0.9830394150645325</v>
       </c>
       <c r="D22">
-        <v>1.042045220847506</v>
+        <v>1.010433465947189</v>
       </c>
       <c r="E22">
-        <v>1.036407790698711</v>
+        <v>1.004336413979133</v>
       </c>
       <c r="F22">
-        <v>1.047202636218555</v>
+        <v>1.017468101418592</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.063332714459759</v>
+        <v>1.045045065875148</v>
       </c>
       <c r="J22">
-        <v>1.052541767660738</v>
+        <v>1.014542506522641</v>
       </c>
       <c r="K22">
-        <v>1.056827365600198</v>
+        <v>1.025801029144777</v>
       </c>
       <c r="L22">
-        <v>1.051290933872904</v>
+        <v>1.019822452369751</v>
       </c>
       <c r="M22">
-        <v>1.061893616712242</v>
+        <v>1.03270127665157</v>
       </c>
       <c r="N22">
-        <v>1.054036497699045</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.00880333805929</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034453231684162</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029382677739309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025403158892032</v>
+        <v>0.984508374888531</v>
       </c>
       <c r="D23">
-        <v>1.044105573196485</v>
+        <v>1.011384531113401</v>
       </c>
       <c r="E23">
-        <v>1.038623318553023</v>
+        <v>1.005454028797203</v>
       </c>
       <c r="F23">
-        <v>1.049477095887707</v>
+        <v>1.018570892813433</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.064498709508042</v>
+        <v>1.045393438929927</v>
       </c>
       <c r="J23">
-        <v>1.054435329090923</v>
+        <v>1.015267132335161</v>
       </c>
       <c r="K23">
-        <v>1.05855737549189</v>
+        <v>1.026426114302254</v>
       </c>
       <c r="L23">
-        <v>1.053170578052528</v>
+        <v>1.0206078829517</v>
       </c>
       <c r="M23">
-        <v>1.063836618509351</v>
+        <v>1.033478713360291</v>
       </c>
       <c r="N23">
-        <v>1.055932748203655</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009045674500665</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035068525664312</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.029814949085944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035468238473118</v>
+        <v>0.9901909653360562</v>
       </c>
       <c r="D24">
-        <v>1.051990834692713</v>
+        <v>1.0150777078399</v>
       </c>
       <c r="E24">
-        <v>1.047105679951426</v>
+        <v>1.009794515084037</v>
       </c>
       <c r="F24">
-        <v>1.05818691548185</v>
+        <v>1.022853269088546</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.068934785616412</v>
+        <v>1.046719075474494</v>
       </c>
       <c r="J24">
-        <v>1.061666160111218</v>
+        <v>1.018071905594536</v>
       </c>
       <c r="K24">
-        <v>1.065162561304667</v>
+        <v>1.0288451165937</v>
       </c>
       <c r="L24">
-        <v>1.060353157287758</v>
+        <v>1.023651783932453</v>
       </c>
       <c r="M24">
-        <v>1.071263846146526</v>
+        <v>1.03649059950131</v>
       </c>
       <c r="N24">
-        <v>1.063173847833387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009985372690287</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.037452245736373</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031517773101611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.046579736003875</v>
+        <v>0.9965700166538852</v>
       </c>
       <c r="D25">
-        <v>1.060715605056825</v>
+        <v>1.019234401086787</v>
       </c>
       <c r="E25">
-        <v>1.056498113682164</v>
+        <v>1.014698862456705</v>
       </c>
       <c r="F25">
-        <v>1.067834826984438</v>
+        <v>1.02769661618468</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.073789584274792</v>
+        <v>1.048151268838072</v>
       </c>
       <c r="J25">
-        <v>1.069635129905237</v>
+        <v>1.021213367371308</v>
       </c>
       <c r="K25">
-        <v>1.072439219755198</v>
+        <v>1.031541289096006</v>
       </c>
       <c r="L25">
-        <v>1.068278400170517</v>
+        <v>1.027073203614498</v>
       </c>
       <c r="M25">
-        <v>1.079464051835234</v>
+        <v>1.03987967084715</v>
       </c>
       <c r="N25">
-        <v>1.071154134478567</v>
+        <v>1.011037958551316</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.040134474850576</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03342124808835</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001478901920683</v>
+        <v>1.00151274069851</v>
       </c>
       <c r="D2">
-        <v>1.022424964497531</v>
+        <v>1.022077176676149</v>
       </c>
       <c r="E2">
-        <v>1.018495959135741</v>
+        <v>1.01851616761626</v>
       </c>
       <c r="F2">
-        <v>1.031454936112716</v>
+        <v>1.031447707101109</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049197845920842</v>
+        <v>1.049029070625642</v>
       </c>
       <c r="J2">
-        <v>1.023615469083818</v>
+        <v>1.02364829990183</v>
       </c>
       <c r="K2">
-        <v>1.033580479983423</v>
+        <v>1.033237276419098</v>
       </c>
       <c r="L2">
-        <v>1.029703492158335</v>
+        <v>1.029723431802543</v>
       </c>
       <c r="M2">
-        <v>1.042492779649941</v>
+        <v>1.042485643810675</v>
       </c>
       <c r="N2">
-        <v>1.011840344358401</v>
+        <v>1.013513598995861</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042202573350217</v>
+        <v>1.042196925825165</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034814536847686</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034580677605597</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020979999010163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004966015591203</v>
+        <v>1.004884033599194</v>
       </c>
       <c r="D3">
-        <v>1.02470268988259</v>
+        <v>1.024198466302196</v>
       </c>
       <c r="E3">
-        <v>1.021206866648773</v>
+        <v>1.021136291057866</v>
       </c>
       <c r="F3">
-        <v>1.034137074286864</v>
+        <v>1.034064600260378</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049918367860547</v>
+        <v>1.049670850242417</v>
       </c>
       <c r="J3">
-        <v>1.025322211441616</v>
+        <v>1.02524243467851</v>
       </c>
       <c r="K3">
-        <v>1.035028958259045</v>
+        <v>1.034530809547421</v>
       </c>
       <c r="L3">
-        <v>1.031575405859034</v>
+        <v>1.031505687357617</v>
       </c>
       <c r="M3">
-        <v>1.044351030218818</v>
+        <v>1.044279409294171</v>
       </c>
       <c r="N3">
-        <v>1.012411916916764</v>
+        <v>1.013938168874288</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043673249131883</v>
+        <v>1.043616566217971</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035836068255968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035492371648019</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021222677170483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007184083290929</v>
+        <v>1.007029176528063</v>
       </c>
       <c r="D4">
-        <v>1.026152908059534</v>
+        <v>1.025549718354651</v>
       </c>
       <c r="E4">
-        <v>1.022937060121504</v>
+        <v>1.022809243751709</v>
       </c>
       <c r="F4">
-        <v>1.035849612087028</v>
+        <v>1.035736006766324</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050363637216268</v>
+        <v>1.050066210319317</v>
       </c>
       <c r="J4">
-        <v>1.026405787800262</v>
+        <v>1.02625476847862</v>
       </c>
       <c r="K4">
-        <v>1.035945613456275</v>
+        <v>1.035349258220269</v>
       </c>
       <c r="L4">
-        <v>1.032766317632943</v>
+        <v>1.032639959914319</v>
       </c>
       <c r="M4">
-        <v>1.045533792018166</v>
+        <v>1.045421443702177</v>
       </c>
       <c r="N4">
-        <v>1.012774826620841</v>
+        <v>1.014207839972058</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044609321096763</v>
+        <v>1.044520405435134</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036485128095441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036072072369272</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021373676986168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008109800542307</v>
+        <v>1.007924651382288</v>
       </c>
       <c r="D5">
-        <v>1.026760285998016</v>
+        <v>1.026115995929535</v>
       </c>
       <c r="E5">
-        <v>1.023660608968895</v>
+        <v>1.02350903646013</v>
       </c>
       <c r="F5">
-        <v>1.036565360104653</v>
+        <v>1.036434689338626</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05054744835689</v>
+        <v>1.050229271538998</v>
       </c>
       <c r="J5">
-        <v>1.026858563304369</v>
+        <v>1.026677922920676</v>
       </c>
       <c r="K5">
-        <v>1.036329338622597</v>
+        <v>1.035692156721485</v>
       </c>
       <c r="L5">
-        <v>1.033263959839705</v>
+        <v>1.033114071049037</v>
       </c>
       <c r="M5">
-        <v>1.046027574733053</v>
+        <v>1.045898311487854</v>
       </c>
       <c r="N5">
-        <v>1.012926742683977</v>
+        <v>1.014320782598881</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04500011469274</v>
+        <v>1.044897812127371</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036763658260623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036322445121778</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021436668427073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008267348893097</v>
+        <v>1.00807709031452</v>
       </c>
       <c r="D6">
-        <v>1.026865889404594</v>
+        <v>1.026214706119589</v>
       </c>
       <c r="E6">
-        <v>1.02378391883512</v>
+        <v>1.02362833057218</v>
       </c>
       <c r="F6">
-        <v>1.036686643774865</v>
+        <v>1.036553093793755</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050579946372387</v>
+        <v>1.050258288066336</v>
       </c>
       <c r="J6">
-        <v>1.026936872648806</v>
+        <v>1.026751223663402</v>
       </c>
       <c r="K6">
-        <v>1.036397386460137</v>
+        <v>1.035753354883847</v>
       </c>
       <c r="L6">
-        <v>1.033349362837664</v>
+        <v>1.033195494994254</v>
       </c>
       <c r="M6">
-        <v>1.046111618240479</v>
+        <v>1.045979500245168</v>
       </c>
       <c r="N6">
-        <v>1.01295334264642</v>
+        <v>1.01434060082531</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045066629079011</v>
+        <v>1.044962067193498</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036820556632333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036375368699359</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02144829934851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007203523569429</v>
+        <v>1.007055049862596</v>
       </c>
       <c r="D7">
-        <v>1.026171562535666</v>
+        <v>1.025572446831261</v>
       </c>
       <c r="E7">
-        <v>1.022952490576157</v>
+        <v>1.022829771855929</v>
       </c>
       <c r="F7">
-        <v>1.03586297524155</v>
+        <v>1.035752852820137</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050371241007942</v>
+        <v>1.050075962459226</v>
       </c>
       <c r="J7">
-        <v>1.026418716393087</v>
+        <v>1.026273967100011</v>
       </c>
       <c r="K7">
-        <v>1.035961157741838</v>
+        <v>1.035368827742247</v>
       </c>
       <c r="L7">
-        <v>1.032778660824058</v>
+        <v>1.03265734205162</v>
       </c>
       <c r="M7">
-        <v>1.045544144508384</v>
+        <v>1.045435240105251</v>
       </c>
       <c r="N7">
-        <v>1.012780048469707</v>
+        <v>1.014239501881827</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044617514352247</v>
+        <v>1.044531324302604</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036516319530456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036108108247874</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021378883854394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002674073670549</v>
+        <v>1.002689607792637</v>
       </c>
       <c r="D8">
-        <v>1.023212449587394</v>
+        <v>1.022825632568844</v>
       </c>
       <c r="E8">
-        <v>1.019424193649792</v>
+        <v>1.019430270291649</v>
       </c>
       <c r="F8">
-        <v>1.032370786718287</v>
+        <v>1.032352829240667</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049451916240791</v>
+        <v>1.049263808069648</v>
       </c>
       <c r="J8">
-        <v>1.024204990084481</v>
+        <v>1.024220076890318</v>
       </c>
       <c r="K8">
-        <v>1.034086911939715</v>
+        <v>1.033705043954382</v>
       </c>
       <c r="L8">
-        <v>1.030347326185457</v>
+        <v>1.030353324394418</v>
       </c>
       <c r="M8">
-        <v>1.043129425768282</v>
+        <v>1.043111692887854</v>
       </c>
       <c r="N8">
-        <v>1.012038915078429</v>
+        <v>1.013745346998091</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042706434705601</v>
+        <v>1.042692400362349</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035195647032791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03493671448645</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021071025372057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9943762696294765</v>
+        <v>0.9946751198423743</v>
       </c>
       <c r="D9">
-        <v>1.017795413720724</v>
+        <v>1.017785920394278</v>
       </c>
       <c r="E9">
-        <v>1.013007870852857</v>
+        <v>1.013235515498235</v>
       </c>
       <c r="F9">
-        <v>1.026029046882915</v>
+        <v>1.026170348299116</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047661031816534</v>
+        <v>1.047662333868314</v>
       </c>
       <c r="J9">
-        <v>1.020129191325046</v>
+        <v>1.020417324840699</v>
       </c>
       <c r="K9">
-        <v>1.03060622295671</v>
+        <v>1.030596876849769</v>
       </c>
       <c r="L9">
-        <v>1.025893371769799</v>
+        <v>1.026117444426982</v>
       </c>
       <c r="M9">
-        <v>1.038713479109385</v>
+        <v>1.038852634267951</v>
       </c>
       <c r="N9">
-        <v>1.010673171638155</v>
+        <v>1.012741588332569</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039211511220302</v>
+        <v>1.039321643387105</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032731354696992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032735545470075</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.0204725408951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,105 +935,123 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9886709134935031</v>
+        <v>0.9891993741092027</v>
       </c>
       <c r="D10">
-        <v>1.014086765788754</v>
+        <v>1.014359814079707</v>
       </c>
       <c r="E10">
-        <v>1.008674423189928</v>
+        <v>1.009081188951064</v>
       </c>
       <c r="F10">
-        <v>1.021813769704626</v>
+        <v>1.02208333828107</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04638127649719</v>
+        <v>1.046524379214014</v>
       </c>
       <c r="J10">
-        <v>1.017341342489706</v>
+        <v>1.017848163966253</v>
       </c>
       <c r="K10">
-        <v>1.028206253536849</v>
+        <v>1.028474549245262</v>
       </c>
       <c r="L10">
-        <v>1.022888804816674</v>
+        <v>1.02328839293872</v>
       </c>
       <c r="M10">
-        <v>1.035800031316274</v>
+        <v>1.036064999060867</v>
       </c>
       <c r="N10">
-        <v>1.009743314381634</v>
+        <v>1.012177309069865</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036957238283284</v>
+        <v>1.037166930376014</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031051315491504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031253498744387</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020055746400598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.9865251425960596</v>
+        <v>0.9871819855687159</v>
       </c>
       <c r="D11">
-        <v>1.012719179545212</v>
+        <v>1.013124543751889</v>
       </c>
       <c r="E11">
-        <v>1.007400305833936</v>
+        <v>1.007906019770157</v>
       </c>
       <c r="F11">
-        <v>1.021090385325681</v>
+        <v>1.021430900418073</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046010958941824</v>
+        <v>1.04622152775089</v>
       </c>
       <c r="J11">
-        <v>1.016469437894996</v>
+        <v>1.017097905174036</v>
       </c>
       <c r="K11">
-        <v>1.027405151925526</v>
+        <v>1.027803123305469</v>
       </c>
       <c r="L11">
-        <v>1.022183999729689</v>
+        <v>1.02268036455201</v>
       </c>
       <c r="M11">
-        <v>1.035625234386329</v>
+        <v>1.035959670313923</v>
       </c>
       <c r="N11">
-        <v>1.009485049667931</v>
+        <v>1.012229981793032</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037255730342833</v>
+        <v>1.037520265169915</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030517935015756</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030815020421549</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019944672705223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9858479118117315</v>
+        <v>0.9865494497406765</v>
       </c>
       <c r="D12">
-        <v>1.012288660865648</v>
+        <v>1.012737751550495</v>
       </c>
       <c r="E12">
-        <v>1.007139596750659</v>
+        <v>1.007678945326908</v>
       </c>
       <c r="F12">
-        <v>1.021219899080148</v>
+        <v>1.021585013257814</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045938542698894</v>
+        <v>1.046171696445037</v>
       </c>
       <c r="J12">
-        <v>1.016263529090129</v>
+        <v>1.016934175025068</v>
       </c>
       <c r="K12">
-        <v>1.027184156634258</v>
+        <v>1.027624918532039</v>
       </c>
       <c r="L12">
-        <v>1.022131279824766</v>
+        <v>1.022660492885594</v>
       </c>
       <c r="M12">
-        <v>1.035951546567969</v>
+        <v>1.036310041808811</v>
       </c>
       <c r="N12">
-        <v>1.009441595829377</v>
+        <v>1.012305930532523</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037840546647215</v>
+        <v>1.038124015950419</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030361682420874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030689025214697</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019922817475343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9862648195921156</v>
+        <v>0.9869395820958156</v>
       </c>
       <c r="D13">
-        <v>1.012563176283068</v>
+        <v>1.012983993657857</v>
       </c>
       <c r="E13">
-        <v>1.007651077410572</v>
+        <v>1.008168463093673</v>
       </c>
       <c r="F13">
-        <v>1.02203420763544</v>
+        <v>1.022384738797266</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046102822164373</v>
+        <v>1.046322062973613</v>
       </c>
       <c r="J13">
-        <v>1.016567276926018</v>
+        <v>1.017212470188498</v>
       </c>
       <c r="K13">
-        <v>1.027410340309253</v>
+        <v>1.027823384598372</v>
       </c>
       <c r="L13">
-        <v>1.022589601664521</v>
+        <v>1.02309730972878</v>
       </c>
       <c r="M13">
-        <v>1.03670844221317</v>
+        <v>1.037052653021796</v>
       </c>
       <c r="N13">
-        <v>1.009565414842157</v>
+        <v>1.012372846501916</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038715851011043</v>
+        <v>1.038987956878744</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030519095599134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030826595636052</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01997217615306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9870512952812128</v>
+        <v>0.9876756417798069</v>
       </c>
       <c r="D14">
-        <v>1.013075063347626</v>
+        <v>1.013444084334535</v>
       </c>
       <c r="E14">
-        <v>1.008355430008874</v>
+        <v>1.00883299518546</v>
       </c>
       <c r="F14">
-        <v>1.022910229847494</v>
+        <v>1.02323334559799</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046324308076453</v>
+        <v>1.046517575209019</v>
       </c>
       <c r="J14">
-        <v>1.017009296231626</v>
+        <v>1.017606672008762</v>
       </c>
       <c r="K14">
-        <v>1.027771196093364</v>
+        <v>1.028133484107142</v>
       </c>
       <c r="L14">
-        <v>1.023138241306133</v>
+        <v>1.023606987678933</v>
       </c>
       <c r="M14">
-        <v>1.037429070467371</v>
+        <v>1.037746436667992</v>
       </c>
       <c r="N14">
-        <v>1.00972744226906</v>
+        <v>1.01241656919259</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039458871105746</v>
+        <v>1.039709721883195</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030775668638003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031047415577643</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020039173353268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9874855711512632</v>
+        <v>0.9880825615520956</v>
       </c>
       <c r="D15">
-        <v>1.013358814733988</v>
+        <v>1.013699752176735</v>
       </c>
       <c r="E15">
-        <v>1.00870554607869</v>
+        <v>1.009161737775774</v>
       </c>
       <c r="F15">
-        <v>1.023291743265219</v>
+        <v>1.023599944087986</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046433742653586</v>
+        <v>1.04661285166035</v>
       </c>
       <c r="J15">
-        <v>1.017234091238391</v>
+        <v>1.017805517086083</v>
       </c>
       <c r="K15">
-        <v>1.027962572002821</v>
+        <v>1.028297335684652</v>
       </c>
       <c r="L15">
-        <v>1.023394108973797</v>
+        <v>1.023841941569049</v>
       </c>
       <c r="M15">
-        <v>1.037717819574237</v>
+        <v>1.03802057880163</v>
       </c>
       <c r="N15">
-        <v>1.009805765548854</v>
+        <v>1.012430030625666</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039724641351361</v>
+        <v>1.039963940274401</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030916885541423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031169739687488</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020072916186232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9898184305788129</v>
+        <v>0.9902771622181989</v>
       </c>
       <c r="D16">
-        <v>1.01487777795743</v>
+        <v>1.015073573359572</v>
       </c>
       <c r="E16">
-        <v>1.010446456555993</v>
+        <v>1.010795348185122</v>
       </c>
       <c r="F16">
-        <v>1.024958212710434</v>
+        <v>1.025190476118354</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046963696023345</v>
+        <v>1.047069396701396</v>
       </c>
       <c r="J16">
-        <v>1.018363813827091</v>
+        <v>1.018803881565496</v>
       </c>
       <c r="K16">
-        <v>1.028947602172165</v>
+        <v>1.029140006122585</v>
       </c>
       <c r="L16">
-        <v>1.024593492884394</v>
+        <v>1.024936273557637</v>
       </c>
       <c r="M16">
-        <v>1.038855602171555</v>
+        <v>1.039083944068306</v>
       </c>
       <c r="N16">
-        <v>1.010178646901929</v>
+        <v>1.012485712416715</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040585220409783</v>
+        <v>1.040765705512681</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.031616530603083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03176902708795</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020238620888819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9911990261310557</v>
+        <v>0.9915856978508797</v>
       </c>
       <c r="D17">
-        <v>1.015777415316781</v>
+        <v>1.015893967902814</v>
       </c>
       <c r="E17">
-        <v>1.011415533325468</v>
+        <v>1.011708674239881</v>
       </c>
       <c r="F17">
-        <v>1.025773222231483</v>
+        <v>1.025965490143645</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047251488207084</v>
+        <v>1.047317050358385</v>
       </c>
       <c r="J17">
-        <v>1.018999665142584</v>
+        <v>1.019371110114086</v>
       </c>
       <c r="K17">
-        <v>1.029514351153871</v>
+        <v>1.029628941499065</v>
       </c>
       <c r="L17">
-        <v>1.025226324257808</v>
+        <v>1.025514475955303</v>
       </c>
       <c r="M17">
-        <v>1.039343956335748</v>
+        <v>1.039533068204226</v>
       </c>
       <c r="N17">
-        <v>1.010380015025709</v>
+        <v>1.012534448288429</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040842177820023</v>
+        <v>1.040991669766714</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03201985048291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032117575071887</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020331149059729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9918784472987697</v>
+        <v>0.992234221377615</v>
       </c>
       <c r="D18">
-        <v>1.016213848527972</v>
+        <v>1.01629484219869</v>
       </c>
       <c r="E18">
-        <v>1.011776812328133</v>
+        <v>1.012046360289854</v>
       </c>
       <c r="F18">
-        <v>1.025869068796457</v>
+        <v>1.026043725180595</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047349047675339</v>
+        <v>1.04739642269225</v>
       </c>
       <c r="J18">
-        <v>1.019251827645139</v>
+        <v>1.019593855157336</v>
       </c>
       <c r="K18">
-        <v>1.029758458245266</v>
+        <v>1.029838110837178</v>
       </c>
       <c r="L18">
-        <v>1.025395312535437</v>
+        <v>1.025660347860585</v>
       </c>
       <c r="M18">
-        <v>1.039255724441317</v>
+        <v>1.039427558680977</v>
       </c>
       <c r="N18">
-        <v>1.010445178267141</v>
+        <v>1.012538880265914</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040534691203914</v>
+        <v>1.040670553589895</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032180741528097</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032252628274604</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020363557297247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9919196119093308</v>
+        <v>0.9922773220660458</v>
       </c>
       <c r="D19">
-        <v>1.016233964852666</v>
+        <v>1.016316710740481</v>
       </c>
       <c r="E19">
-        <v>1.01157394777821</v>
+        <v>1.011845692415473</v>
       </c>
       <c r="F19">
-        <v>1.025295077770132</v>
+        <v>1.025470268101331</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047277052154026</v>
+        <v>1.04732492877492</v>
       </c>
       <c r="J19">
-        <v>1.019154965886353</v>
+        <v>1.019498937327317</v>
       </c>
       <c r="K19">
-        <v>1.029715168210398</v>
+        <v>1.029796551400517</v>
       </c>
       <c r="L19">
-        <v>1.025132357949759</v>
+        <v>1.025399575191792</v>
       </c>
       <c r="M19">
-        <v>1.038628735225247</v>
+        <v>1.038801105825186</v>
       </c>
       <c r="N19">
-        <v>1.01038915536085</v>
+        <v>1.01248502984636</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039713280119824</v>
+        <v>1.039849611149627</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032156564148679</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03223029795755</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020342499057707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9901659616836856</v>
+        <v>0.9906146245942008</v>
       </c>
       <c r="D20">
-        <v>1.015071253937395</v>
+        <v>1.015257571052815</v>
       </c>
       <c r="E20">
-        <v>1.009810383001366</v>
+        <v>1.010154614653548</v>
       </c>
       <c r="F20">
-        <v>1.022916958712664</v>
+        <v>1.023142236583671</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046729924684197</v>
+        <v>1.046829276222103</v>
       </c>
       <c r="J20">
-        <v>1.018081304073974</v>
+        <v>1.018512193061597</v>
       </c>
       <c r="K20">
-        <v>1.028854171062492</v>
+        <v>1.029037337100071</v>
       </c>
       <c r="L20">
-        <v>1.023682894579909</v>
+        <v>1.024021226975824</v>
       </c>
       <c r="M20">
-        <v>1.036568464992326</v>
+        <v>1.036790007913637</v>
       </c>
       <c r="N20">
-        <v>1.009992855073542</v>
+        <v>1.012257124336764</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03755480522146</v>
+        <v>1.03773013357385</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031551739965394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031697829098921</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020168536750693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9858120327794442</v>
+        <v>0.9865329515115888</v>
       </c>
       <c r="D21">
-        <v>1.012238058422127</v>
+        <v>1.01270558578145</v>
       </c>
       <c r="E21">
-        <v>1.00644800396133</v>
+        <v>1.007006203116392</v>
       </c>
       <c r="F21">
-        <v>1.019548526897306</v>
+        <v>1.019924739067424</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045705440860799</v>
+        <v>1.045946871411846</v>
       </c>
       <c r="J21">
-        <v>1.015915161701016</v>
+        <v>1.016604718275527</v>
       </c>
       <c r="K21">
-        <v>1.026991228007287</v>
+        <v>1.027450179837681</v>
       </c>
       <c r="L21">
-        <v>1.021308238050895</v>
+        <v>1.021856045529229</v>
       </c>
       <c r="M21">
-        <v>1.034168775363347</v>
+        <v>1.034538214128234</v>
       </c>
       <c r="N21">
-        <v>1.009264234227707</v>
+        <v>1.012164257730271</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035614667417951</v>
+        <v>1.03590705536934</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030237800154667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030579213832761</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01985333781126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9830394150645325</v>
+        <v>0.983932615847627</v>
       </c>
       <c r="D22">
-        <v>1.010433465947189</v>
+        <v>1.011079095362527</v>
       </c>
       <c r="E22">
-        <v>1.004336413979133</v>
+        <v>1.005029976068668</v>
       </c>
       <c r="F22">
-        <v>1.017468101418592</v>
+        <v>1.017940011321521</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045045065875148</v>
+        <v>1.045376343958484</v>
       </c>
       <c r="J22">
-        <v>1.014542506522641</v>
+        <v>1.015394587703701</v>
       </c>
       <c r="K22">
-        <v>1.025801029144777</v>
+        <v>1.026434222542014</v>
       </c>
       <c r="L22">
-        <v>1.019822452369751</v>
+        <v>1.020502442405398</v>
       </c>
       <c r="M22">
-        <v>1.03270127665157</v>
+        <v>1.033164258188702</v>
       </c>
       <c r="N22">
-        <v>1.00880333805929</v>
+        <v>1.012098956688189</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034453231684162</v>
+        <v>1.034819653541712</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029382677739309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029845992565511</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019649327553668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.984508374888531</v>
+        <v>0.9852990692739442</v>
       </c>
       <c r="D23">
-        <v>1.011384531113401</v>
+        <v>1.011928042175838</v>
       </c>
       <c r="E23">
-        <v>1.005454028797203</v>
+        <v>1.006066923494571</v>
       </c>
       <c r="F23">
-        <v>1.018570892813433</v>
+        <v>1.018985918272593</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045393438929927</v>
+        <v>1.045673093220871</v>
       </c>
       <c r="J23">
-        <v>1.015267132335161</v>
+        <v>1.01602249377243</v>
       </c>
       <c r="K23">
-        <v>1.026426114302254</v>
+        <v>1.026959422054924</v>
       </c>
       <c r="L23">
-        <v>1.0206078829517</v>
+        <v>1.021209094654494</v>
       </c>
       <c r="M23">
-        <v>1.033478713360291</v>
+        <v>1.033886088875046</v>
       </c>
       <c r="N23">
-        <v>1.009045674500665</v>
+        <v>1.012089710901479</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035068525664312</v>
+        <v>1.035390938450723</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029814949085944</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030206696584197</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019753621468259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9901909653360562</v>
+        <v>0.9906387825235756</v>
       </c>
       <c r="D24">
-        <v>1.0150777078399</v>
+        <v>1.015262867861755</v>
       </c>
       <c r="E24">
-        <v>1.009794515084037</v>
+        <v>1.010138235365843</v>
       </c>
       <c r="F24">
-        <v>1.022853269088546</v>
+        <v>1.023078061411539</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046719075474494</v>
+        <v>1.046817791454969</v>
       </c>
       <c r="J24">
-        <v>1.018071905594536</v>
+        <v>1.018502008591355</v>
       </c>
       <c r="K24">
-        <v>1.0288451165937</v>
+        <v>1.029027149173685</v>
       </c>
       <c r="L24">
-        <v>1.023651783932453</v>
+        <v>1.023989621052109</v>
       </c>
       <c r="M24">
-        <v>1.03649059950131</v>
+        <v>1.036711669099134</v>
       </c>
       <c r="N24">
-        <v>1.009985372690287</v>
+        <v>1.012247270122754</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037452245736373</v>
+        <v>1.037627208223217</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031517773101611</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031660390067089</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020163160034705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9965700166538852</v>
+        <v>0.9967847110528247</v>
       </c>
       <c r="D25">
-        <v>1.019234401086787</v>
+        <v>1.019119250565213</v>
       </c>
       <c r="E25">
-        <v>1.014698862456705</v>
+        <v>1.014860670665372</v>
       </c>
       <c r="F25">
-        <v>1.02769661618468</v>
+        <v>1.027790826635354</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048151268838072</v>
+        <v>1.048099499695199</v>
       </c>
       <c r="J25">
-        <v>1.021213367371308</v>
+        <v>1.021420769127821</v>
       </c>
       <c r="K25">
-        <v>1.031541289096006</v>
+        <v>1.031427841669977</v>
       </c>
       <c r="L25">
-        <v>1.027073203614498</v>
+        <v>1.02723259219584</v>
       </c>
       <c r="M25">
-        <v>1.03987967084715</v>
+        <v>1.039972517200863</v>
       </c>
       <c r="N25">
-        <v>1.011037958551316</v>
+        <v>1.012977172647647</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040134474850576</v>
+        <v>1.04020795654791</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03342124808835</v>
+        <v>1.033354633365097</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020635873989993</v>
       </c>
     </row>
   </sheetData>
